--- a/out_test/tables/Fexp1/Fexp1_30.xlsx
+++ b/out_test/tables/Fexp1/Fexp1_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="99">
   <si>
     <t>RWS</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>Num_loose</t>
+  </si>
+  <si>
+    <t>Avg_NI_loose</t>
+  </si>
+  <si>
+    <t>Sigma_NI_loose</t>
+  </si>
+  <si>
+    <t>Avg_Num_loose</t>
+  </si>
+  <si>
+    <t>Sigma_Num_loose</t>
   </si>
   <si>
     <t>Run 0</t>
@@ -662,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:MM3"/>
+  <dimension ref="A1:OA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -673,15 +685,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:351">
+    <row r="1" spans="1:391">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -711,13 +723,13 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
-      <c r="AF1" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
+      <c r="AJ1" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
@@ -742,9 +754,7 @@
       <c r="BF1" s="1"/>
       <c r="BG1" s="1"/>
       <c r="BH1" s="1"/>
-      <c r="BI1" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="BI1" s="1"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -752,7 +762,9 @@
       <c r="BN1" s="1"/>
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
+      <c r="BQ1" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="BR1" s="1"/>
       <c r="BS1" s="1"/>
       <c r="BT1" s="1"/>
@@ -773,9 +785,7 @@
       <c r="CI1" s="1"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
-      <c r="CL1" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="CL1" s="1"/>
       <c r="CM1" s="1"/>
       <c r="CN1" s="1"/>
       <c r="CO1" s="1"/>
@@ -787,7 +797,9 @@
       <c r="CU1" s="1"/>
       <c r="CV1" s="1"/>
       <c r="CW1" s="1"/>
-      <c r="CX1" s="1"/>
+      <c r="CX1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="CY1" s="1"/>
       <c r="CZ1" s="1"/>
       <c r="DA1" s="1"/>
@@ -804,9 +816,7 @@
       <c r="DL1" s="1"/>
       <c r="DM1" s="1"/>
       <c r="DN1" s="1"/>
-      <c r="DO1" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="DO1" s="1"/>
       <c r="DP1" s="1"/>
       <c r="DQ1" s="1"/>
       <c r="DR1" s="1"/>
@@ -822,7 +832,9 @@
       <c r="EB1" s="1"/>
       <c r="EC1" s="1"/>
       <c r="ED1" s="1"/>
-      <c r="EE1" s="1"/>
+      <c r="EE1" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="EF1" s="1"/>
       <c r="EG1" s="1"/>
       <c r="EH1" s="1"/>
@@ -835,9 +847,7 @@
       <c r="EO1" s="1"/>
       <c r="EP1" s="1"/>
       <c r="EQ1" s="1"/>
-      <c r="ER1" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="ER1" s="1"/>
       <c r="ES1" s="1"/>
       <c r="ET1" s="1"/>
       <c r="EU1" s="1"/>
@@ -857,7 +867,9 @@
       <c r="FI1" s="1"/>
       <c r="FJ1" s="1"/>
       <c r="FK1" s="1"/>
-      <c r="FL1" s="1"/>
+      <c r="FL1" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="FM1" s="1"/>
       <c r="FN1" s="1"/>
       <c r="FO1" s="1"/>
@@ -866,9 +878,7 @@
       <c r="FR1" s="1"/>
       <c r="FS1" s="1"/>
       <c r="FT1" s="1"/>
-      <c r="FU1" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="FU1" s="1"/>
       <c r="FV1" s="1"/>
       <c r="FW1" s="1"/>
       <c r="FX1" s="1"/>
@@ -892,14 +902,14 @@
       <c r="GP1" s="1"/>
       <c r="GQ1" s="1"/>
       <c r="GR1" s="1"/>
-      <c r="GS1" s="1"/>
+      <c r="GS1" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="GT1" s="1"/>
       <c r="GU1" s="1"/>
       <c r="GV1" s="1"/>
       <c r="GW1" s="1"/>
-      <c r="GX1" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="GX1" s="1"/>
       <c r="GY1" s="1"/>
       <c r="GZ1" s="1"/>
       <c r="HA1" s="1"/>
@@ -927,10 +937,10 @@
       <c r="HW1" s="1"/>
       <c r="HX1" s="1"/>
       <c r="HY1" s="1"/>
-      <c r="HZ1" s="1"/>
-      <c r="IA1" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="IA1" s="1"/>
       <c r="IB1" s="1"/>
       <c r="IC1" s="1"/>
       <c r="ID1" s="1"/>
@@ -959,12 +969,12 @@
       <c r="JA1" s="1"/>
       <c r="JB1" s="1"/>
       <c r="JC1" s="1"/>
-      <c r="JD1" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="JD1" s="1"/>
       <c r="JE1" s="1"/>
       <c r="JF1" s="1"/>
-      <c r="JG1" s="1"/>
+      <c r="JG1" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="JH1" s="1"/>
       <c r="JI1" s="1"/>
       <c r="JJ1" s="1"/>
@@ -990,16 +1000,16 @@
       <c r="KD1" s="1"/>
       <c r="KE1" s="1"/>
       <c r="KF1" s="1"/>
-      <c r="KG1" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="KG1" s="1"/>
       <c r="KH1" s="1"/>
       <c r="KI1" s="1"/>
       <c r="KJ1" s="1"/>
       <c r="KK1" s="1"/>
       <c r="KL1" s="1"/>
       <c r="KM1" s="1"/>
-      <c r="KN1" s="1"/>
+      <c r="KN1" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="KO1" s="1"/>
       <c r="KP1" s="1"/>
       <c r="KQ1" s="1"/>
@@ -1032,7 +1042,9 @@
       <c r="LR1" s="1"/>
       <c r="LS1" s="1"/>
       <c r="LT1" s="1"/>
-      <c r="LU1" s="1"/>
+      <c r="LU1" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="LV1" s="1"/>
       <c r="LW1" s="1"/>
       <c r="LX1" s="1"/>
@@ -1051,8 +1063,48 @@
       <c r="MK1" s="1"/>
       <c r="ML1" s="1"/>
       <c r="MM1" s="1"/>
+      <c r="MN1" s="1"/>
+      <c r="MO1" s="1"/>
+      <c r="MP1" s="1"/>
+      <c r="MQ1" s="1"/>
+      <c r="MR1" s="1"/>
+      <c r="MS1" s="1"/>
+      <c r="MT1" s="1"/>
+      <c r="MU1" s="1"/>
+      <c r="MV1" s="1"/>
+      <c r="MW1" s="1"/>
+      <c r="MX1" s="1"/>
+      <c r="MY1" s="1"/>
+      <c r="MZ1" s="1"/>
+      <c r="NA1" s="1"/>
+      <c r="NB1" s="1"/>
+      <c r="NC1" s="1"/>
+      <c r="ND1" s="1"/>
+      <c r="NE1" s="1"/>
+      <c r="NF1" s="1"/>
+      <c r="NG1" s="1"/>
+      <c r="NH1" s="1"/>
+      <c r="NI1" s="1"/>
+      <c r="NJ1" s="1"/>
+      <c r="NK1" s="1"/>
+      <c r="NL1" s="1"/>
+      <c r="NM1" s="1"/>
+      <c r="NN1" s="1"/>
+      <c r="NO1" s="1"/>
+      <c r="NP1" s="1"/>
+      <c r="NQ1" s="1"/>
+      <c r="NR1" s="1"/>
+      <c r="NS1" s="1"/>
+      <c r="NT1" s="1"/>
+      <c r="NU1" s="1"/>
+      <c r="NV1" s="1"/>
+      <c r="NW1" s="1"/>
+      <c r="NX1" s="1"/>
+      <c r="NY1" s="1"/>
+      <c r="NZ1" s="1"/>
+      <c r="OA1" s="1"/>
     </row>
-    <row r="2" spans="1:351">
+    <row r="2" spans="1:391">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -1143,967 +1195,1087 @@
         <v>30</v>
       </c>
       <c r="AF2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>4</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AM2" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AN2" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AO2" t="s">
         <v>7</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AP2" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AQ2" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AR2" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AS2" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AT2" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AU2" t="s">
         <v>13</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AV2" t="s">
         <v>14</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AW2" t="s">
         <v>15</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AX2" t="s">
         <v>16</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AY2" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AZ2" t="s">
         <v>18</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BA2" t="s">
         <v>19</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BB2" t="s">
         <v>20</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BC2" t="s">
         <v>21</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BD2" t="s">
         <v>22</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BE2" t="s">
         <v>23</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BF2" t="s">
         <v>24</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BG2" t="s">
         <v>25</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BH2" t="s">
         <v>26</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BI2" t="s">
         <v>27</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BJ2" t="s">
         <v>28</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BK2" t="s">
         <v>29</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BL2" t="s">
         <v>30</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BM2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>2</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BR2" t="s">
         <v>3</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BS2" t="s">
         <v>4</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BT2" t="s">
         <v>5</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BU2" t="s">
         <v>6</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BV2" t="s">
         <v>7</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BW2" t="s">
         <v>8</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BX2" t="s">
         <v>9</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BY2" t="s">
         <v>10</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BZ2" t="s">
         <v>11</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="CA2" t="s">
         <v>12</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="CB2" t="s">
         <v>13</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CC2" t="s">
         <v>14</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="CD2" t="s">
         <v>15</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="CE2" t="s">
         <v>16</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CF2" t="s">
         <v>17</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CG2" t="s">
         <v>18</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CH2" t="s">
         <v>19</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CI2" t="s">
         <v>20</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CJ2" t="s">
         <v>21</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CK2" t="s">
         <v>22</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CL2" t="s">
         <v>23</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CM2" t="s">
         <v>24</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CN2" t="s">
         <v>25</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CO2" t="s">
         <v>26</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CP2" t="s">
         <v>27</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CQ2" t="s">
         <v>28</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CR2" t="s">
         <v>29</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CS2" t="s">
         <v>30</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CT2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CX2" t="s">
         <v>2</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CY2" t="s">
         <v>3</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CZ2" t="s">
         <v>4</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="DA2" t="s">
         <v>5</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="DB2" t="s">
         <v>6</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="DC2" t="s">
         <v>7</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="DD2" t="s">
         <v>8</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="DE2" t="s">
         <v>9</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="DF2" t="s">
         <v>10</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="DG2" t="s">
         <v>11</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="DH2" t="s">
         <v>12</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="DI2" t="s">
         <v>13</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="DJ2" t="s">
         <v>14</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DK2" t="s">
         <v>15</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DL2" t="s">
         <v>16</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DM2" t="s">
         <v>17</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DN2" t="s">
         <v>18</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DO2" t="s">
         <v>19</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DP2" t="s">
         <v>20</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DQ2" t="s">
         <v>21</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DR2" t="s">
         <v>22</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DS2" t="s">
         <v>23</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DT2" t="s">
         <v>24</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="DU2" t="s">
         <v>25</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="DV2" t="s">
         <v>26</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DW2" t="s">
         <v>27</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="DX2" t="s">
         <v>28</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="DY2" t="s">
         <v>29</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="DZ2" t="s">
         <v>30</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="EA2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>32</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>33</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>34</v>
+      </c>
+      <c r="EE2" t="s">
         <v>2</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="EF2" t="s">
         <v>3</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="EG2" t="s">
         <v>4</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="EH2" t="s">
         <v>5</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="EI2" t="s">
         <v>6</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="EJ2" t="s">
         <v>7</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="EK2" t="s">
         <v>8</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="EL2" t="s">
         <v>9</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="EM2" t="s">
         <v>10</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="EN2" t="s">
         <v>11</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EO2" t="s">
         <v>12</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="EP2" t="s">
         <v>13</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EQ2" t="s">
         <v>14</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="ER2" t="s">
         <v>15</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="ES2" t="s">
         <v>16</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="ET2" t="s">
         <v>17</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="EU2" t="s">
         <v>18</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EV2" t="s">
         <v>19</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="EW2" t="s">
         <v>20</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="EX2" t="s">
         <v>21</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="EY2" t="s">
         <v>22</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="EZ2" t="s">
         <v>23</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="FA2" t="s">
         <v>24</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="FB2" t="s">
         <v>25</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="FC2" t="s">
         <v>26</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="FD2" t="s">
         <v>27</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="FE2" t="s">
         <v>28</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="FF2" t="s">
         <v>29</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="FG2" t="s">
         <v>30</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="FH2" t="s">
+        <v>31</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>32</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>34</v>
+      </c>
+      <c r="FL2" t="s">
         <v>2</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="FM2" t="s">
         <v>3</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="FN2" t="s">
         <v>4</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="FO2" t="s">
         <v>5</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="FP2" t="s">
         <v>6</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="FQ2" t="s">
         <v>7</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="FR2" t="s">
         <v>8</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="FS2" t="s">
         <v>9</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="FT2" t="s">
         <v>10</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="FU2" t="s">
         <v>11</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="FV2" t="s">
         <v>12</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="FW2" t="s">
         <v>13</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="FX2" t="s">
         <v>14</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="FY2" t="s">
         <v>15</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="FZ2" t="s">
         <v>16</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="GA2" t="s">
         <v>17</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="GB2" t="s">
         <v>18</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="GC2" t="s">
         <v>19</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="GD2" t="s">
         <v>20</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="GE2" t="s">
         <v>21</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="GF2" t="s">
         <v>22</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="GG2" t="s">
         <v>23</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="GH2" t="s">
         <v>24</v>
       </c>
-      <c r="FO2" t="s">
+      <c r="GI2" t="s">
         <v>25</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="GJ2" t="s">
         <v>26</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="GK2" t="s">
         <v>27</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="GL2" t="s">
         <v>28</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="GM2" t="s">
         <v>29</v>
       </c>
-      <c r="FT2" t="s">
+      <c r="GN2" t="s">
         <v>30</v>
       </c>
-      <c r="FU2" t="s">
+      <c r="GO2" t="s">
+        <v>31</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>32</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>34</v>
+      </c>
+      <c r="GS2" t="s">
         <v>2</v>
       </c>
-      <c r="FV2" t="s">
+      <c r="GT2" t="s">
         <v>3</v>
       </c>
-      <c r="FW2" t="s">
+      <c r="GU2" t="s">
         <v>4</v>
       </c>
-      <c r="FX2" t="s">
+      <c r="GV2" t="s">
         <v>5</v>
       </c>
-      <c r="FY2" t="s">
+      <c r="GW2" t="s">
         <v>6</v>
       </c>
-      <c r="FZ2" t="s">
+      <c r="GX2" t="s">
         <v>7</v>
       </c>
-      <c r="GA2" t="s">
+      <c r="GY2" t="s">
         <v>8</v>
       </c>
-      <c r="GB2" t="s">
+      <c r="GZ2" t="s">
         <v>9</v>
       </c>
-      <c r="GC2" t="s">
+      <c r="HA2" t="s">
         <v>10</v>
       </c>
-      <c r="GD2" t="s">
+      <c r="HB2" t="s">
         <v>11</v>
       </c>
-      <c r="GE2" t="s">
+      <c r="HC2" t="s">
         <v>12</v>
       </c>
-      <c r="GF2" t="s">
+      <c r="HD2" t="s">
         <v>13</v>
       </c>
-      <c r="GG2" t="s">
+      <c r="HE2" t="s">
         <v>14</v>
       </c>
-      <c r="GH2" t="s">
+      <c r="HF2" t="s">
         <v>15</v>
       </c>
-      <c r="GI2" t="s">
+      <c r="HG2" t="s">
         <v>16</v>
       </c>
-      <c r="GJ2" t="s">
+      <c r="HH2" t="s">
         <v>17</v>
       </c>
-      <c r="GK2" t="s">
+      <c r="HI2" t="s">
         <v>18</v>
       </c>
-      <c r="GL2" t="s">
+      <c r="HJ2" t="s">
         <v>19</v>
       </c>
-      <c r="GM2" t="s">
+      <c r="HK2" t="s">
         <v>20</v>
       </c>
-      <c r="GN2" t="s">
+      <c r="HL2" t="s">
         <v>21</v>
       </c>
-      <c r="GO2" t="s">
+      <c r="HM2" t="s">
         <v>22</v>
       </c>
-      <c r="GP2" t="s">
+      <c r="HN2" t="s">
         <v>23</v>
       </c>
-      <c r="GQ2" t="s">
+      <c r="HO2" t="s">
         <v>24</v>
       </c>
-      <c r="GR2" t="s">
+      <c r="HP2" t="s">
         <v>25</v>
       </c>
-      <c r="GS2" t="s">
+      <c r="HQ2" t="s">
         <v>26</v>
       </c>
-      <c r="GT2" t="s">
+      <c r="HR2" t="s">
         <v>27</v>
       </c>
-      <c r="GU2" t="s">
+      <c r="HS2" t="s">
         <v>28</v>
       </c>
-      <c r="GV2" t="s">
+      <c r="HT2" t="s">
         <v>29</v>
       </c>
-      <c r="GW2" t="s">
+      <c r="HU2" t="s">
         <v>30</v>
       </c>
-      <c r="GX2" t="s">
+      <c r="HV2" t="s">
+        <v>31</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>32</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>33</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>34</v>
+      </c>
+      <c r="HZ2" t="s">
         <v>2</v>
       </c>
-      <c r="GY2" t="s">
+      <c r="IA2" t="s">
         <v>3</v>
       </c>
-      <c r="GZ2" t="s">
+      <c r="IB2" t="s">
         <v>4</v>
       </c>
-      <c r="HA2" t="s">
+      <c r="IC2" t="s">
         <v>5</v>
       </c>
-      <c r="HB2" t="s">
+      <c r="ID2" t="s">
         <v>6</v>
       </c>
-      <c r="HC2" t="s">
+      <c r="IE2" t="s">
         <v>7</v>
       </c>
-      <c r="HD2" t="s">
+      <c r="IF2" t="s">
         <v>8</v>
       </c>
-      <c r="HE2" t="s">
+      <c r="IG2" t="s">
         <v>9</v>
       </c>
-      <c r="HF2" t="s">
+      <c r="IH2" t="s">
         <v>10</v>
       </c>
-      <c r="HG2" t="s">
+      <c r="II2" t="s">
         <v>11</v>
       </c>
-      <c r="HH2" t="s">
+      <c r="IJ2" t="s">
         <v>12</v>
       </c>
-      <c r="HI2" t="s">
+      <c r="IK2" t="s">
         <v>13</v>
       </c>
-      <c r="HJ2" t="s">
+      <c r="IL2" t="s">
         <v>14</v>
       </c>
-      <c r="HK2" t="s">
+      <c r="IM2" t="s">
         <v>15</v>
       </c>
-      <c r="HL2" t="s">
+      <c r="IN2" t="s">
         <v>16</v>
       </c>
-      <c r="HM2" t="s">
+      <c r="IO2" t="s">
         <v>17</v>
       </c>
-      <c r="HN2" t="s">
+      <c r="IP2" t="s">
         <v>18</v>
       </c>
-      <c r="HO2" t="s">
+      <c r="IQ2" t="s">
         <v>19</v>
       </c>
-      <c r="HP2" t="s">
+      <c r="IR2" t="s">
         <v>20</v>
       </c>
-      <c r="HQ2" t="s">
+      <c r="IS2" t="s">
         <v>21</v>
       </c>
-      <c r="HR2" t="s">
+      <c r="IT2" t="s">
         <v>22</v>
       </c>
-      <c r="HS2" t="s">
+      <c r="IU2" t="s">
         <v>23</v>
       </c>
-      <c r="HT2" t="s">
+      <c r="IV2" t="s">
         <v>24</v>
       </c>
-      <c r="HU2" t="s">
+      <c r="IW2" t="s">
         <v>25</v>
       </c>
-      <c r="HV2" t="s">
+      <c r="IX2" t="s">
         <v>26</v>
       </c>
-      <c r="HW2" t="s">
+      <c r="IY2" t="s">
         <v>27</v>
       </c>
-      <c r="HX2" t="s">
+      <c r="IZ2" t="s">
         <v>28</v>
       </c>
-      <c r="HY2" t="s">
+      <c r="JA2" t="s">
         <v>29</v>
       </c>
-      <c r="HZ2" t="s">
+      <c r="JB2" t="s">
         <v>30</v>
       </c>
-      <c r="IA2" t="s">
+      <c r="JC2" t="s">
+        <v>31</v>
+      </c>
+      <c r="JD2" t="s">
+        <v>32</v>
+      </c>
+      <c r="JE2" t="s">
+        <v>33</v>
+      </c>
+      <c r="JF2" t="s">
+        <v>34</v>
+      </c>
+      <c r="JG2" t="s">
         <v>2</v>
       </c>
-      <c r="IB2" t="s">
+      <c r="JH2" t="s">
         <v>3</v>
       </c>
-      <c r="IC2" t="s">
+      <c r="JI2" t="s">
         <v>4</v>
       </c>
-      <c r="ID2" t="s">
+      <c r="JJ2" t="s">
         <v>5</v>
       </c>
-      <c r="IE2" t="s">
+      <c r="JK2" t="s">
         <v>6</v>
       </c>
-      <c r="IF2" t="s">
+      <c r="JL2" t="s">
         <v>7</v>
       </c>
-      <c r="IG2" t="s">
+      <c r="JM2" t="s">
         <v>8</v>
       </c>
-      <c r="IH2" t="s">
+      <c r="JN2" t="s">
         <v>9</v>
       </c>
-      <c r="II2" t="s">
+      <c r="JO2" t="s">
         <v>10</v>
       </c>
-      <c r="IJ2" t="s">
+      <c r="JP2" t="s">
         <v>11</v>
       </c>
-      <c r="IK2" t="s">
+      <c r="JQ2" t="s">
         <v>12</v>
       </c>
-      <c r="IL2" t="s">
+      <c r="JR2" t="s">
         <v>13</v>
       </c>
-      <c r="IM2" t="s">
+      <c r="JS2" t="s">
         <v>14</v>
       </c>
-      <c r="IN2" t="s">
+      <c r="JT2" t="s">
         <v>15</v>
       </c>
-      <c r="IO2" t="s">
+      <c r="JU2" t="s">
         <v>16</v>
       </c>
-      <c r="IP2" t="s">
+      <c r="JV2" t="s">
         <v>17</v>
       </c>
-      <c r="IQ2" t="s">
+      <c r="JW2" t="s">
         <v>18</v>
       </c>
-      <c r="IR2" t="s">
+      <c r="JX2" t="s">
         <v>19</v>
       </c>
-      <c r="IS2" t="s">
+      <c r="JY2" t="s">
         <v>20</v>
       </c>
-      <c r="IT2" t="s">
+      <c r="JZ2" t="s">
         <v>21</v>
       </c>
-      <c r="IU2" t="s">
+      <c r="KA2" t="s">
         <v>22</v>
       </c>
-      <c r="IV2" t="s">
+      <c r="KB2" t="s">
         <v>23</v>
       </c>
-      <c r="IW2" t="s">
+      <c r="KC2" t="s">
         <v>24</v>
       </c>
-      <c r="IX2" t="s">
+      <c r="KD2" t="s">
         <v>25</v>
       </c>
-      <c r="IY2" t="s">
+      <c r="KE2" t="s">
         <v>26</v>
       </c>
-      <c r="IZ2" t="s">
+      <c r="KF2" t="s">
         <v>27</v>
       </c>
-      <c r="JA2" t="s">
+      <c r="KG2" t="s">
         <v>28</v>
       </c>
-      <c r="JB2" t="s">
+      <c r="KH2" t="s">
         <v>29</v>
       </c>
-      <c r="JC2" t="s">
+      <c r="KI2" t="s">
         <v>30</v>
       </c>
-      <c r="JD2" t="s">
+      <c r="KJ2" t="s">
+        <v>31</v>
+      </c>
+      <c r="KK2" t="s">
+        <v>32</v>
+      </c>
+      <c r="KL2" t="s">
+        <v>33</v>
+      </c>
+      <c r="KM2" t="s">
+        <v>34</v>
+      </c>
+      <c r="KN2" t="s">
         <v>2</v>
       </c>
-      <c r="JE2" t="s">
+      <c r="KO2" t="s">
         <v>3</v>
       </c>
-      <c r="JF2" t="s">
+      <c r="KP2" t="s">
         <v>4</v>
       </c>
-      <c r="JG2" t="s">
+      <c r="KQ2" t="s">
         <v>5</v>
       </c>
-      <c r="JH2" t="s">
+      <c r="KR2" t="s">
         <v>6</v>
       </c>
-      <c r="JI2" t="s">
+      <c r="KS2" t="s">
         <v>7</v>
       </c>
-      <c r="JJ2" t="s">
+      <c r="KT2" t="s">
         <v>8</v>
       </c>
-      <c r="JK2" t="s">
+      <c r="KU2" t="s">
         <v>9</v>
       </c>
-      <c r="JL2" t="s">
+      <c r="KV2" t="s">
         <v>10</v>
       </c>
-      <c r="JM2" t="s">
+      <c r="KW2" t="s">
         <v>11</v>
       </c>
-      <c r="JN2" t="s">
+      <c r="KX2" t="s">
         <v>12</v>
       </c>
-      <c r="JO2" t="s">
+      <c r="KY2" t="s">
         <v>13</v>
       </c>
-      <c r="JP2" t="s">
+      <c r="KZ2" t="s">
         <v>14</v>
       </c>
-      <c r="JQ2" t="s">
+      <c r="LA2" t="s">
         <v>15</v>
       </c>
-      <c r="JR2" t="s">
+      <c r="LB2" t="s">
         <v>16</v>
       </c>
-      <c r="JS2" t="s">
+      <c r="LC2" t="s">
         <v>17</v>
       </c>
-      <c r="JT2" t="s">
+      <c r="LD2" t="s">
         <v>18</v>
       </c>
-      <c r="JU2" t="s">
+      <c r="LE2" t="s">
         <v>19</v>
       </c>
-      <c r="JV2" t="s">
+      <c r="LF2" t="s">
         <v>20</v>
       </c>
-      <c r="JW2" t="s">
+      <c r="LG2" t="s">
         <v>21</v>
       </c>
-      <c r="JX2" t="s">
+      <c r="LH2" t="s">
         <v>22</v>
       </c>
-      <c r="JY2" t="s">
+      <c r="LI2" t="s">
         <v>23</v>
       </c>
-      <c r="JZ2" t="s">
+      <c r="LJ2" t="s">
         <v>24</v>
       </c>
-      <c r="KA2" t="s">
+      <c r="LK2" t="s">
         <v>25</v>
       </c>
-      <c r="KB2" t="s">
+      <c r="LL2" t="s">
         <v>26</v>
       </c>
-      <c r="KC2" t="s">
+      <c r="LM2" t="s">
         <v>27</v>
       </c>
-      <c r="KD2" t="s">
+      <c r="LN2" t="s">
         <v>28</v>
       </c>
-      <c r="KE2" t="s">
+      <c r="LO2" t="s">
         <v>29</v>
       </c>
-      <c r="KF2" t="s">
+      <c r="LP2" t="s">
         <v>30</v>
       </c>
-      <c r="KG2" t="s">
-        <v>41</v>
-      </c>
-      <c r="KH2" t="s">
-        <v>42</v>
-      </c>
-      <c r="KI2" t="s">
-        <v>43</v>
-      </c>
-      <c r="KJ2" t="s">
-        <v>44</v>
-      </c>
-      <c r="KK2" t="s">
+      <c r="LQ2" t="s">
+        <v>31</v>
+      </c>
+      <c r="LR2" t="s">
+        <v>32</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>33</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>34</v>
+      </c>
+      <c r="LU2" t="s">
         <v>45</v>
       </c>
-      <c r="KL2" t="s">
+      <c r="LV2" t="s">
         <v>46</v>
       </c>
-      <c r="KM2" t="s">
+      <c r="LW2" t="s">
         <v>47</v>
       </c>
-      <c r="KN2" t="s">
+      <c r="LX2" t="s">
+        <v>48</v>
+      </c>
+      <c r="LY2" t="s">
+        <v>49</v>
+      </c>
+      <c r="LZ2" t="s">
+        <v>50</v>
+      </c>
+      <c r="MA2" t="s">
+        <v>51</v>
+      </c>
+      <c r="MB2" t="s">
         <v>6</v>
       </c>
-      <c r="KO2" t="s">
-        <v>48</v>
-      </c>
-      <c r="KP2" t="s">
+      <c r="MC2" t="s">
+        <v>52</v>
+      </c>
+      <c r="MD2" t="s">
         <v>8</v>
       </c>
-      <c r="KQ2" t="s">
-        <v>49</v>
-      </c>
-      <c r="KR2" t="s">
-        <v>50</v>
-      </c>
-      <c r="KS2" t="s">
-        <v>51</v>
-      </c>
-      <c r="KT2" t="s">
-        <v>52</v>
-      </c>
-      <c r="KU2" t="s">
+      <c r="ME2" t="s">
         <v>53</v>
       </c>
-      <c r="KV2" t="s">
+      <c r="MF2" t="s">
         <v>54</v>
       </c>
-      <c r="KW2" t="s">
+      <c r="MG2" t="s">
         <v>55</v>
       </c>
-      <c r="KX2" t="s">
+      <c r="MH2" t="s">
+        <v>56</v>
+      </c>
+      <c r="MI2" t="s">
+        <v>57</v>
+      </c>
+      <c r="MJ2" t="s">
+        <v>58</v>
+      </c>
+      <c r="MK2" t="s">
+        <v>59</v>
+      </c>
+      <c r="ML2" t="s">
         <v>11</v>
       </c>
-      <c r="KY2" t="s">
-        <v>56</v>
-      </c>
-      <c r="KZ2" t="s">
+      <c r="MM2" t="s">
+        <v>60</v>
+      </c>
+      <c r="MN2" t="s">
         <v>13</v>
       </c>
-      <c r="LA2" t="s">
-        <v>57</v>
-      </c>
-      <c r="LB2" t="s">
-        <v>58</v>
-      </c>
-      <c r="LC2" t="s">
-        <v>59</v>
-      </c>
-      <c r="LD2" t="s">
-        <v>60</v>
-      </c>
-      <c r="LE2" t="s">
+      <c r="MO2" t="s">
         <v>61</v>
       </c>
-      <c r="LF2" t="s">
+      <c r="MP2" t="s">
         <v>62</v>
       </c>
-      <c r="LG2" t="s">
+      <c r="MQ2" t="s">
         <v>63</v>
       </c>
-      <c r="LH2" t="s">
+      <c r="MR2" t="s">
+        <v>64</v>
+      </c>
+      <c r="MS2" t="s">
+        <v>65</v>
+      </c>
+      <c r="MT2" t="s">
+        <v>66</v>
+      </c>
+      <c r="MU2" t="s">
+        <v>67</v>
+      </c>
+      <c r="MV2" t="s">
         <v>16</v>
       </c>
-      <c r="LI2" t="s">
-        <v>64</v>
-      </c>
-      <c r="LJ2" t="s">
+      <c r="MW2" t="s">
+        <v>68</v>
+      </c>
+      <c r="MX2" t="s">
         <v>18</v>
       </c>
-      <c r="LK2" t="s">
-        <v>65</v>
-      </c>
-      <c r="LL2" t="s">
-        <v>66</v>
-      </c>
-      <c r="LM2" t="s">
-        <v>67</v>
-      </c>
-      <c r="LN2" t="s">
-        <v>68</v>
-      </c>
-      <c r="LO2" t="s">
+      <c r="MY2" t="s">
         <v>69</v>
       </c>
-      <c r="LP2" t="s">
+      <c r="MZ2" t="s">
         <v>70</v>
       </c>
-      <c r="LQ2" t="s">
+      <c r="NA2" t="s">
         <v>71</v>
       </c>
-      <c r="LR2" t="s">
+      <c r="NB2" t="s">
+        <v>72</v>
+      </c>
+      <c r="NC2" t="s">
+        <v>73</v>
+      </c>
+      <c r="ND2" t="s">
+        <v>74</v>
+      </c>
+      <c r="NE2" t="s">
+        <v>75</v>
+      </c>
+      <c r="NF2" t="s">
         <v>21</v>
       </c>
-      <c r="LS2" t="s">
-        <v>72</v>
-      </c>
-      <c r="LT2" t="s">
+      <c r="NG2" t="s">
+        <v>76</v>
+      </c>
+      <c r="NH2" t="s">
         <v>23</v>
       </c>
-      <c r="LU2" t="s">
-        <v>73</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>74</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>75</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>76</v>
-      </c>
-      <c r="LY2" t="s">
+      <c r="NI2" t="s">
         <v>77</v>
       </c>
-      <c r="LZ2" t="s">
+      <c r="NJ2" t="s">
         <v>78</v>
       </c>
-      <c r="MA2" t="s">
+      <c r="NK2" t="s">
         <v>79</v>
       </c>
-      <c r="MB2" t="s">
+      <c r="NL2" t="s">
         <v>80</v>
       </c>
-      <c r="MC2" t="s">
+      <c r="NM2" t="s">
         <v>81</v>
       </c>
-      <c r="MD2" t="s">
+      <c r="NN2" t="s">
         <v>82</v>
       </c>
-      <c r="ME2" t="s">
+      <c r="NO2" t="s">
         <v>83</v>
       </c>
-      <c r="MF2" t="s">
+      <c r="NP2" t="s">
         <v>84</v>
       </c>
-      <c r="MG2" t="s">
+      <c r="NQ2" t="s">
         <v>85</v>
       </c>
-      <c r="MH2" t="s">
+      <c r="NR2" t="s">
         <v>86</v>
       </c>
-      <c r="MI2" t="s">
+      <c r="NS2" t="s">
         <v>87</v>
       </c>
-      <c r="MJ2" t="s">
+      <c r="NT2" t="s">
         <v>88</v>
       </c>
-      <c r="MK2" t="s">
+      <c r="NU2" t="s">
         <v>89</v>
       </c>
-      <c r="ML2" t="s">
+      <c r="NV2" t="s">
         <v>90</v>
       </c>
-      <c r="MM2" t="s">
+      <c r="NW2" t="s">
         <v>91</v>
       </c>
+      <c r="NX2" t="s">
+        <v>92</v>
+      </c>
+      <c r="NY2" t="s">
+        <v>93</v>
+      </c>
+      <c r="NZ2" t="s">
+        <v>94</v>
+      </c>
+      <c r="OA2" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="3" spans="1:351">
+    <row r="3" spans="1:391">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2120,7 +2292,7 @@
         <v>27722.51006805504</v>
       </c>
       <c r="F3">
-        <v>0.3</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2129,1048 +2301,1027 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="I3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J3">
-        <v>0.6416666666666667</v>
+        <v>0.6479166666666666</v>
       </c>
       <c r="K3">
         <v>0.2666666666666667</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="M3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.3520833333333334</v>
+      </c>
+      <c r="P3">
+        <v>-0.1856953381770505</v>
+      </c>
+      <c r="Q3">
+        <v>14</v>
+      </c>
+      <c r="R3">
+        <v>2.435811922237886</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0.1043353420896585</v>
+      </c>
+      <c r="U3">
+        <v>-288.9335797265339</v>
+      </c>
+      <c r="V3">
+        <v>5</v>
+      </c>
+      <c r="W3">
+        <v>16299.7790262777</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>546.6969203535673</v>
+      </c>
+      <c r="Z3">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AA3">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AC3">
+        <v>1.708534206922513</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>7</v>
+      </c>
+      <c r="AK3">
+        <v>27722.51006805505</v>
+      </c>
+      <c r="AL3">
+        <v>27722.51006805504</v>
+      </c>
+      <c r="AM3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="AP3">
+        <v>4</v>
+      </c>
+      <c r="AQ3">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="AR3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="AS3">
+        <v>4</v>
+      </c>
+      <c r="AT3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="AW3">
+        <v>0.1507556722888803</v>
+      </c>
+      <c r="AX3">
+        <v>4</v>
+      </c>
+      <c r="AY3">
+        <v>1.663507017397243</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0.3344363300892167</v>
+      </c>
+      <c r="BB3">
+        <v>693.0585595353696</v>
+      </c>
+      <c r="BC3">
+        <v>4</v>
+      </c>
+      <c r="BD3">
+        <v>11020.11228116156</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>2197.835948891804</v>
+      </c>
+      <c r="BG3">
+        <v>1.875</v>
+      </c>
+      <c r="BH3">
+        <v>1.875</v>
+      </c>
+      <c r="BI3">
+        <v>2</v>
+      </c>
+      <c r="BJ3">
+        <v>2.232187257187257</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>37</v>
+      </c>
+      <c r="BR3">
+        <v>27722.51006805505</v>
+      </c>
+      <c r="BS3">
+        <v>27722.51006805504</v>
+      </c>
+      <c r="BT3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="BW3">
+        <v>23</v>
+      </c>
+      <c r="BX3">
+        <v>0.6277777777777778</v>
+      </c>
+      <c r="BY3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="BZ3">
+        <v>23</v>
+      </c>
+      <c r="CA3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0.3722222222222223</v>
+      </c>
+      <c r="CD3">
+        <v>-0.3015113445777667</v>
+      </c>
+      <c r="CE3">
+        <v>20</v>
+      </c>
+      <c r="CF3">
+        <v>1.386741635175346</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0.06057256127045085</v>
+      </c>
+      <c r="CI3">
+        <v>-385.0318977319621</v>
+      </c>
+      <c r="CJ3">
+        <v>20</v>
+      </c>
+      <c r="CK3">
+        <v>12145.16616654448</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>270.0106410044896</v>
+      </c>
+      <c r="CN3">
+        <v>2.2</v>
+      </c>
+      <c r="CO3">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="CP3">
+        <v>4</v>
+      </c>
+      <c r="CQ3">
+        <v>1.174329801471421</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>35</v>
+      </c>
+      <c r="CY3">
+        <v>27722.51006805505</v>
+      </c>
+      <c r="CZ3">
+        <v>27722.51006805504</v>
+      </c>
+      <c r="DA3">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="DD3">
+        <v>29</v>
+      </c>
+      <c r="DE3">
+        <v>0.6392156862745096</v>
+      </c>
+      <c r="DF3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="DG3">
+        <v>29</v>
+      </c>
+      <c r="DH3">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0.3607843137254902</v>
+      </c>
+      <c r="DK3">
+        <v>-0.3374388671926317</v>
+      </c>
+      <c r="DL3">
+        <v>3</v>
+      </c>
+      <c r="DM3">
+        <v>2.295613803011266</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0.08200329425649254</v>
+      </c>
+      <c r="DP3">
+        <v>-1337.383279999503</v>
+      </c>
+      <c r="DQ3">
+        <v>3</v>
+      </c>
+      <c r="DR3">
+        <v>18499.16262754863</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>143.5466067537941</v>
+      </c>
+      <c r="DU3">
+        <v>1.125</v>
+      </c>
+      <c r="DV3">
+        <v>1.25</v>
+      </c>
+      <c r="DW3">
+        <v>17</v>
+      </c>
+      <c r="DX3">
+        <v>1.262414667498701</v>
+      </c>
+      <c r="DY3">
+        <v>0</v>
+      </c>
+      <c r="DZ3">
+        <v>0</v>
+      </c>
+      <c r="EE3">
+        <v>83</v>
+      </c>
+      <c r="EF3">
+        <v>27722.51006805505</v>
+      </c>
+      <c r="EG3">
+        <v>27722.51006805504</v>
+      </c>
+      <c r="EH3">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="EI3">
+        <v>0</v>
+      </c>
+      <c r="EJ3">
+        <v>0.8</v>
+      </c>
+      <c r="EK3">
+        <v>67</v>
+      </c>
+      <c r="EL3">
+        <v>0.6447154471544716</v>
+      </c>
+      <c r="EM3">
+        <v>0.2</v>
+      </c>
+      <c r="EN3">
+        <v>67</v>
+      </c>
+      <c r="EO3">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="EP3">
+        <v>0</v>
+      </c>
+      <c r="EQ3">
+        <v>0.3552845528455284</v>
+      </c>
+      <c r="ER3">
+        <v>-0.472866243743454</v>
+      </c>
+      <c r="ES3">
+        <v>43</v>
+      </c>
+      <c r="ET3">
+        <v>1.981921690643274</v>
+      </c>
+      <c r="EU3">
+        <v>0</v>
+      </c>
+      <c r="EV3">
+        <v>0.03409993960386105</v>
+      </c>
+      <c r="EW3">
+        <v>-356.0423156918041</v>
+      </c>
+      <c r="EX3">
+        <v>16</v>
+      </c>
+      <c r="EY3">
+        <v>15844.11114660464</v>
+      </c>
+      <c r="EZ3">
+        <v>0</v>
+      </c>
+      <c r="FA3">
+        <v>95.95856631044654</v>
+      </c>
+      <c r="FB3">
+        <v>1</v>
+      </c>
+      <c r="FC3">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="FD3">
+        <v>23</v>
+      </c>
+      <c r="FE3">
+        <v>1.072148970308405</v>
+      </c>
+      <c r="FF3">
+        <v>0</v>
+      </c>
+      <c r="FG3">
+        <v>0</v>
+      </c>
+      <c r="FL3">
+        <v>14</v>
+      </c>
+      <c r="FM3">
+        <v>27722.51006805505</v>
+      </c>
+      <c r="FN3">
+        <v>27722.51006805504</v>
+      </c>
+      <c r="FO3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="FP3">
+        <v>0</v>
+      </c>
+      <c r="FQ3">
         <v>0.7</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0.3583333333333333</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>12</v>
-      </c>
-      <c r="R3">
-        <v>1.880296607873738</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0.1774862360376533</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>12</v>
-      </c>
-      <c r="W3">
-        <v>12582.4243376079</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>779.0315883954298</v>
-      </c>
-      <c r="Z3">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="AA3">
-        <v>1.363636363636364</v>
-      </c>
-      <c r="AB3">
-        <v>6</v>
-      </c>
-      <c r="AC3">
-        <v>1.292738905630718</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>9</v>
-      </c>
-      <c r="AG3">
+      <c r="FR3">
+        <v>3</v>
+      </c>
+      <c r="FS3">
+        <v>0.6179487179487178</v>
+      </c>
+      <c r="FT3">
+        <v>0.3</v>
+      </c>
+      <c r="FU3">
+        <v>3</v>
+      </c>
+      <c r="FV3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
+      <c r="FX3">
+        <v>0.3820512820512821</v>
+      </c>
+      <c r="FY3">
+        <v>-0.1856953381770516</v>
+      </c>
+      <c r="FZ3">
+        <v>7</v>
+      </c>
+      <c r="GA3">
+        <v>2.332003405015462</v>
+      </c>
+      <c r="GB3">
+        <v>0</v>
+      </c>
+      <c r="GC3">
+        <v>0.1311792671762577</v>
+      </c>
+      <c r="GD3">
+        <v>-374.6969397095272</v>
+      </c>
+      <c r="GE3">
+        <v>8</v>
+      </c>
+      <c r="GF3">
+        <v>14104.2193817789</v>
+      </c>
+      <c r="GG3">
+        <v>0</v>
+      </c>
+      <c r="GH3">
+        <v>859.0651986880498</v>
+      </c>
+      <c r="GI3">
+        <v>2.111111111111111</v>
+      </c>
+      <c r="GJ3">
+        <v>2.111111111111111</v>
+      </c>
+      <c r="GK3">
+        <v>2</v>
+      </c>
+      <c r="GL3">
+        <v>1.687000835421888</v>
+      </c>
+      <c r="GM3">
+        <v>0</v>
+      </c>
+      <c r="GN3">
+        <v>0</v>
+      </c>
+      <c r="GS3">
+        <v>14</v>
+      </c>
+      <c r="GT3">
         <v>27722.51006805505</v>
       </c>
-      <c r="AH3">
+      <c r="GU3">
         <v>27722.51006805504</v>
       </c>
-      <c r="AI3">
-        <v>0.3666666666666666</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
+      <c r="GV3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="GW3">
+        <v>0</v>
+      </c>
+      <c r="GX3">
         <v>0.7</v>
       </c>
-      <c r="AL3">
-        <v>2</v>
-      </c>
-      <c r="AM3">
-        <v>0.6291666666666667</v>
-      </c>
-      <c r="AN3">
-        <v>0.3</v>
-      </c>
-      <c r="AO3">
-        <v>2</v>
-      </c>
-      <c r="AP3">
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0.3708333333333334</v>
-      </c>
-      <c r="AS3">
-        <v>-0.02369080372419192</v>
-      </c>
-      <c r="AT3">
-        <v>5</v>
-      </c>
-      <c r="AU3">
-        <v>1.675836623060537</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0.2465752688463753</v>
-      </c>
-      <c r="AX3">
-        <v>-141.048172028306</v>
-      </c>
-      <c r="AY3">
-        <v>5</v>
-      </c>
-      <c r="AZ3">
-        <v>11101.79131068831</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>1638.167082978008</v>
-      </c>
-      <c r="BC3">
-        <v>1.857142857142857</v>
-      </c>
-      <c r="BD3">
-        <v>1.5</v>
-      </c>
-      <c r="BE3">
-        <v>5</v>
-      </c>
-      <c r="BF3">
-        <v>1.870844034637138</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>62</v>
-      </c>
-      <c r="BJ3">
-        <v>25336.46648519111</v>
-      </c>
-      <c r="BK3">
-        <v>25336.46648519112</v>
-      </c>
-      <c r="BL3">
-        <v>0.3</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="BO3">
-        <v>5</v>
-      </c>
-      <c r="BP3">
-        <v>0.639890710382514</v>
-      </c>
-      <c r="BQ3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="BR3">
-        <v>5</v>
-      </c>
-      <c r="BS3">
-        <v>0.7</v>
-      </c>
-      <c r="BT3">
-        <v>0</v>
-      </c>
-      <c r="BU3">
-        <v>0.3601092896174864</v>
-      </c>
-      <c r="BV3">
-        <v>-0.4709068421886169</v>
-      </c>
-      <c r="BW3">
-        <v>2</v>
-      </c>
-      <c r="BX3">
-        <v>1.656236244444802</v>
-      </c>
-      <c r="BY3">
-        <v>0</v>
-      </c>
-      <c r="BZ3">
-        <v>0.03416531216921967</v>
-      </c>
-      <c r="CA3">
-        <v>-1656.119717181224</v>
-      </c>
-      <c r="CB3">
-        <v>2</v>
-      </c>
-      <c r="CC3">
-        <v>14505.41607001815</v>
-      </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CE3">
-        <v>81.54245229219723</v>
-      </c>
-      <c r="CF3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="CG3">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="CH3">
-        <v>7</v>
-      </c>
-      <c r="CI3">
-        <v>1.060405793782845</v>
-      </c>
-      <c r="CJ3">
-        <v>61</v>
-      </c>
-      <c r="CK3">
-        <v>60</v>
-      </c>
-      <c r="CL3">
-        <v>28</v>
-      </c>
-      <c r="CM3">
-        <v>27722.51006805505</v>
-      </c>
-      <c r="CN3">
-        <v>27722.51006805504</v>
-      </c>
-      <c r="CO3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="CP3">
-        <v>0</v>
-      </c>
-      <c r="CQ3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="CR3">
-        <v>20</v>
-      </c>
-      <c r="CS3">
-        <v>0.6246913580246911</v>
-      </c>
-      <c r="CT3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="CU3">
-        <v>20</v>
-      </c>
-      <c r="CV3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="CW3">
-        <v>0</v>
-      </c>
-      <c r="CX3">
-        <v>0.3753086419753088</v>
-      </c>
-      <c r="CY3">
-        <v>-0.0962839044402341</v>
-      </c>
-      <c r="CZ3">
-        <v>9</v>
-      </c>
-      <c r="DA3">
-        <v>2.03157733737657</v>
-      </c>
-      <c r="DB3">
-        <v>0</v>
-      </c>
-      <c r="DC3">
-        <v>0.1012933909634898</v>
-      </c>
-      <c r="DD3">
-        <v>-175.8763757733468</v>
-      </c>
-      <c r="DE3">
-        <v>9</v>
-      </c>
-      <c r="DF3">
-        <v>16371.42950842719</v>
-      </c>
-      <c r="DG3">
-        <v>0</v>
-      </c>
-      <c r="DH3">
-        <v>259.5673240277942</v>
-      </c>
-      <c r="DI3">
-        <v>1.8</v>
-      </c>
-      <c r="DJ3">
-        <v>1.777777777777778</v>
-      </c>
-      <c r="DK3">
+      <c r="GY3">
         <v>8</v>
       </c>
-      <c r="DL3">
-        <v>1.246854566570295</v>
-      </c>
-      <c r="DM3">
-        <v>0</v>
-      </c>
-      <c r="DN3">
-        <v>0</v>
-      </c>
-      <c r="DO3">
-        <v>56</v>
-      </c>
-      <c r="DP3">
-        <v>27722.51006805505</v>
-      </c>
-      <c r="DQ3">
-        <v>27722.51006805504</v>
-      </c>
-      <c r="DR3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="DS3">
-        <v>0</v>
-      </c>
-      <c r="DT3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="DU3">
-        <v>10</v>
-      </c>
-      <c r="DV3">
-        <v>0.6490909090909094</v>
-      </c>
-      <c r="DW3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="DX3">
-        <v>10</v>
-      </c>
-      <c r="DY3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="DZ3">
-        <v>0</v>
-      </c>
-      <c r="EA3">
-        <v>0.350909090909091</v>
-      </c>
-      <c r="EB3">
-        <v>-0.3713906763540988</v>
-      </c>
-      <c r="EC3">
-        <v>43</v>
-      </c>
-      <c r="ED3">
-        <v>1.859526454427836</v>
-      </c>
-      <c r="EE3">
-        <v>0</v>
-      </c>
-      <c r="EF3">
-        <v>0.03111442882292389</v>
-      </c>
-      <c r="EG3">
-        <v>-144.9353557165086</v>
-      </c>
-      <c r="EH3">
-        <v>11</v>
-      </c>
-      <c r="EI3">
-        <v>14865.64477451357</v>
-      </c>
-      <c r="EJ3">
-        <v>0</v>
-      </c>
-      <c r="EK3">
-        <v>160.8557965372307</v>
-      </c>
-      <c r="EL3">
-        <v>1.714285714285714</v>
-      </c>
-      <c r="EM3">
-        <v>1.416666666666667</v>
-      </c>
-      <c r="EN3">
-        <v>3</v>
-      </c>
-      <c r="EO3">
-        <v>1.142089141741638</v>
-      </c>
-      <c r="EP3">
-        <v>0</v>
-      </c>
-      <c r="EQ3">
-        <v>0</v>
-      </c>
-      <c r="ER3">
-        <v>8</v>
-      </c>
-      <c r="ES3">
-        <v>27722.51006805505</v>
-      </c>
-      <c r="ET3">
-        <v>27722.51006805504</v>
-      </c>
-      <c r="EU3">
-        <v>0.2</v>
-      </c>
-      <c r="EV3">
-        <v>0</v>
-      </c>
-      <c r="EW3">
-        <v>0.7</v>
-      </c>
-      <c r="EX3">
-        <v>6</v>
-      </c>
-      <c r="EY3">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="EZ3">
-        <v>0.3</v>
-      </c>
-      <c r="FA3">
-        <v>6</v>
-      </c>
-      <c r="FB3">
-        <v>0.8</v>
-      </c>
-      <c r="FC3">
-        <v>0</v>
-      </c>
-      <c r="FD3">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="FE3">
-        <v>-0.133630620956212</v>
-      </c>
-      <c r="FF3">
-        <v>5</v>
-      </c>
-      <c r="FG3">
-        <v>2.662354895480724</v>
-      </c>
-      <c r="FH3">
-        <v>0</v>
-      </c>
-      <c r="FI3">
-        <v>0.1912394709522604</v>
-      </c>
-      <c r="FJ3">
-        <v>-374.6969397095236</v>
-      </c>
-      <c r="FK3">
-        <v>5</v>
-      </c>
-      <c r="FL3">
-        <v>16102.22242268304</v>
-      </c>
-      <c r="FM3">
-        <v>0</v>
-      </c>
-      <c r="FN3">
-        <v>1309.977791720073</v>
-      </c>
-      <c r="FO3">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="FP3">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="FQ3">
-        <v>2</v>
-      </c>
-      <c r="FR3">
-        <v>2.729631433381434</v>
-      </c>
-      <c r="FS3">
-        <v>0</v>
-      </c>
-      <c r="FT3">
-        <v>0</v>
-      </c>
-      <c r="FU3">
-        <v>15</v>
-      </c>
-      <c r="FV3">
-        <v>27722.51006805505</v>
-      </c>
-      <c r="FW3">
-        <v>27722.51006805504</v>
-      </c>
-      <c r="FX3">
-        <v>0.3</v>
-      </c>
-      <c r="FY3">
-        <v>0</v>
-      </c>
-      <c r="FZ3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="GA3">
-        <v>7</v>
-      </c>
-      <c r="GB3">
-        <v>0.6714285714285715</v>
-      </c>
-      <c r="GC3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="GD3">
-        <v>7</v>
-      </c>
-      <c r="GE3">
-        <v>0.7</v>
-      </c>
-      <c r="GF3">
-        <v>0</v>
-      </c>
-      <c r="GG3">
-        <v>0.3285714285714286</v>
-      </c>
-      <c r="GH3">
-        <v>-0.1788854381999842</v>
-      </c>
-      <c r="GI3">
-        <v>9</v>
-      </c>
-      <c r="GJ3">
-        <v>1.831605884676238</v>
-      </c>
-      <c r="GK3">
-        <v>0</v>
-      </c>
-      <c r="GL3">
-        <v>0.1592006250781529</v>
-      </c>
-      <c r="GM3">
-        <v>-124.9475338880075</v>
-      </c>
-      <c r="GN3">
-        <v>9</v>
-      </c>
-      <c r="GO3">
-        <v>14779.17694206609</v>
-      </c>
-      <c r="GP3">
-        <v>0</v>
-      </c>
-      <c r="GQ3">
-        <v>604.2260637229041</v>
-      </c>
-      <c r="GR3">
-        <v>1.571428571428571</v>
-      </c>
-      <c r="GS3">
-        <v>1.363636363636364</v>
-      </c>
-      <c r="GT3">
-        <v>3</v>
-      </c>
-      <c r="GU3">
-        <v>1.514215823507704</v>
-      </c>
-      <c r="GV3">
-        <v>0</v>
-      </c>
-      <c r="GW3">
-        <v>0</v>
-      </c>
-      <c r="GX3">
-        <v>7</v>
-      </c>
-      <c r="GY3">
-        <v>27722.51006805505</v>
-      </c>
       <c r="GZ3">
-        <v>27722.51006805504</v>
+        <v>0.6333333333333334</v>
       </c>
       <c r="HA3">
         <v>0.3</v>
       </c>
       <c r="HB3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="HC3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="HD3">
+        <v>0</v>
+      </c>
+      <c r="HE3">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="HF3">
+        <v>0</v>
+      </c>
+      <c r="HG3">
+        <v>12</v>
+      </c>
+      <c r="HH3">
+        <v>1.796368445097182</v>
+      </c>
+      <c r="HI3">
+        <v>0</v>
+      </c>
+      <c r="HJ3">
+        <v>0.1969689505081581</v>
+      </c>
+      <c r="HK3">
+        <v>0</v>
+      </c>
+      <c r="HL3">
+        <v>12</v>
+      </c>
+      <c r="HM3">
+        <v>14494.84702214105</v>
+      </c>
+      <c r="HN3">
+        <v>0</v>
+      </c>
+      <c r="HO3">
+        <v>672.5765240035151</v>
+      </c>
+      <c r="HP3">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="HQ3">
+        <v>1.307692307692308</v>
+      </c>
+      <c r="HR3">
+        <v>6</v>
+      </c>
+      <c r="HS3">
+        <v>1.500026201435213</v>
+      </c>
+      <c r="HT3">
+        <v>0</v>
+      </c>
+      <c r="HU3">
+        <v>0</v>
+      </c>
+      <c r="HZ3">
+        <v>9</v>
+      </c>
+      <c r="IA3">
+        <v>27722.51006805505</v>
+      </c>
+      <c r="IB3">
+        <v>27722.51006805504</v>
+      </c>
+      <c r="IC3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="ID3">
+        <v>0</v>
+      </c>
+      <c r="IE3">
         <v>0.7</v>
       </c>
-      <c r="HD3">
+      <c r="IF3">
+        <v>2</v>
+      </c>
+      <c r="IG3">
+        <v>0.6458333333333335</v>
+      </c>
+      <c r="IH3">
+        <v>0.3</v>
+      </c>
+      <c r="II3">
+        <v>2</v>
+      </c>
+      <c r="IJ3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="IK3">
+        <v>0</v>
+      </c>
+      <c r="IL3">
+        <v>0.3541666666666666</v>
+      </c>
+      <c r="IM3">
+        <v>-0.1320570499150144</v>
+      </c>
+      <c r="IN3">
         <v>4</v>
       </c>
-      <c r="HE3">
-        <v>0.5944444444444444</v>
-      </c>
-      <c r="HF3">
-        <v>0.3</v>
-      </c>
-      <c r="HG3">
+      <c r="IO3">
+        <v>2.716758779522179</v>
+      </c>
+      <c r="IP3">
+        <v>0</v>
+      </c>
+      <c r="IQ3">
+        <v>0.1710181137213309</v>
+      </c>
+      <c r="IR3">
+        <v>-512.9975949444706</v>
+      </c>
+      <c r="IS3">
         <v>4</v>
       </c>
-      <c r="HH3">
+      <c r="IT3">
+        <v>15301.9490298165</v>
+      </c>
+      <c r="IU3">
+        <v>0</v>
+      </c>
+      <c r="IV3">
+        <v>1270.051446880274</v>
+      </c>
+      <c r="IW3">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="IX3">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="IY3">
+        <v>2</v>
+      </c>
+      <c r="IZ3">
+        <v>2.539839648077196</v>
+      </c>
+      <c r="JA3">
+        <v>0</v>
+      </c>
+      <c r="JB3">
+        <v>0</v>
+      </c>
+      <c r="JG3">
+        <v>8</v>
+      </c>
+      <c r="JH3">
+        <v>27722.51006805505</v>
+      </c>
+      <c r="JI3">
+        <v>27722.51006805504</v>
+      </c>
+      <c r="JJ3">
+        <v>0.4</v>
+      </c>
+      <c r="JK3">
+        <v>0</v>
+      </c>
+      <c r="JL3">
         <v>0.7</v>
-      </c>
-      <c r="HI3">
-        <v>0</v>
-      </c>
-      <c r="HJ3">
-        <v>0.4055555555555556</v>
-      </c>
-      <c r="HK3">
-        <v>0</v>
-      </c>
-      <c r="HL3">
-        <v>3</v>
-      </c>
-      <c r="HM3">
-        <v>2.499677046542562</v>
-      </c>
-      <c r="HN3">
-        <v>0</v>
-      </c>
-      <c r="HO3">
-        <v>0.2433266532759023</v>
-      </c>
-      <c r="HP3">
-        <v>0</v>
-      </c>
-      <c r="HQ3">
-        <v>3</v>
-      </c>
-      <c r="HR3">
-        <v>14079.25173390767</v>
-      </c>
-      <c r="HS3">
-        <v>0</v>
-      </c>
-      <c r="HT3">
-        <v>1897.18481182517</v>
-      </c>
-      <c r="HU3">
-        <v>1.538461538461539</v>
-      </c>
-      <c r="HV3">
-        <v>1.538461538461539</v>
-      </c>
-      <c r="HW3">
-        <v>2</v>
-      </c>
-      <c r="HX3">
-        <v>2.85670387813245</v>
-      </c>
-      <c r="HY3">
-        <v>0</v>
-      </c>
-      <c r="HZ3">
-        <v>0</v>
-      </c>
-      <c r="IA3">
-        <v>9</v>
-      </c>
-      <c r="IB3">
-        <v>27722.51006805505</v>
-      </c>
-      <c r="IC3">
-        <v>27722.51006805504</v>
-      </c>
-      <c r="ID3">
-        <v>0.3666666666666666</v>
-      </c>
-      <c r="IE3">
-        <v>0</v>
-      </c>
-      <c r="IF3">
-        <v>0.7</v>
-      </c>
-      <c r="IG3">
-        <v>3</v>
-      </c>
-      <c r="IH3">
-        <v>0.6250000000000001</v>
-      </c>
-      <c r="II3">
-        <v>0.3</v>
-      </c>
-      <c r="IJ3">
-        <v>3</v>
-      </c>
-      <c r="IK3">
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="IL3">
-        <v>0</v>
-      </c>
-      <c r="IM3">
-        <v>0.3750000000000001</v>
-      </c>
-      <c r="IN3">
-        <v>-0.02308046373572416</v>
-      </c>
-      <c r="IO3">
-        <v>2</v>
-      </c>
-      <c r="IP3">
-        <v>1.299709032767334</v>
-      </c>
-      <c r="IQ3">
-        <v>0</v>
-      </c>
-      <c r="IR3">
-        <v>0.2698927458331534</v>
-      </c>
-      <c r="IS3">
-        <v>-186.6043482504647</v>
-      </c>
-      <c r="IT3">
-        <v>2</v>
-      </c>
-      <c r="IU3">
-        <v>9008.856755332399</v>
-      </c>
-      <c r="IV3">
-        <v>0</v>
-      </c>
-      <c r="IW3">
-        <v>1752.207995979416</v>
-      </c>
-      <c r="IX3">
-        <v>2.8</v>
-      </c>
-      <c r="IY3">
-        <v>1.153846153846154</v>
-      </c>
-      <c r="IZ3">
-        <v>4</v>
-      </c>
-      <c r="JA3">
-        <v>1.737856018754385</v>
-      </c>
-      <c r="JB3">
-        <v>0</v>
-      </c>
-      <c r="JC3">
-        <v>0</v>
-      </c>
-      <c r="JD3">
-        <v>4</v>
-      </c>
-      <c r="JE3">
-        <v>27722.51006805505</v>
-      </c>
-      <c r="JF3">
-        <v>27722.51006805504</v>
-      </c>
-      <c r="JG3">
-        <v>0.3</v>
-      </c>
-      <c r="JH3">
-        <v>0</v>
-      </c>
-      <c r="JI3">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="JJ3">
-        <v>2</v>
-      </c>
-      <c r="JK3">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="JL3">
-        <v>0.4333333333333333</v>
       </c>
       <c r="JM3">
         <v>2</v>
       </c>
       <c r="JN3">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="JO3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="JP3">
-        <v>0.5111111111111111</v>
+        <v>2</v>
       </c>
       <c r="JQ3">
-        <v>0.2625572888447139</v>
+        <v>0.6</v>
       </c>
       <c r="JR3">
+        <v>0</v>
+      </c>
+      <c r="JS3">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="JT3">
+        <v>0.1145420888295512</v>
+      </c>
+      <c r="JU3">
+        <v>6</v>
+      </c>
+      <c r="JV3">
+        <v>1.376164363535392</v>
+      </c>
+      <c r="JW3">
+        <v>0</v>
+      </c>
+      <c r="JX3">
+        <v>0.2802855858882002</v>
+      </c>
+      <c r="JY3">
+        <v>512.997594944467</v>
+      </c>
+      <c r="JZ3">
+        <v>6</v>
+      </c>
+      <c r="KA3">
+        <v>9538.802386012867</v>
+      </c>
+      <c r="KB3">
+        <v>0</v>
+      </c>
+      <c r="KC3">
+        <v>1926.816905307837</v>
+      </c>
+      <c r="KD3">
+        <v>1.8</v>
+      </c>
+      <c r="KE3">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="KF3">
         <v>3</v>
       </c>
-      <c r="JS3">
-        <v>2.024545714691773</v>
-      </c>
-      <c r="JT3">
-        <v>0</v>
-      </c>
-      <c r="JU3">
-        <v>0.5513891823318949</v>
-      </c>
-      <c r="JV3">
-        <v>1236.525618901927</v>
-      </c>
-      <c r="JW3">
+      <c r="KG3">
+        <v>1.782519553715206</v>
+      </c>
+      <c r="KH3">
+        <v>0</v>
+      </c>
+      <c r="KI3">
+        <v>0</v>
+      </c>
+      <c r="KN3">
+        <v>7</v>
+      </c>
+      <c r="KO3">
+        <v>27722.51006805505</v>
+      </c>
+      <c r="KP3">
+        <v>27722.51006805504</v>
+      </c>
+      <c r="KQ3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="KR3">
+        <v>0</v>
+      </c>
+      <c r="KS3">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="KT3">
+        <v>2</v>
+      </c>
+      <c r="KU3">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="KV3">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="KW3">
+        <v>2</v>
+      </c>
+      <c r="KX3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="KY3">
+        <v>0</v>
+      </c>
+      <c r="KZ3">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="LA3">
+        <v>-0.1856953381770528</v>
+      </c>
+      <c r="LB3">
+        <v>5</v>
+      </c>
+      <c r="LC3">
+        <v>2.387969872603497</v>
+      </c>
+      <c r="LD3">
+        <v>0</v>
+      </c>
+      <c r="LE3">
+        <v>0.2461456017994554</v>
+      </c>
+      <c r="LF3">
+        <v>-504.6931053835215</v>
+      </c>
+      <c r="LG3">
+        <v>5</v>
+      </c>
+      <c r="LH3">
+        <v>12948.04439058366</v>
+      </c>
+      <c r="LI3">
+        <v>0</v>
+      </c>
+      <c r="LJ3">
+        <v>2093.551158320539</v>
+      </c>
+      <c r="LK3">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="LL3">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="LM3">
+        <v>2</v>
+      </c>
+      <c r="LN3">
+        <v>2.737819241513823</v>
+      </c>
+      <c r="LO3">
+        <v>0</v>
+      </c>
+      <c r="LP3">
+        <v>0</v>
+      </c>
+      <c r="LU3">
+        <v>1</v>
+      </c>
+      <c r="LV3">
+        <v>10</v>
+      </c>
+      <c r="LW3">
+        <v>7</v>
+      </c>
+      <c r="LX3">
+        <v>83</v>
+      </c>
+      <c r="LY3">
+        <v>23.1</v>
+      </c>
+      <c r="LZ3">
+        <v>22.51865892987413</v>
+      </c>
+      <c r="MA3">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="MB3">
+        <v>0</v>
+      </c>
+      <c r="MC3">
+        <v>0.8</v>
+      </c>
+      <c r="MD3">
+        <v>67</v>
+      </c>
+      <c r="ME3">
+        <v>0.2933333333333333</v>
+      </c>
+      <c r="MF3">
+        <v>0.7266666666666668</v>
+      </c>
+      <c r="MG3">
+        <v>0.6340074295822143</v>
+      </c>
+      <c r="MH3">
+        <v>0.09977753031397177</v>
+      </c>
+      <c r="MI3">
+        <v>0.0466666666666667</v>
+      </c>
+      <c r="MJ3">
+        <v>0.02099332237622237</v>
+      </c>
+      <c r="MK3">
+        <v>0.2</v>
+      </c>
+      <c r="ML3">
+        <v>67</v>
+      </c>
+      <c r="MM3">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="MN3">
+        <v>0</v>
+      </c>
+      <c r="MO3">
+        <v>0.2733333333333333</v>
+      </c>
+      <c r="MP3">
+        <v>0.7066666666666667</v>
+      </c>
+      <c r="MQ3">
+        <v>0.3659925704177856</v>
+      </c>
+      <c r="MR3">
+        <v>0.04666666666666665</v>
+      </c>
+      <c r="MS3">
+        <v>0.0997775303139718</v>
+      </c>
+      <c r="MT3">
+        <v>0.02099332237622237</v>
+      </c>
+      <c r="MU3">
+        <v>-0.472866243743454</v>
+      </c>
+      <c r="MV3">
+        <v>43</v>
+      </c>
+      <c r="MW3">
+        <v>2.716758779522179</v>
+      </c>
+      <c r="MX3">
+        <v>0</v>
+      </c>
+      <c r="MY3">
+        <v>-0.153566175884159</v>
+      </c>
+      <c r="MZ3">
+        <v>2.037286093423872</v>
+      </c>
+      <c r="NA3">
+        <v>0.1641044986403082</v>
+      </c>
+      <c r="NB3">
+        <v>0.1868917772004891</v>
+      </c>
+      <c r="NC3">
+        <v>0.4425137220010397</v>
+      </c>
+      <c r="ND3">
+        <v>0.09454452329209866</v>
+      </c>
+      <c r="NE3">
+        <v>-1337.383279999503</v>
+      </c>
+      <c r="NF3">
         <v>3</v>
       </c>
-      <c r="JX3">
-        <v>10977.48681226666</v>
-      </c>
-      <c r="JY3">
-        <v>0</v>
-      </c>
-      <c r="JZ3">
-        <v>4843.954842746744</v>
-      </c>
-      <c r="KA3">
-        <v>2</v>
-      </c>
-      <c r="KB3">
-        <v>2</v>
-      </c>
-      <c r="KC3">
-        <v>2</v>
-      </c>
-      <c r="KD3">
-        <v>3.406746031746032</v>
-      </c>
-      <c r="KE3">
-        <v>0</v>
-      </c>
-      <c r="KF3">
-        <v>0</v>
-      </c>
-      <c r="KG3">
-        <v>0.9</v>
-      </c>
-      <c r="KH3">
-        <v>9</v>
-      </c>
-      <c r="KI3">
-        <v>4</v>
-      </c>
-      <c r="KJ3">
-        <v>56</v>
-      </c>
-      <c r="KK3">
-        <v>17</v>
-      </c>
-      <c r="KL3">
-        <v>15.36229149573722</v>
-      </c>
-      <c r="KM3">
-        <v>0.2</v>
-      </c>
-      <c r="KN3">
-        <v>0</v>
-      </c>
-      <c r="KO3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="KP3">
-        <v>10</v>
-      </c>
-      <c r="KQ3">
-        <v>0.3037037037037036</v>
-      </c>
-      <c r="KR3">
-        <v>0.7074074074074074</v>
-      </c>
-      <c r="KS3">
-        <v>0.6185816275631092</v>
-      </c>
-      <c r="KT3">
-        <v>0.04829038818668627</v>
-      </c>
-      <c r="KU3">
-        <v>0.0561694477337152</v>
-      </c>
-      <c r="KV3">
-        <v>0.04993241303787523</v>
-      </c>
-      <c r="KW3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="KX3">
-        <v>10</v>
-      </c>
-      <c r="KY3">
-        <v>0.8</v>
-      </c>
-      <c r="KZ3">
-        <v>0</v>
-      </c>
-      <c r="LA3">
-        <v>0.2925925925925926</v>
-      </c>
-      <c r="LB3">
-        <v>0.6962962962962963</v>
-      </c>
-      <c r="LC3">
-        <v>0.381418372436891</v>
-      </c>
-      <c r="LD3">
-        <v>0.05616944773371519</v>
-      </c>
-      <c r="LE3">
-        <v>0.0482903881866863</v>
-      </c>
-      <c r="LF3">
-        <v>0.04993241303787518</v>
-      </c>
-      <c r="LG3">
-        <v>-0.3713906763540988</v>
-      </c>
-      <c r="LH3">
-        <v>43</v>
-      </c>
-      <c r="LI3">
-        <v>2.662354895480724</v>
-      </c>
-      <c r="LJ3">
-        <v>0</v>
-      </c>
-      <c r="LK3">
-        <v>-0.06271162428508124</v>
-      </c>
-      <c r="LL3">
-        <v>1.973903288544146</v>
-      </c>
-      <c r="LM3">
-        <v>0.219057555793534</v>
-      </c>
-      <c r="LN3">
-        <v>0.1604487904191574</v>
-      </c>
-      <c r="LO3">
-        <v>0.3861158525795783</v>
-      </c>
-      <c r="LP3">
-        <v>0.137295557218328</v>
-      </c>
-      <c r="LQ3">
-        <v>-374.6969397095236</v>
-      </c>
-      <c r="LR3">
-        <v>5</v>
-      </c>
-      <c r="LS3">
-        <v>16371.42950842719</v>
-      </c>
-      <c r="LT3">
-        <v>0</v>
-      </c>
-      <c r="LU3">
-        <v>9.824099281752247</v>
-      </c>
-      <c r="LV3">
-        <v>13318.69828861031</v>
-      </c>
-      <c r="LW3">
-        <v>1471.68592199253</v>
-      </c>
-      <c r="LX3">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="LY3">
-        <v>2.8</v>
-      </c>
-      <c r="LZ3">
-        <v>1.877818477818478</v>
-      </c>
-      <c r="MA3">
-        <v>1.153846153846154</v>
-      </c>
-      <c r="MB3">
-        <v>2</v>
-      </c>
-      <c r="MC3">
-        <v>1.488859905526572</v>
-      </c>
-      <c r="MD3">
-        <v>1.142089141741638</v>
-      </c>
-      <c r="ME3">
-        <v>3.406746031746032</v>
-      </c>
-      <c r="MF3">
-        <v>1.977519981566866</v>
-      </c>
-      <c r="MG3">
-        <v>62</v>
-      </c>
-      <c r="MH3">
-        <v>62</v>
-      </c>
-      <c r="MI3">
-        <v>62</v>
-      </c>
-      <c r="MJ3">
-        <v>0</v>
-      </c>
-      <c r="MK3">
-        <v>25336.46648519111</v>
-      </c>
-      <c r="ML3">
-        <v>0</v>
-      </c>
-      <c r="MM3">
-        <v>25336.46648519111</v>
+      <c r="NG3">
+        <v>18499.16262754863</v>
+      </c>
+      <c r="NH3">
+        <v>0</v>
+      </c>
+      <c r="NI3">
+        <v>-255.3722558707486</v>
+      </c>
+      <c r="NJ3">
+        <v>14019.619345847</v>
+      </c>
+      <c r="NK3">
+        <v>1007.610991651432</v>
+      </c>
+      <c r="NL3">
+        <v>1</v>
+      </c>
+      <c r="NM3">
+        <v>2.2</v>
+      </c>
+      <c r="NN3">
+        <v>1.573015873015873</v>
+      </c>
+      <c r="NO3">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="NP3">
+        <v>2.111111111111111</v>
+      </c>
+      <c r="NQ3">
+        <v>1.498824786324787</v>
+      </c>
+      <c r="NR3">
+        <v>1.072148970308405</v>
+      </c>
+      <c r="NS3">
+        <v>2.737819241513823</v>
+      </c>
+      <c r="NT3">
+        <v>1.769682038355162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C1:AE1"/>
-    <mergeCell ref="AF1:BH1"/>
-    <mergeCell ref="BI1:CK1"/>
-    <mergeCell ref="CL1:DN1"/>
-    <mergeCell ref="DO1:EQ1"/>
-    <mergeCell ref="ER1:FT1"/>
-    <mergeCell ref="FU1:GW1"/>
-    <mergeCell ref="GX1:HZ1"/>
-    <mergeCell ref="IA1:JC1"/>
-    <mergeCell ref="JD1:KF1"/>
-    <mergeCell ref="KG1:MM1"/>
+    <mergeCell ref="C1:AI1"/>
+    <mergeCell ref="AJ1:BP1"/>
+    <mergeCell ref="BQ1:CW1"/>
+    <mergeCell ref="CX1:ED1"/>
+    <mergeCell ref="EE1:FK1"/>
+    <mergeCell ref="FL1:GR1"/>
+    <mergeCell ref="GS1:HY1"/>
+    <mergeCell ref="HZ1:JF1"/>
+    <mergeCell ref="JG1:KM1"/>
+    <mergeCell ref="KN1:LT1"/>
+    <mergeCell ref="LU1:OA1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>

--- a/out_test/tables/Fexp1/Fexp1_30.xlsx
+++ b/out_test/tables/Fexp1/Fexp1_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="108">
   <si>
     <t>RWS</t>
   </si>
@@ -119,6 +119,33 @@
   </si>
   <si>
     <t>Sigma_Num_loose</t>
+  </si>
+  <si>
+    <t>I_start</t>
+  </si>
+  <si>
+    <t>GR_start</t>
+  </si>
+  <si>
+    <t>Pr_start</t>
+  </si>
+  <si>
+    <t>Pr_min</t>
+  </si>
+  <si>
+    <t>NI_Pr_min</t>
+  </si>
+  <si>
+    <t>Pr_max</t>
+  </si>
+  <si>
+    <t>NI_Pr_max</t>
+  </si>
+  <si>
+    <t>Pr_avg</t>
+  </si>
+  <si>
+    <t>NI_Pr_avg</t>
   </si>
   <si>
     <t>Run 0</t>
@@ -674,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:OA3"/>
+  <dimension ref="A1:RV3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -685,15 +712,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:391">
+    <row r="1" spans="1:490">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -727,9 +754,7 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
-      <c r="AJ1" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
@@ -738,7 +763,9 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
+      <c r="AS1" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -762,9 +789,7 @@
       <c r="BN1" s="1"/>
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
-      <c r="BQ1" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="BQ1" s="1"/>
       <c r="BR1" s="1"/>
       <c r="BS1" s="1"/>
       <c r="BT1" s="1"/>
@@ -782,7 +807,9 @@
       <c r="CF1" s="1"/>
       <c r="CG1" s="1"/>
       <c r="CH1" s="1"/>
-      <c r="CI1" s="1"/>
+      <c r="CI1" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -797,9 +824,7 @@
       <c r="CU1" s="1"/>
       <c r="CV1" s="1"/>
       <c r="CW1" s="1"/>
-      <c r="CX1" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="CX1" s="1"/>
       <c r="CY1" s="1"/>
       <c r="CZ1" s="1"/>
       <c r="DA1" s="1"/>
@@ -826,15 +851,15 @@
       <c r="DV1" s="1"/>
       <c r="DW1" s="1"/>
       <c r="DX1" s="1"/>
-      <c r="DY1" s="1"/>
+      <c r="DY1" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="DZ1" s="1"/>
       <c r="EA1" s="1"/>
       <c r="EB1" s="1"/>
       <c r="EC1" s="1"/>
       <c r="ED1" s="1"/>
-      <c r="EE1" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="EE1" s="1"/>
       <c r="EF1" s="1"/>
       <c r="EG1" s="1"/>
       <c r="EH1" s="1"/>
@@ -867,12 +892,12 @@
       <c r="FI1" s="1"/>
       <c r="FJ1" s="1"/>
       <c r="FK1" s="1"/>
-      <c r="FL1" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="FL1" s="1"/>
       <c r="FM1" s="1"/>
       <c r="FN1" s="1"/>
-      <c r="FO1" s="1"/>
+      <c r="FO1" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="FP1" s="1"/>
       <c r="FQ1" s="1"/>
       <c r="FR1" s="1"/>
@@ -902,9 +927,7 @@
       <c r="GP1" s="1"/>
       <c r="GQ1" s="1"/>
       <c r="GR1" s="1"/>
-      <c r="GS1" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="GS1" s="1"/>
       <c r="GT1" s="1"/>
       <c r="GU1" s="1"/>
       <c r="GV1" s="1"/>
@@ -916,7 +939,9 @@
       <c r="HB1" s="1"/>
       <c r="HC1" s="1"/>
       <c r="HD1" s="1"/>
-      <c r="HE1" s="1"/>
+      <c r="HE1" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="HF1" s="1"/>
       <c r="HG1" s="1"/>
       <c r="HH1" s="1"/>
@@ -937,9 +962,7 @@
       <c r="HW1" s="1"/>
       <c r="HX1" s="1"/>
       <c r="HY1" s="1"/>
-      <c r="HZ1" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="HZ1" s="1"/>
       <c r="IA1" s="1"/>
       <c r="IB1" s="1"/>
       <c r="IC1" s="1"/>
@@ -960,7 +983,9 @@
       <c r="IR1" s="1"/>
       <c r="IS1" s="1"/>
       <c r="IT1" s="1"/>
-      <c r="IU1" s="1"/>
+      <c r="IU1" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="IV1" s="1"/>
       <c r="IW1" s="1"/>
       <c r="IX1" s="1"/>
@@ -972,9 +997,7 @@
       <c r="JD1" s="1"/>
       <c r="JE1" s="1"/>
       <c r="JF1" s="1"/>
-      <c r="JG1" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="JG1" s="1"/>
       <c r="JH1" s="1"/>
       <c r="JI1" s="1"/>
       <c r="JJ1" s="1"/>
@@ -1004,12 +1027,12 @@
       <c r="KH1" s="1"/>
       <c r="KI1" s="1"/>
       <c r="KJ1" s="1"/>
-      <c r="KK1" s="1"/>
+      <c r="KK1" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="KL1" s="1"/>
       <c r="KM1" s="1"/>
-      <c r="KN1" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="KN1" s="1"/>
       <c r="KO1" s="1"/>
       <c r="KP1" s="1"/>
       <c r="KQ1" s="1"/>
@@ -1042,15 +1065,15 @@
       <c r="LR1" s="1"/>
       <c r="LS1" s="1"/>
       <c r="LT1" s="1"/>
-      <c r="LU1" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="LU1" s="1"/>
       <c r="LV1" s="1"/>
       <c r="LW1" s="1"/>
       <c r="LX1" s="1"/>
       <c r="LY1" s="1"/>
       <c r="LZ1" s="1"/>
-      <c r="MA1" s="1"/>
+      <c r="MA1" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="MB1" s="1"/>
       <c r="MC1" s="1"/>
       <c r="MD1" s="1"/>
@@ -1092,7 +1115,9 @@
       <c r="NN1" s="1"/>
       <c r="NO1" s="1"/>
       <c r="NP1" s="1"/>
-      <c r="NQ1" s="1"/>
+      <c r="NQ1" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="NR1" s="1"/>
       <c r="NS1" s="1"/>
       <c r="NT1" s="1"/>
@@ -1103,8 +1128,109 @@
       <c r="NY1" s="1"/>
       <c r="NZ1" s="1"/>
       <c r="OA1" s="1"/>
+      <c r="OB1" s="1"/>
+      <c r="OC1" s="1"/>
+      <c r="OD1" s="1"/>
+      <c r="OE1" s="1"/>
+      <c r="OF1" s="1"/>
+      <c r="OG1" s="1"/>
+      <c r="OH1" s="1"/>
+      <c r="OI1" s="1"/>
+      <c r="OJ1" s="1"/>
+      <c r="OK1" s="1"/>
+      <c r="OL1" s="1"/>
+      <c r="OM1" s="1"/>
+      <c r="ON1" s="1"/>
+      <c r="OO1" s="1"/>
+      <c r="OP1" s="1"/>
+      <c r="OQ1" s="1"/>
+      <c r="OR1" s="1"/>
+      <c r="OS1" s="1"/>
+      <c r="OT1" s="1"/>
+      <c r="OU1" s="1"/>
+      <c r="OV1" s="1"/>
+      <c r="OW1" s="1"/>
+      <c r="OX1" s="1"/>
+      <c r="OY1" s="1"/>
+      <c r="OZ1" s="1"/>
+      <c r="PA1" s="1"/>
+      <c r="PB1" s="1"/>
+      <c r="PC1" s="1"/>
+      <c r="PD1" s="1"/>
+      <c r="PE1" s="1"/>
+      <c r="PF1" s="1"/>
+      <c r="PG1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="PH1" s="1"/>
+      <c r="PI1" s="1"/>
+      <c r="PJ1" s="1"/>
+      <c r="PK1" s="1"/>
+      <c r="PL1" s="1"/>
+      <c r="PM1" s="1"/>
+      <c r="PN1" s="1"/>
+      <c r="PO1" s="1"/>
+      <c r="PP1" s="1"/>
+      <c r="PQ1" s="1"/>
+      <c r="PR1" s="1"/>
+      <c r="PS1" s="1"/>
+      <c r="PT1" s="1"/>
+      <c r="PU1" s="1"/>
+      <c r="PV1" s="1"/>
+      <c r="PW1" s="1"/>
+      <c r="PX1" s="1"/>
+      <c r="PY1" s="1"/>
+      <c r="PZ1" s="1"/>
+      <c r="QA1" s="1"/>
+      <c r="QB1" s="1"/>
+      <c r="QC1" s="1"/>
+      <c r="QD1" s="1"/>
+      <c r="QE1" s="1"/>
+      <c r="QF1" s="1"/>
+      <c r="QG1" s="1"/>
+      <c r="QH1" s="1"/>
+      <c r="QI1" s="1"/>
+      <c r="QJ1" s="1"/>
+      <c r="QK1" s="1"/>
+      <c r="QL1" s="1"/>
+      <c r="QM1" s="1"/>
+      <c r="QN1" s="1"/>
+      <c r="QO1" s="1"/>
+      <c r="QP1" s="1"/>
+      <c r="QQ1" s="1"/>
+      <c r="QR1" s="1"/>
+      <c r="QS1" s="1"/>
+      <c r="QT1" s="1"/>
+      <c r="QU1" s="1"/>
+      <c r="QV1" s="1"/>
+      <c r="QW1" s="1"/>
+      <c r="QX1" s="1"/>
+      <c r="QY1" s="1"/>
+      <c r="QZ1" s="1"/>
+      <c r="RA1" s="1"/>
+      <c r="RB1" s="1"/>
+      <c r="RC1" s="1"/>
+      <c r="RD1" s="1"/>
+      <c r="RE1" s="1"/>
+      <c r="RF1" s="1"/>
+      <c r="RG1" s="1"/>
+      <c r="RH1" s="1"/>
+      <c r="RI1" s="1"/>
+      <c r="RJ1" s="1"/>
+      <c r="RK1" s="1"/>
+      <c r="RL1" s="1"/>
+      <c r="RM1" s="1"/>
+      <c r="RN1" s="1"/>
+      <c r="RO1" s="1"/>
+      <c r="RP1" s="1"/>
+      <c r="RQ1" s="1"/>
+      <c r="RR1" s="1"/>
+      <c r="RS1" s="1"/>
+      <c r="RT1" s="1"/>
+      <c r="RU1" s="1"/>
+      <c r="RV1" s="1"/>
     </row>
-    <row r="2" spans="1:391">
+    <row r="2" spans="1:490">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -1207,1075 +1333,1372 @@
         <v>34</v>
       </c>
       <c r="AJ2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS2" t="s">
         <v>2</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AT2" t="s">
         <v>3</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AU2" t="s">
         <v>4</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AV2" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AW2" t="s">
         <v>6</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AX2" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AY2" t="s">
         <v>8</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AZ2" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="BA2" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BB2" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BC2" t="s">
         <v>12</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BD2" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BE2" t="s">
         <v>14</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BF2" t="s">
         <v>15</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BG2" t="s">
         <v>16</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BH2" t="s">
         <v>17</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BI2" t="s">
         <v>18</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BJ2" t="s">
         <v>19</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BK2" t="s">
         <v>20</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BL2" t="s">
         <v>21</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BM2" t="s">
         <v>22</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BN2" t="s">
         <v>23</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BO2" t="s">
         <v>24</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BP2" t="s">
         <v>25</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BQ2" t="s">
         <v>26</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BR2" t="s">
         <v>27</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BS2" t="s">
         <v>28</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BT2" t="s">
         <v>29</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BU2" t="s">
         <v>30</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BV2" t="s">
         <v>31</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BW2" t="s">
         <v>32</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BX2" t="s">
         <v>33</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BY2" t="s">
         <v>34</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BZ2" t="s">
+        <v>35</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>37</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>38</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>40</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>41</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>42</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CI2" t="s">
         <v>2</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="CJ2" t="s">
         <v>3</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="CK2" t="s">
         <v>4</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="CL2" t="s">
         <v>5</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CM2" t="s">
         <v>6</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="CN2" t="s">
         <v>7</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="CO2" t="s">
         <v>8</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CP2" t="s">
         <v>9</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CQ2" t="s">
         <v>10</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CR2" t="s">
         <v>11</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CS2" t="s">
         <v>12</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CT2" t="s">
         <v>13</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CU2" t="s">
         <v>14</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CV2" t="s">
         <v>15</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CW2" t="s">
         <v>16</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CX2" t="s">
         <v>17</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CY2" t="s">
         <v>18</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CZ2" t="s">
         <v>19</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="DA2" t="s">
         <v>20</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="DB2" t="s">
         <v>21</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="DC2" t="s">
         <v>22</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="DD2" t="s">
         <v>23</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="DE2" t="s">
         <v>24</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="DF2" t="s">
         <v>25</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="DG2" t="s">
         <v>26</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="DH2" t="s">
         <v>27</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="DI2" t="s">
         <v>28</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="DJ2" t="s">
         <v>29</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="DK2" t="s">
         <v>30</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="DL2" t="s">
         <v>31</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="DM2" t="s">
         <v>32</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="DN2" t="s">
         <v>33</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="DO2" t="s">
         <v>34</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="DP2" t="s">
+        <v>35</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>37</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>38</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>39</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>40</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>41</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>42</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>43</v>
+      </c>
+      <c r="DY2" t="s">
         <v>2</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DZ2" t="s">
         <v>3</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="EA2" t="s">
         <v>4</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="EB2" t="s">
         <v>5</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="EC2" t="s">
         <v>6</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="ED2" t="s">
         <v>7</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="EE2" t="s">
         <v>8</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="EF2" t="s">
         <v>9</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="EG2" t="s">
         <v>10</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="EH2" t="s">
         <v>11</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="EI2" t="s">
         <v>12</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="EJ2" t="s">
         <v>13</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="EK2" t="s">
         <v>14</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="EL2" t="s">
         <v>15</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="EM2" t="s">
         <v>16</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="EN2" t="s">
         <v>17</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="EO2" t="s">
         <v>18</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="EP2" t="s">
         <v>19</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="EQ2" t="s">
         <v>20</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="ER2" t="s">
         <v>21</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="ES2" t="s">
         <v>22</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="ET2" t="s">
         <v>23</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="EU2" t="s">
         <v>24</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="EV2" t="s">
         <v>25</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="EW2" t="s">
         <v>26</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="EX2" t="s">
         <v>27</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="EY2" t="s">
         <v>28</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EZ2" t="s">
         <v>29</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="FA2" t="s">
         <v>30</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="FB2" t="s">
         <v>31</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="FC2" t="s">
         <v>32</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="FD2" t="s">
         <v>33</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="FE2" t="s">
         <v>34</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="FF2" t="s">
+        <v>35</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>37</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>38</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>39</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>40</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>41</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>42</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>43</v>
+      </c>
+      <c r="FO2" t="s">
         <v>2</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="FP2" t="s">
         <v>3</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="FQ2" t="s">
         <v>4</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="FR2" t="s">
         <v>5</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="FS2" t="s">
         <v>6</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="FT2" t="s">
         <v>7</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="FU2" t="s">
         <v>8</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="FV2" t="s">
         <v>9</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="FW2" t="s">
         <v>10</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="FX2" t="s">
         <v>11</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="FY2" t="s">
         <v>12</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="FZ2" t="s">
         <v>13</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="GA2" t="s">
         <v>14</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="GB2" t="s">
         <v>15</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="GC2" t="s">
         <v>16</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="GD2" t="s">
         <v>17</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="GE2" t="s">
         <v>18</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="GF2" t="s">
         <v>19</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="GG2" t="s">
         <v>20</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="GH2" t="s">
         <v>21</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="GI2" t="s">
         <v>22</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="GJ2" t="s">
         <v>23</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="GK2" t="s">
         <v>24</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="GL2" t="s">
         <v>25</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="GM2" t="s">
         <v>26</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="GN2" t="s">
         <v>27</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="GO2" t="s">
         <v>28</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="GP2" t="s">
         <v>29</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="GQ2" t="s">
         <v>30</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="GR2" t="s">
         <v>31</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="GS2" t="s">
         <v>32</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="GT2" t="s">
         <v>33</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="GU2" t="s">
         <v>34</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="GV2" t="s">
+        <v>35</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>37</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>38</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>39</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>40</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>41</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>42</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>43</v>
+      </c>
+      <c r="HE2" t="s">
         <v>2</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="HF2" t="s">
         <v>3</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="HG2" t="s">
         <v>4</v>
       </c>
-      <c r="FO2" t="s">
+      <c r="HH2" t="s">
         <v>5</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="HI2" t="s">
         <v>6</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="HJ2" t="s">
         <v>7</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="HK2" t="s">
         <v>8</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="HL2" t="s">
         <v>9</v>
       </c>
-      <c r="FT2" t="s">
+      <c r="HM2" t="s">
         <v>10</v>
       </c>
-      <c r="FU2" t="s">
+      <c r="HN2" t="s">
         <v>11</v>
       </c>
-      <c r="FV2" t="s">
+      <c r="HO2" t="s">
         <v>12</v>
       </c>
-      <c r="FW2" t="s">
+      <c r="HP2" t="s">
         <v>13</v>
       </c>
-      <c r="FX2" t="s">
+      <c r="HQ2" t="s">
         <v>14</v>
       </c>
-      <c r="FY2" t="s">
+      <c r="HR2" t="s">
         <v>15</v>
       </c>
-      <c r="FZ2" t="s">
+      <c r="HS2" t="s">
         <v>16</v>
       </c>
-      <c r="GA2" t="s">
+      <c r="HT2" t="s">
         <v>17</v>
       </c>
-      <c r="GB2" t="s">
+      <c r="HU2" t="s">
         <v>18</v>
       </c>
-      <c r="GC2" t="s">
+      <c r="HV2" t="s">
         <v>19</v>
       </c>
-      <c r="GD2" t="s">
+      <c r="HW2" t="s">
         <v>20</v>
       </c>
-      <c r="GE2" t="s">
+      <c r="HX2" t="s">
         <v>21</v>
       </c>
-      <c r="GF2" t="s">
+      <c r="HY2" t="s">
         <v>22</v>
       </c>
-      <c r="GG2" t="s">
+      <c r="HZ2" t="s">
         <v>23</v>
       </c>
-      <c r="GH2" t="s">
+      <c r="IA2" t="s">
         <v>24</v>
       </c>
-      <c r="GI2" t="s">
+      <c r="IB2" t="s">
         <v>25</v>
       </c>
-      <c r="GJ2" t="s">
+      <c r="IC2" t="s">
         <v>26</v>
       </c>
-      <c r="GK2" t="s">
+      <c r="ID2" t="s">
         <v>27</v>
       </c>
-      <c r="GL2" t="s">
+      <c r="IE2" t="s">
         <v>28</v>
       </c>
-      <c r="GM2" t="s">
+      <c r="IF2" t="s">
         <v>29</v>
       </c>
-      <c r="GN2" t="s">
+      <c r="IG2" t="s">
         <v>30</v>
       </c>
-      <c r="GO2" t="s">
+      <c r="IH2" t="s">
         <v>31</v>
       </c>
-      <c r="GP2" t="s">
+      <c r="II2" t="s">
         <v>32</v>
       </c>
-      <c r="GQ2" t="s">
+      <c r="IJ2" t="s">
         <v>33</v>
       </c>
-      <c r="GR2" t="s">
+      <c r="IK2" t="s">
         <v>34</v>
       </c>
-      <c r="GS2" t="s">
+      <c r="IL2" t="s">
+        <v>35</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>37</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>38</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>39</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>40</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>41</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>42</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>43</v>
+      </c>
+      <c r="IU2" t="s">
         <v>2</v>
       </c>
-      <c r="GT2" t="s">
+      <c r="IV2" t="s">
         <v>3</v>
       </c>
-      <c r="GU2" t="s">
+      <c r="IW2" t="s">
         <v>4</v>
       </c>
-      <c r="GV2" t="s">
+      <c r="IX2" t="s">
         <v>5</v>
       </c>
-      <c r="GW2" t="s">
+      <c r="IY2" t="s">
         <v>6</v>
       </c>
-      <c r="GX2" t="s">
+      <c r="IZ2" t="s">
         <v>7</v>
       </c>
-      <c r="GY2" t="s">
+      <c r="JA2" t="s">
         <v>8</v>
       </c>
-      <c r="GZ2" t="s">
+      <c r="JB2" t="s">
         <v>9</v>
       </c>
-      <c r="HA2" t="s">
+      <c r="JC2" t="s">
         <v>10</v>
       </c>
-      <c r="HB2" t="s">
+      <c r="JD2" t="s">
         <v>11</v>
       </c>
-      <c r="HC2" t="s">
+      <c r="JE2" t="s">
         <v>12</v>
       </c>
-      <c r="HD2" t="s">
+      <c r="JF2" t="s">
         <v>13</v>
       </c>
-      <c r="HE2" t="s">
+      <c r="JG2" t="s">
         <v>14</v>
       </c>
-      <c r="HF2" t="s">
+      <c r="JH2" t="s">
         <v>15</v>
       </c>
-      <c r="HG2" t="s">
+      <c r="JI2" t="s">
         <v>16</v>
       </c>
-      <c r="HH2" t="s">
+      <c r="JJ2" t="s">
         <v>17</v>
       </c>
-      <c r="HI2" t="s">
+      <c r="JK2" t="s">
         <v>18</v>
       </c>
-      <c r="HJ2" t="s">
+      <c r="JL2" t="s">
         <v>19</v>
       </c>
-      <c r="HK2" t="s">
+      <c r="JM2" t="s">
         <v>20</v>
       </c>
-      <c r="HL2" t="s">
+      <c r="JN2" t="s">
         <v>21</v>
       </c>
-      <c r="HM2" t="s">
+      <c r="JO2" t="s">
         <v>22</v>
       </c>
-      <c r="HN2" t="s">
+      <c r="JP2" t="s">
         <v>23</v>
       </c>
-      <c r="HO2" t="s">
+      <c r="JQ2" t="s">
         <v>24</v>
       </c>
-      <c r="HP2" t="s">
+      <c r="JR2" t="s">
         <v>25</v>
       </c>
-      <c r="HQ2" t="s">
+      <c r="JS2" t="s">
         <v>26</v>
       </c>
-      <c r="HR2" t="s">
+      <c r="JT2" t="s">
         <v>27</v>
       </c>
-      <c r="HS2" t="s">
+      <c r="JU2" t="s">
         <v>28</v>
       </c>
-      <c r="HT2" t="s">
+      <c r="JV2" t="s">
         <v>29</v>
       </c>
-      <c r="HU2" t="s">
+      <c r="JW2" t="s">
         <v>30</v>
       </c>
-      <c r="HV2" t="s">
+      <c r="JX2" t="s">
         <v>31</v>
       </c>
-      <c r="HW2" t="s">
+      <c r="JY2" t="s">
         <v>32</v>
       </c>
-      <c r="HX2" t="s">
+      <c r="JZ2" t="s">
         <v>33</v>
       </c>
-      <c r="HY2" t="s">
+      <c r="KA2" t="s">
         <v>34</v>
       </c>
-      <c r="HZ2" t="s">
+      <c r="KB2" t="s">
+        <v>35</v>
+      </c>
+      <c r="KC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="KD2" t="s">
+        <v>37</v>
+      </c>
+      <c r="KE2" t="s">
+        <v>38</v>
+      </c>
+      <c r="KF2" t="s">
+        <v>39</v>
+      </c>
+      <c r="KG2" t="s">
+        <v>40</v>
+      </c>
+      <c r="KH2" t="s">
+        <v>41</v>
+      </c>
+      <c r="KI2" t="s">
+        <v>42</v>
+      </c>
+      <c r="KJ2" t="s">
+        <v>43</v>
+      </c>
+      <c r="KK2" t="s">
         <v>2</v>
       </c>
-      <c r="IA2" t="s">
+      <c r="KL2" t="s">
         <v>3</v>
       </c>
-      <c r="IB2" t="s">
+      <c r="KM2" t="s">
         <v>4</v>
       </c>
-      <c r="IC2" t="s">
+      <c r="KN2" t="s">
         <v>5</v>
       </c>
-      <c r="ID2" t="s">
+      <c r="KO2" t="s">
         <v>6</v>
       </c>
-      <c r="IE2" t="s">
+      <c r="KP2" t="s">
         <v>7</v>
       </c>
-      <c r="IF2" t="s">
+      <c r="KQ2" t="s">
         <v>8</v>
       </c>
-      <c r="IG2" t="s">
+      <c r="KR2" t="s">
         <v>9</v>
       </c>
-      <c r="IH2" t="s">
+      <c r="KS2" t="s">
         <v>10</v>
       </c>
-      <c r="II2" t="s">
+      <c r="KT2" t="s">
         <v>11</v>
       </c>
-      <c r="IJ2" t="s">
+      <c r="KU2" t="s">
         <v>12</v>
       </c>
-      <c r="IK2" t="s">
+      <c r="KV2" t="s">
         <v>13</v>
       </c>
-      <c r="IL2" t="s">
+      <c r="KW2" t="s">
         <v>14</v>
       </c>
-      <c r="IM2" t="s">
+      <c r="KX2" t="s">
         <v>15</v>
       </c>
-      <c r="IN2" t="s">
+      <c r="KY2" t="s">
         <v>16</v>
       </c>
-      <c r="IO2" t="s">
+      <c r="KZ2" t="s">
         <v>17</v>
       </c>
-      <c r="IP2" t="s">
+      <c r="LA2" t="s">
         <v>18</v>
       </c>
-      <c r="IQ2" t="s">
+      <c r="LB2" t="s">
         <v>19</v>
       </c>
-      <c r="IR2" t="s">
+      <c r="LC2" t="s">
         <v>20</v>
       </c>
-      <c r="IS2" t="s">
+      <c r="LD2" t="s">
         <v>21</v>
       </c>
-      <c r="IT2" t="s">
+      <c r="LE2" t="s">
         <v>22</v>
       </c>
-      <c r="IU2" t="s">
+      <c r="LF2" t="s">
         <v>23</v>
       </c>
-      <c r="IV2" t="s">
+      <c r="LG2" t="s">
         <v>24</v>
       </c>
-      <c r="IW2" t="s">
+      <c r="LH2" t="s">
         <v>25</v>
       </c>
-      <c r="IX2" t="s">
+      <c r="LI2" t="s">
         <v>26</v>
       </c>
-      <c r="IY2" t="s">
+      <c r="LJ2" t="s">
         <v>27</v>
       </c>
-      <c r="IZ2" t="s">
+      <c r="LK2" t="s">
         <v>28</v>
       </c>
-      <c r="JA2" t="s">
+      <c r="LL2" t="s">
         <v>29</v>
       </c>
-      <c r="JB2" t="s">
+      <c r="LM2" t="s">
         <v>30</v>
       </c>
-      <c r="JC2" t="s">
+      <c r="LN2" t="s">
         <v>31</v>
       </c>
-      <c r="JD2" t="s">
+      <c r="LO2" t="s">
         <v>32</v>
       </c>
-      <c r="JE2" t="s">
+      <c r="LP2" t="s">
         <v>33</v>
       </c>
-      <c r="JF2" t="s">
+      <c r="LQ2" t="s">
         <v>34</v>
       </c>
-      <c r="JG2" t="s">
+      <c r="LR2" t="s">
+        <v>35</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>37</v>
+      </c>
+      <c r="LU2" t="s">
+        <v>38</v>
+      </c>
+      <c r="LV2" t="s">
+        <v>39</v>
+      </c>
+      <c r="LW2" t="s">
+        <v>40</v>
+      </c>
+      <c r="LX2" t="s">
+        <v>41</v>
+      </c>
+      <c r="LY2" t="s">
+        <v>42</v>
+      </c>
+      <c r="LZ2" t="s">
+        <v>43</v>
+      </c>
+      <c r="MA2" t="s">
         <v>2</v>
       </c>
-      <c r="JH2" t="s">
+      <c r="MB2" t="s">
         <v>3</v>
       </c>
-      <c r="JI2" t="s">
+      <c r="MC2" t="s">
         <v>4</v>
       </c>
-      <c r="JJ2" t="s">
+      <c r="MD2" t="s">
         <v>5</v>
       </c>
-      <c r="JK2" t="s">
+      <c r="ME2" t="s">
         <v>6</v>
       </c>
-      <c r="JL2" t="s">
+      <c r="MF2" t="s">
         <v>7</v>
       </c>
-      <c r="JM2" t="s">
+      <c r="MG2" t="s">
         <v>8</v>
       </c>
-      <c r="JN2" t="s">
+      <c r="MH2" t="s">
         <v>9</v>
       </c>
-      <c r="JO2" t="s">
+      <c r="MI2" t="s">
         <v>10</v>
       </c>
-      <c r="JP2" t="s">
+      <c r="MJ2" t="s">
         <v>11</v>
       </c>
-      <c r="JQ2" t="s">
+      <c r="MK2" t="s">
         <v>12</v>
       </c>
-      <c r="JR2" t="s">
+      <c r="ML2" t="s">
         <v>13</v>
       </c>
-      <c r="JS2" t="s">
+      <c r="MM2" t="s">
         <v>14</v>
       </c>
-      <c r="JT2" t="s">
+      <c r="MN2" t="s">
         <v>15</v>
       </c>
-      <c r="JU2" t="s">
+      <c r="MO2" t="s">
         <v>16</v>
       </c>
-      <c r="JV2" t="s">
+      <c r="MP2" t="s">
         <v>17</v>
       </c>
-      <c r="JW2" t="s">
+      <c r="MQ2" t="s">
         <v>18</v>
       </c>
-      <c r="JX2" t="s">
+      <c r="MR2" t="s">
         <v>19</v>
       </c>
-      <c r="JY2" t="s">
+      <c r="MS2" t="s">
         <v>20</v>
       </c>
-      <c r="JZ2" t="s">
+      <c r="MT2" t="s">
         <v>21</v>
       </c>
-      <c r="KA2" t="s">
+      <c r="MU2" t="s">
         <v>22</v>
       </c>
-      <c r="KB2" t="s">
+      <c r="MV2" t="s">
         <v>23</v>
       </c>
-      <c r="KC2" t="s">
+      <c r="MW2" t="s">
         <v>24</v>
       </c>
-      <c r="KD2" t="s">
+      <c r="MX2" t="s">
         <v>25</v>
       </c>
-      <c r="KE2" t="s">
+      <c r="MY2" t="s">
         <v>26</v>
       </c>
-      <c r="KF2" t="s">
+      <c r="MZ2" t="s">
         <v>27</v>
       </c>
-      <c r="KG2" t="s">
+      <c r="NA2" t="s">
         <v>28</v>
       </c>
-      <c r="KH2" t="s">
+      <c r="NB2" t="s">
         <v>29</v>
       </c>
-      <c r="KI2" t="s">
+      <c r="NC2" t="s">
         <v>30</v>
       </c>
-      <c r="KJ2" t="s">
+      <c r="ND2" t="s">
         <v>31</v>
       </c>
-      <c r="KK2" t="s">
+      <c r="NE2" t="s">
         <v>32</v>
       </c>
-      <c r="KL2" t="s">
+      <c r="NF2" t="s">
         <v>33</v>
       </c>
-      <c r="KM2" t="s">
+      <c r="NG2" t="s">
         <v>34</v>
       </c>
-      <c r="KN2" t="s">
+      <c r="NH2" t="s">
+        <v>35</v>
+      </c>
+      <c r="NI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="NJ2" t="s">
+        <v>37</v>
+      </c>
+      <c r="NK2" t="s">
+        <v>38</v>
+      </c>
+      <c r="NL2" t="s">
+        <v>39</v>
+      </c>
+      <c r="NM2" t="s">
+        <v>40</v>
+      </c>
+      <c r="NN2" t="s">
+        <v>41</v>
+      </c>
+      <c r="NO2" t="s">
+        <v>42</v>
+      </c>
+      <c r="NP2" t="s">
+        <v>43</v>
+      </c>
+      <c r="NQ2" t="s">
         <v>2</v>
       </c>
-      <c r="KO2" t="s">
+      <c r="NR2" t="s">
         <v>3</v>
       </c>
-      <c r="KP2" t="s">
+      <c r="NS2" t="s">
         <v>4</v>
       </c>
-      <c r="KQ2" t="s">
+      <c r="NT2" t="s">
         <v>5</v>
       </c>
-      <c r="KR2" t="s">
+      <c r="NU2" t="s">
         <v>6</v>
       </c>
-      <c r="KS2" t="s">
+      <c r="NV2" t="s">
         <v>7</v>
       </c>
-      <c r="KT2" t="s">
+      <c r="NW2" t="s">
         <v>8</v>
       </c>
-      <c r="KU2" t="s">
+      <c r="NX2" t="s">
         <v>9</v>
       </c>
-      <c r="KV2" t="s">
+      <c r="NY2" t="s">
         <v>10</v>
       </c>
-      <c r="KW2" t="s">
+      <c r="NZ2" t="s">
         <v>11</v>
       </c>
-      <c r="KX2" t="s">
+      <c r="OA2" t="s">
         <v>12</v>
       </c>
-      <c r="KY2" t="s">
+      <c r="OB2" t="s">
         <v>13</v>
       </c>
-      <c r="KZ2" t="s">
+      <c r="OC2" t="s">
         <v>14</v>
       </c>
-      <c r="LA2" t="s">
+      <c r="OD2" t="s">
         <v>15</v>
       </c>
-      <c r="LB2" t="s">
+      <c r="OE2" t="s">
         <v>16</v>
       </c>
-      <c r="LC2" t="s">
+      <c r="OF2" t="s">
         <v>17</v>
       </c>
-      <c r="LD2" t="s">
+      <c r="OG2" t="s">
         <v>18</v>
       </c>
-      <c r="LE2" t="s">
+      <c r="OH2" t="s">
         <v>19</v>
       </c>
-      <c r="LF2" t="s">
+      <c r="OI2" t="s">
         <v>20</v>
       </c>
-      <c r="LG2" t="s">
+      <c r="OJ2" t="s">
         <v>21</v>
       </c>
-      <c r="LH2" t="s">
+      <c r="OK2" t="s">
         <v>22</v>
       </c>
-      <c r="LI2" t="s">
+      <c r="OL2" t="s">
         <v>23</v>
       </c>
-      <c r="LJ2" t="s">
+      <c r="OM2" t="s">
         <v>24</v>
       </c>
-      <c r="LK2" t="s">
+      <c r="ON2" t="s">
         <v>25</v>
       </c>
-      <c r="LL2" t="s">
+      <c r="OO2" t="s">
         <v>26</v>
       </c>
-      <c r="LM2" t="s">
+      <c r="OP2" t="s">
         <v>27</v>
       </c>
-      <c r="LN2" t="s">
+      <c r="OQ2" t="s">
         <v>28</v>
       </c>
-      <c r="LO2" t="s">
+      <c r="OR2" t="s">
         <v>29</v>
       </c>
-      <c r="LP2" t="s">
+      <c r="OS2" t="s">
         <v>30</v>
       </c>
-      <c r="LQ2" t="s">
+      <c r="OT2" t="s">
         <v>31</v>
       </c>
-      <c r="LR2" t="s">
+      <c r="OU2" t="s">
         <v>32</v>
       </c>
-      <c r="LS2" t="s">
+      <c r="OV2" t="s">
         <v>33</v>
       </c>
-      <c r="LT2" t="s">
+      <c r="OW2" t="s">
         <v>34</v>
       </c>
-      <c r="LU2" t="s">
-        <v>45</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>46</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>47</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>48</v>
-      </c>
-      <c r="LY2" t="s">
-        <v>49</v>
-      </c>
-      <c r="LZ2" t="s">
-        <v>50</v>
-      </c>
-      <c r="MA2" t="s">
-        <v>51</v>
-      </c>
-      <c r="MB2" t="s">
+      <c r="OX2" t="s">
+        <v>35</v>
+      </c>
+      <c r="OY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="OZ2" t="s">
+        <v>37</v>
+      </c>
+      <c r="PA2" t="s">
+        <v>38</v>
+      </c>
+      <c r="PB2" t="s">
+        <v>39</v>
+      </c>
+      <c r="PC2" t="s">
+        <v>40</v>
+      </c>
+      <c r="PD2" t="s">
+        <v>41</v>
+      </c>
+      <c r="PE2" t="s">
+        <v>42</v>
+      </c>
+      <c r="PF2" t="s">
+        <v>43</v>
+      </c>
+      <c r="PG2" t="s">
+        <v>54</v>
+      </c>
+      <c r="PH2" t="s">
+        <v>55</v>
+      </c>
+      <c r="PI2" t="s">
+        <v>56</v>
+      </c>
+      <c r="PJ2" t="s">
+        <v>57</v>
+      </c>
+      <c r="PK2" t="s">
+        <v>58</v>
+      </c>
+      <c r="PL2" t="s">
+        <v>59</v>
+      </c>
+      <c r="PM2" t="s">
+        <v>60</v>
+      </c>
+      <c r="PN2" t="s">
         <v>6</v>
       </c>
-      <c r="MC2" t="s">
-        <v>52</v>
-      </c>
-      <c r="MD2" t="s">
+      <c r="PO2" t="s">
+        <v>61</v>
+      </c>
+      <c r="PP2" t="s">
         <v>8</v>
       </c>
-      <c r="ME2" t="s">
-        <v>53</v>
-      </c>
-      <c r="MF2" t="s">
-        <v>54</v>
-      </c>
-      <c r="MG2" t="s">
-        <v>55</v>
-      </c>
-      <c r="MH2" t="s">
-        <v>56</v>
-      </c>
-      <c r="MI2" t="s">
-        <v>57</v>
-      </c>
-      <c r="MJ2" t="s">
-        <v>58</v>
-      </c>
-      <c r="MK2" t="s">
-        <v>59</v>
-      </c>
-      <c r="ML2" t="s">
+      <c r="PQ2" t="s">
+        <v>62</v>
+      </c>
+      <c r="PR2" t="s">
+        <v>63</v>
+      </c>
+      <c r="PS2" t="s">
+        <v>64</v>
+      </c>
+      <c r="PT2" t="s">
+        <v>65</v>
+      </c>
+      <c r="PU2" t="s">
+        <v>66</v>
+      </c>
+      <c r="PV2" t="s">
+        <v>67</v>
+      </c>
+      <c r="PW2" t="s">
+        <v>68</v>
+      </c>
+      <c r="PX2" t="s">
         <v>11</v>
       </c>
-      <c r="MM2" t="s">
-        <v>60</v>
-      </c>
-      <c r="MN2" t="s">
+      <c r="PY2" t="s">
+        <v>69</v>
+      </c>
+      <c r="PZ2" t="s">
         <v>13</v>
       </c>
-      <c r="MO2" t="s">
-        <v>61</v>
-      </c>
-      <c r="MP2" t="s">
-        <v>62</v>
-      </c>
-      <c r="MQ2" t="s">
-        <v>63</v>
-      </c>
-      <c r="MR2" t="s">
-        <v>64</v>
-      </c>
-      <c r="MS2" t="s">
-        <v>65</v>
-      </c>
-      <c r="MT2" t="s">
-        <v>66</v>
-      </c>
-      <c r="MU2" t="s">
-        <v>67</v>
-      </c>
-      <c r="MV2" t="s">
+      <c r="QA2" t="s">
+        <v>70</v>
+      </c>
+      <c r="QB2" t="s">
+        <v>71</v>
+      </c>
+      <c r="QC2" t="s">
+        <v>72</v>
+      </c>
+      <c r="QD2" t="s">
+        <v>73</v>
+      </c>
+      <c r="QE2" t="s">
+        <v>74</v>
+      </c>
+      <c r="QF2" t="s">
+        <v>75</v>
+      </c>
+      <c r="QG2" t="s">
+        <v>76</v>
+      </c>
+      <c r="QH2" t="s">
         <v>16</v>
       </c>
-      <c r="MW2" t="s">
-        <v>68</v>
-      </c>
-      <c r="MX2" t="s">
+      <c r="QI2" t="s">
+        <v>77</v>
+      </c>
+      <c r="QJ2" t="s">
         <v>18</v>
       </c>
-      <c r="MY2" t="s">
-        <v>69</v>
-      </c>
-      <c r="MZ2" t="s">
-        <v>70</v>
-      </c>
-      <c r="NA2" t="s">
-        <v>71</v>
-      </c>
-      <c r="NB2" t="s">
-        <v>72</v>
-      </c>
-      <c r="NC2" t="s">
-        <v>73</v>
-      </c>
-      <c r="ND2" t="s">
-        <v>74</v>
-      </c>
-      <c r="NE2" t="s">
-        <v>75</v>
-      </c>
-      <c r="NF2" t="s">
+      <c r="QK2" t="s">
+        <v>78</v>
+      </c>
+      <c r="QL2" t="s">
+        <v>79</v>
+      </c>
+      <c r="QM2" t="s">
+        <v>80</v>
+      </c>
+      <c r="QN2" t="s">
+        <v>81</v>
+      </c>
+      <c r="QO2" t="s">
+        <v>82</v>
+      </c>
+      <c r="QP2" t="s">
+        <v>83</v>
+      </c>
+      <c r="QQ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="QR2" t="s">
         <v>21</v>
       </c>
-      <c r="NG2" t="s">
-        <v>76</v>
-      </c>
-      <c r="NH2" t="s">
+      <c r="QS2" t="s">
+        <v>85</v>
+      </c>
+      <c r="QT2" t="s">
         <v>23</v>
       </c>
-      <c r="NI2" t="s">
-        <v>77</v>
-      </c>
-      <c r="NJ2" t="s">
-        <v>78</v>
-      </c>
-      <c r="NK2" t="s">
-        <v>79</v>
-      </c>
-      <c r="NL2" t="s">
-        <v>80</v>
-      </c>
-      <c r="NM2" t="s">
-        <v>81</v>
-      </c>
-      <c r="NN2" t="s">
-        <v>82</v>
-      </c>
-      <c r="NO2" t="s">
-        <v>83</v>
-      </c>
-      <c r="NP2" t="s">
-        <v>84</v>
-      </c>
-      <c r="NQ2" t="s">
-        <v>85</v>
-      </c>
-      <c r="NR2" t="s">
+      <c r="QU2" t="s">
         <v>86</v>
       </c>
-      <c r="NS2" t="s">
+      <c r="QV2" t="s">
         <v>87</v>
       </c>
-      <c r="NT2" t="s">
+      <c r="QW2" t="s">
         <v>88</v>
       </c>
-      <c r="NU2" t="s">
+      <c r="QX2" t="s">
         <v>89</v>
       </c>
-      <c r="NV2" t="s">
+      <c r="QY2" t="s">
         <v>90</v>
       </c>
-      <c r="NW2" t="s">
+      <c r="QZ2" t="s">
         <v>91</v>
       </c>
-      <c r="NX2" t="s">
+      <c r="RA2" t="s">
         <v>92</v>
       </c>
-      <c r="NY2" t="s">
+      <c r="RB2" t="s">
         <v>93</v>
       </c>
-      <c r="NZ2" t="s">
+      <c r="RC2" t="s">
         <v>94</v>
       </c>
-      <c r="OA2" t="s">
+      <c r="RD2" t="s">
         <v>95</v>
       </c>
+      <c r="RE2" t="s">
+        <v>96</v>
+      </c>
+      <c r="RF2" t="s">
+        <v>97</v>
+      </c>
+      <c r="RG2" t="s">
+        <v>98</v>
+      </c>
+      <c r="RH2" t="s">
+        <v>99</v>
+      </c>
+      <c r="RI2" t="s">
+        <v>100</v>
+      </c>
+      <c r="RJ2" t="s">
+        <v>101</v>
+      </c>
+      <c r="RK2" t="s">
+        <v>102</v>
+      </c>
+      <c r="RL2" t="s">
+        <v>103</v>
+      </c>
+      <c r="RM2" t="s">
+        <v>104</v>
+      </c>
+      <c r="RN2" t="s">
+        <v>35</v>
+      </c>
+      <c r="RO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="RP2" t="s">
+        <v>37</v>
+      </c>
+      <c r="RQ2" t="s">
+        <v>38</v>
+      </c>
+      <c r="RR2" t="s">
+        <v>39</v>
+      </c>
+      <c r="RS2" t="s">
+        <v>40</v>
+      </c>
+      <c r="RT2" t="s">
+        <v>41</v>
+      </c>
+      <c r="RU2" t="s">
+        <v>42</v>
+      </c>
+      <c r="RV2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="3" spans="1:391">
+    <row r="3" spans="1:490">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2283,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>27722.51006805505</v>
@@ -2292,1036 +2715,1306 @@
         <v>27722.51006805504</v>
       </c>
       <c r="F3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.7</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>0.6380952380952379</v>
+      </c>
+      <c r="K3">
+        <v>0.3</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.3619047619047618</v>
+      </c>
+      <c r="P3">
+        <v>-0.04201405983650307</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>2.354431840872052</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0.1784962312133287</v>
+      </c>
+      <c r="U3">
+        <v>-198.6438720694568</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>15755.20605194686</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>663.6945499991367</v>
+      </c>
+      <c r="Z3">
+        <v>1.8</v>
+      </c>
+      <c r="AA3">
+        <v>1.461538461538461</v>
+      </c>
+      <c r="AB3">
+        <v>9</v>
+      </c>
+      <c r="AC3">
+        <v>1.412488761378659</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0.4549408565196836</v>
+      </c>
+      <c r="AK3">
+        <v>5</v>
+      </c>
+      <c r="AL3">
+        <v>1.50414146821682</v>
+      </c>
+      <c r="AM3">
+        <v>1.005238471359479</v>
+      </c>
+      <c r="AN3">
+        <v>14</v>
+      </c>
+      <c r="AO3">
+        <v>10.3613073773297</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>1.132785340793603</v>
+      </c>
+      <c r="AR3">
+        <v>14</v>
+      </c>
+      <c r="AS3">
+        <v>13</v>
+      </c>
+      <c r="AT3">
+        <v>27722.51006805505</v>
+      </c>
+      <c r="AU3">
+        <v>27722.51006805504</v>
+      </c>
+      <c r="AV3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0.7</v>
+      </c>
+      <c r="AY3">
+        <v>8</v>
+      </c>
+      <c r="AZ3">
+        <v>0.6</v>
+      </c>
+      <c r="BA3">
+        <v>0.3</v>
+      </c>
+      <c r="BB3">
+        <v>8</v>
+      </c>
+      <c r="BC3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="BF3">
+        <v>-0.4444444444444448</v>
+      </c>
+      <c r="BG3">
+        <v>6</v>
+      </c>
+      <c r="BH3">
+        <v>1.749435979441099</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0.1570500961876836</v>
+      </c>
+      <c r="BK3">
+        <v>-1386.117119070754</v>
+      </c>
+      <c r="BL3">
+        <v>6</v>
+      </c>
+      <c r="BM3">
+        <v>11589.35954012929</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>1051.480702865258</v>
+      </c>
+      <c r="BP3">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="BQ3">
+        <v>1.9</v>
+      </c>
+      <c r="BR3">
+        <v>3</v>
+      </c>
+      <c r="BS3">
+        <v>1.549960455394935</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0.349392622235484</v>
+      </c>
+      <c r="CA3">
+        <v>6</v>
+      </c>
+      <c r="CB3">
+        <v>1.83535149030654</v>
+      </c>
+      <c r="CC3">
+        <v>1.012658150312407</v>
+      </c>
+      <c r="CD3">
+        <v>12</v>
+      </c>
+      <c r="CE3">
+        <v>7.886058849471303</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>1.197982778471694</v>
+      </c>
+      <c r="CH3">
+        <v>12</v>
+      </c>
+      <c r="CI3">
+        <v>19</v>
+      </c>
+      <c r="CJ3">
+        <v>27722.51006805505</v>
+      </c>
+      <c r="CK3">
+        <v>27722.51006805504</v>
+      </c>
+      <c r="CL3">
+        <v>0.3</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="CO3">
+        <v>17</v>
+      </c>
+      <c r="CP3">
+        <v>0.6074074074074072</v>
+      </c>
+      <c r="CQ3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="CR3">
+        <v>17</v>
+      </c>
+      <c r="CS3">
+        <v>0.7</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0.3925925925925926</v>
+      </c>
+      <c r="CV3">
+        <v>-0.2204767585022434</v>
+      </c>
+      <c r="CW3">
+        <v>10</v>
+      </c>
+      <c r="CX3">
+        <v>1.771311439986953</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0.1355719372247108</v>
+      </c>
+      <c r="DA3">
+        <v>-337.9500643646679</v>
+      </c>
+      <c r="DB3">
+        <v>10</v>
+      </c>
+      <c r="DC3">
+        <v>15513.25151395093</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>352.9054293752872</v>
+      </c>
+      <c r="DF3">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="DG3">
+        <v>1.416666666666667</v>
+      </c>
+      <c r="DH3">
+        <v>10</v>
+      </c>
+      <c r="DI3">
+        <v>1.371168682348629</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0.4319917642031437</v>
+      </c>
+      <c r="DQ3">
+        <v>6</v>
+      </c>
+      <c r="DR3">
+        <v>1.2972500987776</v>
+      </c>
+      <c r="DS3">
+        <v>1.003484293638775</v>
+      </c>
+      <c r="DT3">
+        <v>18</v>
+      </c>
+      <c r="DU3">
+        <v>4.733258578078916</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3">
+        <v>1.072133537917647</v>
+      </c>
+      <c r="DX3">
+        <v>18</v>
+      </c>
+      <c r="DY3">
+        <v>26</v>
+      </c>
+      <c r="DZ3">
+        <v>27722.51006805505</v>
+      </c>
+      <c r="EA3">
+        <v>27722.51006805504</v>
+      </c>
+      <c r="EB3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="EC3">
+        <v>0</v>
+      </c>
+      <c r="ED3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="EE3">
+        <v>23</v>
+      </c>
+      <c r="EF3">
+        <v>0.6519999999999999</v>
+      </c>
+      <c r="EG3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="EH3">
+        <v>23</v>
+      </c>
+      <c r="EI3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="EJ3">
+        <v>0</v>
+      </c>
+      <c r="EK3">
+        <v>0.348</v>
+      </c>
+      <c r="EL3">
+        <v>-0.1856953381770509</v>
+      </c>
+      <c r="EM3">
+        <v>17</v>
+      </c>
+      <c r="EN3">
+        <v>1.409893560724722</v>
+      </c>
+      <c r="EO3">
+        <v>0</v>
+      </c>
+      <c r="EP3">
+        <v>0.1256963637083948</v>
+      </c>
+      <c r="EQ3">
+        <v>-263.8145636600239</v>
+      </c>
+      <c r="ER3">
+        <v>10</v>
+      </c>
+      <c r="ES3">
+        <v>11361.60195289271</v>
+      </c>
+      <c r="ET3">
+        <v>0</v>
+      </c>
+      <c r="EU3">
+        <v>480.7258121713973</v>
+      </c>
+      <c r="EV3">
+        <v>1</v>
+      </c>
+      <c r="EW3">
+        <v>1.461538461538461</v>
+      </c>
+      <c r="EX3">
+        <v>9</v>
+      </c>
+      <c r="EY3">
+        <v>1.243426787116279</v>
+      </c>
+      <c r="EZ3">
+        <v>0</v>
+      </c>
+      <c r="FA3">
+        <v>0</v>
+      </c>
+      <c r="FF3">
+        <v>0.5333914607686796</v>
+      </c>
+      <c r="FG3">
+        <v>5</v>
+      </c>
+      <c r="FH3">
+        <v>1.765274207843843</v>
+      </c>
+      <c r="FI3">
+        <v>1.003182180214986</v>
+      </c>
+      <c r="FJ3">
+        <v>14</v>
+      </c>
+      <c r="FK3">
+        <v>6.383611372607756</v>
+      </c>
+      <c r="FL3">
+        <v>0</v>
+      </c>
+      <c r="FM3">
+        <v>1.082964185709864</v>
+      </c>
+      <c r="FN3">
+        <v>25</v>
+      </c>
+      <c r="FO3">
+        <v>15</v>
+      </c>
+      <c r="FP3">
+        <v>27722.51006805505</v>
+      </c>
+      <c r="FQ3">
+        <v>27722.51006805504</v>
+      </c>
+      <c r="FR3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="FS3">
+        <v>0</v>
+      </c>
+      <c r="FT3">
+        <v>0.7</v>
+      </c>
+      <c r="FU3">
+        <v>7</v>
+      </c>
+      <c r="FV3">
+        <v>0.6285714285714284</v>
+      </c>
+      <c r="FW3">
+        <v>0.3</v>
+      </c>
+      <c r="FX3">
+        <v>7</v>
+      </c>
+      <c r="FY3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="FZ3">
+        <v>0</v>
+      </c>
+      <c r="GA3">
+        <v>0.3714285714285715</v>
+      </c>
+      <c r="GB3">
+        <v>-0.02041205856987655</v>
+      </c>
+      <c r="GC3">
+        <v>5</v>
+      </c>
+      <c r="GD3">
+        <v>1.978614012992505</v>
+      </c>
+      <c r="GE3">
+        <v>0</v>
+      </c>
+      <c r="GF3">
+        <v>0.2240589566406841</v>
+      </c>
+      <c r="GG3">
+        <v>-79.1252029493844</v>
+      </c>
+      <c r="GH3">
+        <v>5</v>
+      </c>
+      <c r="GI3">
+        <v>15817.66852145787</v>
+      </c>
+      <c r="GJ3">
+        <v>0</v>
+      </c>
+      <c r="GK3">
+        <v>563.9317901859561</v>
+      </c>
+      <c r="GL3">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="GM3">
+        <v>1.5</v>
+      </c>
+      <c r="GN3">
+        <v>11</v>
+      </c>
+      <c r="GO3">
+        <v>1.640800468452642</v>
+      </c>
+      <c r="GP3">
+        <v>0</v>
+      </c>
+      <c r="GQ3">
+        <v>0</v>
+      </c>
+      <c r="GV3">
+        <v>0.1897180851410243</v>
+      </c>
+      <c r="GW3">
+        <v>9</v>
+      </c>
+      <c r="GX3">
+        <v>1.398187315445147</v>
+      </c>
+      <c r="GY3">
+        <v>1.002620888490354</v>
+      </c>
+      <c r="GZ3">
+        <v>14</v>
+      </c>
+      <c r="HA3">
+        <v>6.913695041311231</v>
+      </c>
+      <c r="HB3">
+        <v>0</v>
+      </c>
+      <c r="HC3">
+        <v>1.097401839512229</v>
+      </c>
+      <c r="HD3">
+        <v>14</v>
+      </c>
+      <c r="HE3">
+        <v>9</v>
+      </c>
+      <c r="HF3">
+        <v>27722.51006805505</v>
+      </c>
+      <c r="HG3">
+        <v>27722.51006805504</v>
+      </c>
+      <c r="HH3">
         <v>0.1666666666666667</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="HI3">
+        <v>0</v>
+      </c>
+      <c r="HJ3">
         <v>0.7333333333333333</v>
       </c>
-      <c r="I3">
+      <c r="HK3">
+        <v>4</v>
+      </c>
+      <c r="HL3">
+        <v>0.6375000000000001</v>
+      </c>
+      <c r="HM3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="HN3">
+        <v>4</v>
+      </c>
+      <c r="HO3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="HP3">
+        <v>0</v>
+      </c>
+      <c r="HQ3">
+        <v>0.3625</v>
+      </c>
+      <c r="HR3">
+        <v>0</v>
+      </c>
+      <c r="HS3">
+        <v>2</v>
+      </c>
+      <c r="HT3">
+        <v>2.803450351682867</v>
+      </c>
+      <c r="HU3">
+        <v>0</v>
+      </c>
+      <c r="HV3">
+        <v>0.1896599433157891</v>
+      </c>
+      <c r="HW3">
+        <v>0</v>
+      </c>
+      <c r="HX3">
+        <v>2</v>
+      </c>
+      <c r="HY3">
+        <v>16955.58364152483</v>
+      </c>
+      <c r="HZ3">
+        <v>0</v>
+      </c>
+      <c r="IA3">
+        <v>1039.56041539984</v>
+      </c>
+      <c r="IB3">
+        <v>1.538461538461539</v>
+      </c>
+      <c r="IC3">
+        <v>1.538461538461539</v>
+      </c>
+      <c r="ID3">
+        <v>2</v>
+      </c>
+      <c r="IE3">
+        <v>2.441067629256868</v>
+      </c>
+      <c r="IF3">
+        <v>0</v>
+      </c>
+      <c r="IG3">
+        <v>0</v>
+      </c>
+      <c r="IL3">
+        <v>0.5226738071728368</v>
+      </c>
+      <c r="IM3">
+        <v>13</v>
+      </c>
+      <c r="IN3">
+        <v>1.428551574855634</v>
+      </c>
+      <c r="IO3">
+        <v>1.013701166449802</v>
+      </c>
+      <c r="IP3">
         <v>7</v>
       </c>
-      <c r="J3">
-        <v>0.6479166666666666</v>
-      </c>
-      <c r="K3">
+      <c r="IQ3">
+        <v>11.31326413184822</v>
+      </c>
+      <c r="IR3">
+        <v>0</v>
+      </c>
+      <c r="IS3">
+        <v>1.121861189839264</v>
+      </c>
+      <c r="IT3">
+        <v>8</v>
+      </c>
+      <c r="IU3">
+        <v>20</v>
+      </c>
+      <c r="IV3">
+        <v>27722.51006805505</v>
+      </c>
+      <c r="IW3">
+        <v>27722.51006805504</v>
+      </c>
+      <c r="IX3">
+        <v>0.3</v>
+      </c>
+      <c r="IY3">
+        <v>0</v>
+      </c>
+      <c r="IZ3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="JA3">
+        <v>5</v>
+      </c>
+      <c r="JB3">
+        <v>0.6473684210526315</v>
+      </c>
+      <c r="JC3">
         <v>0.2666666666666667</v>
       </c>
-      <c r="L3">
-        <v>7</v>
-      </c>
-      <c r="M3">
+      <c r="JD3">
+        <v>5</v>
+      </c>
+      <c r="JE3">
+        <v>0.7</v>
+      </c>
+      <c r="JF3">
+        <v>0</v>
+      </c>
+      <c r="JG3">
+        <v>0.3526315789473684</v>
+      </c>
+      <c r="JH3">
+        <v>-0.5555555555555652</v>
+      </c>
+      <c r="JI3">
+        <v>12</v>
+      </c>
+      <c r="JJ3">
+        <v>2.029878761675161</v>
+      </c>
+      <c r="JK3">
+        <v>0</v>
+      </c>
+      <c r="JL3">
+        <v>0.09184280316136179</v>
+      </c>
+      <c r="JM3">
+        <v>-312.3688347200223</v>
+      </c>
+      <c r="JN3">
+        <v>12</v>
+      </c>
+      <c r="JO3">
+        <v>16379.03527212249</v>
+      </c>
+      <c r="JP3">
+        <v>0</v>
+      </c>
+      <c r="JQ3">
+        <v>361.0161348454872</v>
+      </c>
+      <c r="JR3">
+        <v>1.25</v>
+      </c>
+      <c r="JS3">
+        <v>1.214285714285714</v>
+      </c>
+      <c r="JT3">
+        <v>4</v>
+      </c>
+      <c r="JU3">
+        <v>1.426632084477992</v>
+      </c>
+      <c r="JV3">
+        <v>0</v>
+      </c>
+      <c r="JW3">
+        <v>0</v>
+      </c>
+      <c r="KB3">
+        <v>0.458562846260995</v>
+      </c>
+      <c r="KC3">
+        <v>8</v>
+      </c>
+      <c r="KD3">
+        <v>1.328775327341012</v>
+      </c>
+      <c r="KE3">
+        <v>1.006806635069037</v>
+      </c>
+      <c r="KF3">
+        <v>9</v>
+      </c>
+      <c r="KG3">
+        <v>6.182308205716017</v>
+      </c>
+      <c r="KH3">
+        <v>0</v>
+      </c>
+      <c r="KI3">
+        <v>1.042544477825997</v>
+      </c>
+      <c r="KJ3">
+        <v>19</v>
+      </c>
+      <c r="KK3">
+        <v>5</v>
+      </c>
+      <c r="KL3">
+        <v>27722.51006805505</v>
+      </c>
+      <c r="KM3">
+        <v>27722.51006805504</v>
+      </c>
+      <c r="KN3">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="KO3">
+        <v>0</v>
+      </c>
+      <c r="KP3">
+        <v>0.6</v>
+      </c>
+      <c r="KQ3">
+        <v>4</v>
+      </c>
+      <c r="KR3">
+        <v>0.55</v>
+      </c>
+      <c r="KS3">
+        <v>0.4</v>
+      </c>
+      <c r="KT3">
+        <v>4</v>
+      </c>
+      <c r="KU3">
         <v>0.8333333333333334</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0.3520833333333334</v>
-      </c>
-      <c r="P3">
-        <v>-0.1856953381770505</v>
-      </c>
-      <c r="Q3">
-        <v>14</v>
-      </c>
-      <c r="R3">
-        <v>2.435811922237886</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0.1043353420896585</v>
-      </c>
-      <c r="U3">
-        <v>-288.9335797265339</v>
-      </c>
-      <c r="V3">
+      <c r="KV3">
+        <v>0</v>
+      </c>
+      <c r="KW3">
+        <v>0.45</v>
+      </c>
+      <c r="KX3">
+        <v>0.2672612419124238</v>
+      </c>
+      <c r="KY3">
+        <v>4</v>
+      </c>
+      <c r="KZ3">
+        <v>2.607018141729865</v>
+      </c>
+      <c r="LA3">
+        <v>0</v>
+      </c>
+      <c r="LB3">
+        <v>0.3697370233990571</v>
+      </c>
+      <c r="LC3">
+        <v>1050.294049053802</v>
+      </c>
+      <c r="LD3">
+        <v>4</v>
+      </c>
+      <c r="LE3">
+        <v>14683.84275602619</v>
+      </c>
+      <c r="LF3">
+        <v>0</v>
+      </c>
+      <c r="LG3">
+        <v>2694.629462208125</v>
+      </c>
+      <c r="LH3">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="LI3">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="LJ3">
+        <v>2</v>
+      </c>
+      <c r="LK3">
+        <v>3.420952380952381</v>
+      </c>
+      <c r="LL3">
+        <v>0</v>
+      </c>
+      <c r="LM3">
+        <v>0</v>
+      </c>
+      <c r="LR3">
+        <v>0.5975134556621949</v>
+      </c>
+      <c r="LS3">
+        <v>12</v>
+      </c>
+      <c r="LT3">
+        <v>1.636126227478111</v>
+      </c>
+      <c r="LU3">
+        <v>1.039377832284561</v>
+      </c>
+      <c r="LV3">
+        <v>4</v>
+      </c>
+      <c r="LW3">
+        <v>12.2657861878078</v>
+      </c>
+      <c r="LX3">
+        <v>0</v>
+      </c>
+      <c r="LY3">
+        <v>1.258720164747539</v>
+      </c>
+      <c r="LZ3">
+        <v>4</v>
+      </c>
+      <c r="MA3">
+        <v>6</v>
+      </c>
+      <c r="MB3">
+        <v>27722.51006805505</v>
+      </c>
+      <c r="MC3">
+        <v>27722.51006805504</v>
+      </c>
+      <c r="MD3">
+        <v>0.3</v>
+      </c>
+      <c r="ME3">
+        <v>0</v>
+      </c>
+      <c r="MF3">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="MG3">
+        <v>2</v>
+      </c>
+      <c r="MH3">
+        <v>0.58</v>
+      </c>
+      <c r="MI3">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="MJ3">
+        <v>2</v>
+      </c>
+      <c r="MK3">
+        <v>0.7</v>
+      </c>
+      <c r="ML3">
+        <v>0</v>
+      </c>
+      <c r="MM3">
+        <v>0.42</v>
+      </c>
+      <c r="MN3">
+        <v>0.1856953381770508</v>
+      </c>
+      <c r="MO3">
         <v>5</v>
       </c>
-      <c r="W3">
-        <v>16299.7790262777</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>546.6969203535673</v>
-      </c>
-      <c r="Z3">
+      <c r="MP3">
+        <v>1.465084505518727</v>
+      </c>
+      <c r="MQ3">
+        <v>0</v>
+      </c>
+      <c r="MR3">
+        <v>0.419632755877709</v>
+      </c>
+      <c r="MS3">
+        <v>279.3723698102403</v>
+      </c>
+      <c r="MT3">
+        <v>5</v>
+      </c>
+      <c r="MU3">
+        <v>10155.1471228699</v>
+      </c>
+      <c r="MV3">
+        <v>0</v>
+      </c>
+      <c r="MW3">
+        <v>2574.274720059565</v>
+      </c>
+      <c r="MX3">
+        <v>2.4</v>
+      </c>
+      <c r="MY3">
         <v>1.333333333333333</v>
       </c>
-      <c r="AA3">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="AB3">
+      <c r="MZ3">
+        <v>3</v>
+      </c>
+      <c r="NA3">
+        <v>2.088231694338016</v>
+      </c>
+      <c r="NB3">
+        <v>0</v>
+      </c>
+      <c r="NC3">
+        <v>0</v>
+      </c>
+      <c r="NH3">
+        <v>0.5863104608143044</v>
+      </c>
+      <c r="NI3">
+        <v>5</v>
+      </c>
+      <c r="NJ3">
+        <v>1.866692837160471</v>
+      </c>
+      <c r="NK3">
+        <v>1.010180044748604</v>
+      </c>
+      <c r="NL3">
+        <v>5</v>
+      </c>
+      <c r="NM3">
+        <v>5.903443988482954</v>
+      </c>
+      <c r="NN3">
+        <v>0</v>
+      </c>
+      <c r="NO3">
+        <v>1.328484459569987</v>
+      </c>
+      <c r="NP3">
+        <v>5</v>
+      </c>
+      <c r="NQ3">
+        <v>6</v>
+      </c>
+      <c r="NR3">
+        <v>27722.51006805505</v>
+      </c>
+      <c r="NS3">
+        <v>27722.51006805504</v>
+      </c>
+      <c r="NT3">
+        <v>0.3</v>
+      </c>
+      <c r="NU3">
+        <v>0</v>
+      </c>
+      <c r="NV3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="NW3">
+        <v>4</v>
+      </c>
+      <c r="NX3">
+        <v>0.6466666666666666</v>
+      </c>
+      <c r="NY3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="NZ3">
+        <v>4</v>
+      </c>
+      <c r="OA3">
+        <v>0.7</v>
+      </c>
+      <c r="OB3">
+        <v>0</v>
+      </c>
+      <c r="OC3">
+        <v>0.3533333333333334</v>
+      </c>
+      <c r="OD3">
+        <v>0</v>
+      </c>
+      <c r="OE3">
+        <v>4</v>
+      </c>
+      <c r="OF3">
+        <v>2.36002939936924</v>
+      </c>
+      <c r="OG3">
+        <v>0</v>
+      </c>
+      <c r="OH3">
+        <v>0.2997126410601353</v>
+      </c>
+      <c r="OI3">
+        <v>0</v>
+      </c>
+      <c r="OJ3">
+        <v>4</v>
+      </c>
+      <c r="OK3">
+        <v>12796.54562509185</v>
+      </c>
+      <c r="OL3">
+        <v>0</v>
+      </c>
+      <c r="OM3">
+        <v>2542.561143083011</v>
+      </c>
+      <c r="ON3">
+        <v>1.692307692307692</v>
+      </c>
+      <c r="OO3">
+        <v>1.692307692307692</v>
+      </c>
+      <c r="OP3">
         <v>2</v>
       </c>
-      <c r="AC3">
-        <v>1.708534206922513</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>7</v>
-      </c>
-      <c r="AK3">
-        <v>27722.51006805505</v>
-      </c>
-      <c r="AL3">
-        <v>27722.51006805504</v>
-      </c>
-      <c r="AM3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
+      <c r="OQ3">
+        <v>3.171356208712531</v>
+      </c>
+      <c r="OR3">
+        <v>0</v>
+      </c>
+      <c r="OS3">
+        <v>0</v>
+      </c>
+      <c r="OX3">
+        <v>0.6901232591851568</v>
+      </c>
+      <c r="OY3">
+        <v>13</v>
+      </c>
+      <c r="OZ3">
+        <v>1.846972426420848</v>
+      </c>
+      <c r="PA3">
+        <v>1.018542747424443</v>
+      </c>
+      <c r="PB3">
+        <v>4</v>
+      </c>
+      <c r="PC3">
+        <v>12.5262186227228</v>
+      </c>
+      <c r="PD3">
+        <v>0</v>
+      </c>
+      <c r="PE3">
+        <v>1.229877645233837</v>
+      </c>
+      <c r="PF3">
+        <v>5</v>
+      </c>
+      <c r="PG3">
+        <v>1</v>
+      </c>
+      <c r="PH3">
+        <v>10</v>
+      </c>
+      <c r="PI3">
+        <v>5</v>
+      </c>
+      <c r="PJ3">
+        <v>26</v>
+      </c>
+      <c r="PK3">
+        <v>13.4</v>
+      </c>
+      <c r="PL3">
+        <v>6.62117814289874</v>
+      </c>
+      <c r="PM3">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="PN3">
+        <v>0</v>
+      </c>
+      <c r="PO3">
         <v>0.7666666666666667</v>
       </c>
-      <c r="AP3">
-        <v>4</v>
-      </c>
-      <c r="AQ3">
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="AR3">
+      <c r="PP3">
+        <v>17</v>
+      </c>
+      <c r="PQ3">
+        <v>0.2733333333333333</v>
+      </c>
+      <c r="PR3">
+        <v>0.7100000000000001</v>
+      </c>
+      <c r="PS3">
+        <v>0.6187609161793372</v>
+      </c>
+      <c r="PT3">
+        <v>0.08137703743822468</v>
+      </c>
+      <c r="PU3">
+        <v>0.05385164807134506</v>
+      </c>
+      <c r="PV3">
+        <v>0.03199143434196162</v>
+      </c>
+      <c r="PW3">
         <v>0.2333333333333333</v>
       </c>
-      <c r="AS3">
-        <v>4</v>
-      </c>
-      <c r="AT3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0.3666666666666666</v>
-      </c>
-      <c r="AW3">
-        <v>0.1507556722888803</v>
-      </c>
-      <c r="AX3">
-        <v>4</v>
-      </c>
-      <c r="AY3">
-        <v>1.663507017397243</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0.3344363300892167</v>
-      </c>
-      <c r="BB3">
-        <v>693.0585595353696</v>
-      </c>
-      <c r="BC3">
-        <v>4</v>
-      </c>
-      <c r="BD3">
-        <v>11020.11228116156</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>2197.835948891804</v>
-      </c>
-      <c r="BG3">
-        <v>1.875</v>
-      </c>
-      <c r="BH3">
-        <v>1.875</v>
-      </c>
-      <c r="BI3">
-        <v>2</v>
-      </c>
-      <c r="BJ3">
-        <v>2.232187257187257</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BQ3">
-        <v>37</v>
-      </c>
-      <c r="BR3">
-        <v>27722.51006805505</v>
-      </c>
-      <c r="BS3">
-        <v>27722.51006805504</v>
-      </c>
-      <c r="BT3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="BW3">
-        <v>23</v>
-      </c>
-      <c r="BX3">
-        <v>0.6277777777777778</v>
-      </c>
-      <c r="BY3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="BZ3">
-        <v>23</v>
-      </c>
-      <c r="CA3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="CB3">
-        <v>0</v>
-      </c>
-      <c r="CC3">
-        <v>0.3722222222222223</v>
-      </c>
-      <c r="CD3">
-        <v>-0.3015113445777667</v>
-      </c>
-      <c r="CE3">
-        <v>20</v>
-      </c>
-      <c r="CF3">
-        <v>1.386741635175346</v>
-      </c>
-      <c r="CG3">
-        <v>0</v>
-      </c>
-      <c r="CH3">
-        <v>0.06057256127045085</v>
-      </c>
-      <c r="CI3">
-        <v>-385.0318977319621</v>
-      </c>
-      <c r="CJ3">
-        <v>20</v>
-      </c>
-      <c r="CK3">
-        <v>12145.16616654448</v>
-      </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
-      <c r="CM3">
-        <v>270.0106410044896</v>
-      </c>
-      <c r="CN3">
-        <v>2.2</v>
-      </c>
-      <c r="CO3">
-        <v>1.071428571428571</v>
-      </c>
-      <c r="CP3">
-        <v>4</v>
-      </c>
-      <c r="CQ3">
-        <v>1.174329801471421</v>
-      </c>
-      <c r="CR3">
-        <v>0</v>
-      </c>
-      <c r="CS3">
-        <v>0</v>
-      </c>
-      <c r="CX3">
-        <v>35</v>
-      </c>
-      <c r="CY3">
-        <v>27722.51006805505</v>
-      </c>
-      <c r="CZ3">
-        <v>27722.51006805504</v>
-      </c>
-      <c r="DA3">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="DB3">
-        <v>0</v>
-      </c>
-      <c r="DC3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="DD3">
-        <v>29</v>
-      </c>
-      <c r="DE3">
-        <v>0.6392156862745096</v>
-      </c>
-      <c r="DF3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="DG3">
-        <v>29</v>
-      </c>
-      <c r="DH3">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="DI3">
-        <v>0</v>
-      </c>
-      <c r="DJ3">
-        <v>0.3607843137254902</v>
-      </c>
-      <c r="DK3">
-        <v>-0.3374388671926317</v>
-      </c>
-      <c r="DL3">
-        <v>3</v>
-      </c>
-      <c r="DM3">
-        <v>2.295613803011266</v>
-      </c>
-      <c r="DN3">
-        <v>0</v>
-      </c>
-      <c r="DO3">
-        <v>0.08200329425649254</v>
-      </c>
-      <c r="DP3">
-        <v>-1337.383279999503</v>
-      </c>
-      <c r="DQ3">
-        <v>3</v>
-      </c>
-      <c r="DR3">
-        <v>18499.16262754863</v>
-      </c>
-      <c r="DS3">
-        <v>0</v>
-      </c>
-      <c r="DT3">
-        <v>143.5466067537941</v>
-      </c>
-      <c r="DU3">
-        <v>1.125</v>
-      </c>
-      <c r="DV3">
-        <v>1.25</v>
-      </c>
-      <c r="DW3">
+      <c r="PX3">
         <v>17</v>
       </c>
-      <c r="DX3">
-        <v>1.262414667498701</v>
-      </c>
-      <c r="DY3">
-        <v>0</v>
-      </c>
-      <c r="DZ3">
-        <v>0</v>
-      </c>
-      <c r="EE3">
-        <v>83</v>
-      </c>
-      <c r="EF3">
-        <v>27722.51006805505</v>
-      </c>
-      <c r="EG3">
-        <v>27722.51006805504</v>
-      </c>
-      <c r="EH3">
-        <v>0.3666666666666666</v>
-      </c>
-      <c r="EI3">
-        <v>0</v>
-      </c>
-      <c r="EJ3">
-        <v>0.8</v>
-      </c>
-      <c r="EK3">
-        <v>67</v>
-      </c>
-      <c r="EL3">
-        <v>0.6447154471544716</v>
-      </c>
-      <c r="EM3">
-        <v>0.2</v>
-      </c>
-      <c r="EN3">
-        <v>67</v>
-      </c>
-      <c r="EO3">
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="EP3">
-        <v>0</v>
-      </c>
-      <c r="EQ3">
-        <v>0.3552845528455284</v>
-      </c>
-      <c r="ER3">
-        <v>-0.472866243743454</v>
-      </c>
-      <c r="ES3">
-        <v>43</v>
-      </c>
-      <c r="ET3">
-        <v>1.981921690643274</v>
-      </c>
-      <c r="EU3">
-        <v>0</v>
-      </c>
-      <c r="EV3">
-        <v>0.03409993960386105</v>
-      </c>
-      <c r="EW3">
-        <v>-356.0423156918041</v>
-      </c>
-      <c r="EX3">
-        <v>16</v>
-      </c>
-      <c r="EY3">
-        <v>15844.11114660464</v>
-      </c>
-      <c r="EZ3">
-        <v>0</v>
-      </c>
-      <c r="FA3">
-        <v>95.95856631044654</v>
-      </c>
-      <c r="FB3">
-        <v>1</v>
-      </c>
-      <c r="FC3">
-        <v>1.142857142857143</v>
-      </c>
-      <c r="FD3">
-        <v>23</v>
-      </c>
-      <c r="FE3">
-        <v>1.072148970308405</v>
-      </c>
-      <c r="FF3">
-        <v>0</v>
-      </c>
-      <c r="FG3">
-        <v>0</v>
-      </c>
-      <c r="FL3">
-        <v>14</v>
-      </c>
-      <c r="FM3">
-        <v>27722.51006805505</v>
-      </c>
-      <c r="FN3">
-        <v>27722.51006805504</v>
-      </c>
-      <c r="FO3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="FP3">
-        <v>0</v>
-      </c>
-      <c r="FQ3">
-        <v>0.7</v>
-      </c>
-      <c r="FR3">
-        <v>3</v>
-      </c>
-      <c r="FS3">
-        <v>0.6179487179487178</v>
-      </c>
-      <c r="FT3">
-        <v>0.3</v>
-      </c>
-      <c r="FU3">
-        <v>3</v>
-      </c>
-      <c r="FV3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="FW3">
-        <v>0</v>
-      </c>
-      <c r="FX3">
-        <v>0.3820512820512821</v>
-      </c>
-      <c r="FY3">
-        <v>-0.1856953381770516</v>
-      </c>
-      <c r="FZ3">
-        <v>7</v>
-      </c>
-      <c r="GA3">
-        <v>2.332003405015462</v>
-      </c>
-      <c r="GB3">
-        <v>0</v>
-      </c>
-      <c r="GC3">
-        <v>0.1311792671762577</v>
-      </c>
-      <c r="GD3">
-        <v>-374.6969397095272</v>
-      </c>
-      <c r="GE3">
-        <v>8</v>
-      </c>
-      <c r="GF3">
-        <v>14104.2193817789</v>
-      </c>
-      <c r="GG3">
-        <v>0</v>
-      </c>
-      <c r="GH3">
-        <v>859.0651986880498</v>
-      </c>
-      <c r="GI3">
-        <v>2.111111111111111</v>
-      </c>
-      <c r="GJ3">
-        <v>2.111111111111111</v>
-      </c>
-      <c r="GK3">
-        <v>2</v>
-      </c>
-      <c r="GL3">
-        <v>1.687000835421888</v>
-      </c>
-      <c r="GM3">
-        <v>0</v>
-      </c>
-      <c r="GN3">
-        <v>0</v>
-      </c>
-      <c r="GS3">
-        <v>14</v>
-      </c>
-      <c r="GT3">
-        <v>27722.51006805505</v>
-      </c>
-      <c r="GU3">
-        <v>27722.51006805504</v>
-      </c>
-      <c r="GV3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="GW3">
-        <v>0</v>
-      </c>
-      <c r="GX3">
-        <v>0.7</v>
-      </c>
-      <c r="GY3">
-        <v>8</v>
-      </c>
-      <c r="GZ3">
-        <v>0.6333333333333334</v>
-      </c>
-      <c r="HA3">
-        <v>0.3</v>
-      </c>
-      <c r="HB3">
-        <v>8</v>
-      </c>
-      <c r="HC3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="HD3">
-        <v>0</v>
-      </c>
-      <c r="HE3">
-        <v>0.3666666666666666</v>
-      </c>
-      <c r="HF3">
-        <v>0</v>
-      </c>
-      <c r="HG3">
+      <c r="PY3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="PZ3">
+        <v>0</v>
+      </c>
+      <c r="QA3">
+        <v>0.29</v>
+      </c>
+      <c r="QB3">
+        <v>0.7266666666666667</v>
+      </c>
+      <c r="QC3">
+        <v>0.3812390838206627</v>
+      </c>
+      <c r="QD3">
+        <v>0.05385164807134504</v>
+      </c>
+      <c r="QE3">
+        <v>0.08137703743822471</v>
+      </c>
+      <c r="QF3">
+        <v>0.03199143434196165</v>
+      </c>
+      <c r="QG3">
+        <v>-0.5555555555555652</v>
+      </c>
+      <c r="QH3">
         <v>12</v>
       </c>
-      <c r="HH3">
-        <v>1.796368445097182</v>
-      </c>
-      <c r="HI3">
-        <v>0</v>
-      </c>
-      <c r="HJ3">
-        <v>0.1969689505081581</v>
-      </c>
-      <c r="HK3">
-        <v>0</v>
-      </c>
-      <c r="HL3">
-        <v>12</v>
-      </c>
-      <c r="HM3">
-        <v>14494.84702214105</v>
-      </c>
-      <c r="HN3">
-        <v>0</v>
-      </c>
-      <c r="HO3">
-        <v>672.5765240035151</v>
-      </c>
-      <c r="HP3">
-        <v>1.166666666666667</v>
-      </c>
-      <c r="HQ3">
-        <v>1.307692307692308</v>
-      </c>
-      <c r="HR3">
+      <c r="QI3">
+        <v>2.803450351682867</v>
+      </c>
+      <c r="QJ3">
+        <v>0</v>
+      </c>
+      <c r="QK3">
+        <v>-0.1015641634996209</v>
+      </c>
+      <c r="QL3">
+        <v>2.052914799399319</v>
+      </c>
+      <c r="QM3">
+        <v>0.2191458751788855</v>
+      </c>
+      <c r="QN3">
+        <v>0.2437634036316809</v>
+      </c>
+      <c r="QO3">
+        <v>0.44632251936433</v>
+      </c>
+      <c r="QP3">
+        <v>0.1037733160951575</v>
+      </c>
+      <c r="QQ3">
+        <v>-1386.117119070754</v>
+      </c>
+      <c r="QR3">
         <v>6</v>
       </c>
-      <c r="HS3">
-        <v>1.500026201435213</v>
-      </c>
-      <c r="HT3">
-        <v>0</v>
-      </c>
-      <c r="HU3">
-        <v>0</v>
-      </c>
-      <c r="HZ3">
-        <v>9</v>
-      </c>
-      <c r="IA3">
-        <v>27722.51006805505</v>
-      </c>
-      <c r="IB3">
-        <v>27722.51006805504</v>
-      </c>
-      <c r="IC3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="ID3">
-        <v>0</v>
-      </c>
-      <c r="IE3">
-        <v>0.7</v>
-      </c>
-      <c r="IF3">
-        <v>2</v>
-      </c>
-      <c r="IG3">
-        <v>0.6458333333333335</v>
-      </c>
-      <c r="IH3">
-        <v>0.3</v>
-      </c>
-      <c r="II3">
-        <v>2</v>
-      </c>
-      <c r="IJ3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="IK3">
-        <v>0</v>
-      </c>
-      <c r="IL3">
-        <v>0.3541666666666666</v>
-      </c>
-      <c r="IM3">
-        <v>-0.1320570499150144</v>
-      </c>
-      <c r="IN3">
-        <v>4</v>
-      </c>
-      <c r="IO3">
-        <v>2.716758779522179</v>
-      </c>
-      <c r="IP3">
-        <v>0</v>
-      </c>
-      <c r="IQ3">
-        <v>0.1710181137213309</v>
-      </c>
-      <c r="IR3">
-        <v>-512.9975949444706</v>
-      </c>
-      <c r="IS3">
-        <v>4</v>
-      </c>
-      <c r="IT3">
-        <v>15301.9490298165</v>
-      </c>
-      <c r="IU3">
-        <v>0</v>
-      </c>
-      <c r="IV3">
-        <v>1270.051446880274</v>
-      </c>
-      <c r="IW3">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="IX3">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="IY3">
-        <v>2</v>
-      </c>
-      <c r="IZ3">
-        <v>2.539839648077196</v>
-      </c>
-      <c r="JA3">
-        <v>0</v>
-      </c>
-      <c r="JB3">
-        <v>0</v>
-      </c>
-      <c r="JG3">
-        <v>8</v>
-      </c>
-      <c r="JH3">
-        <v>27722.51006805505</v>
-      </c>
-      <c r="JI3">
-        <v>27722.51006805504</v>
-      </c>
-      <c r="JJ3">
-        <v>0.4</v>
-      </c>
-      <c r="JK3">
-        <v>0</v>
-      </c>
-      <c r="JL3">
-        <v>0.7</v>
-      </c>
-      <c r="JM3">
-        <v>2</v>
-      </c>
-      <c r="JN3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="JO3">
-        <v>0.3</v>
-      </c>
-      <c r="JP3">
-        <v>2</v>
-      </c>
-      <c r="JQ3">
-        <v>0.6</v>
-      </c>
-      <c r="JR3">
-        <v>0</v>
-      </c>
-      <c r="JS3">
-        <v>0.3333333333333334</v>
-      </c>
-      <c r="JT3">
-        <v>0.1145420888295512</v>
-      </c>
-      <c r="JU3">
-        <v>6</v>
-      </c>
-      <c r="JV3">
-        <v>1.376164363535392</v>
-      </c>
-      <c r="JW3">
-        <v>0</v>
-      </c>
-      <c r="JX3">
-        <v>0.2802855858882002</v>
-      </c>
-      <c r="JY3">
-        <v>512.997594944467</v>
-      </c>
-      <c r="JZ3">
-        <v>6</v>
-      </c>
-      <c r="KA3">
-        <v>9538.802386012867</v>
-      </c>
-      <c r="KB3">
-        <v>0</v>
-      </c>
-      <c r="KC3">
-        <v>1926.816905307837</v>
-      </c>
-      <c r="KD3">
-        <v>1.8</v>
-      </c>
-      <c r="KE3">
-        <v>1.777777777777778</v>
-      </c>
-      <c r="KF3">
-        <v>3</v>
-      </c>
-      <c r="KG3">
-        <v>1.782519553715206</v>
-      </c>
-      <c r="KH3">
-        <v>0</v>
-      </c>
-      <c r="KI3">
-        <v>0</v>
-      </c>
-      <c r="KN3">
-        <v>7</v>
-      </c>
-      <c r="KO3">
-        <v>27722.51006805505</v>
-      </c>
-      <c r="KP3">
-        <v>27722.51006805504</v>
-      </c>
-      <c r="KQ3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="KR3">
-        <v>0</v>
-      </c>
-      <c r="KS3">
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="KT3">
-        <v>2</v>
-      </c>
-      <c r="KU3">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="KV3">
-        <v>0.3666666666666666</v>
-      </c>
-      <c r="KW3">
-        <v>2</v>
-      </c>
-      <c r="KX3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="KY3">
-        <v>0</v>
-      </c>
-      <c r="KZ3">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="LA3">
-        <v>-0.1856953381770528</v>
-      </c>
-      <c r="LB3">
-        <v>5</v>
-      </c>
-      <c r="LC3">
-        <v>2.387969872603497</v>
-      </c>
-      <c r="LD3">
-        <v>0</v>
-      </c>
-      <c r="LE3">
-        <v>0.2461456017994554</v>
-      </c>
-      <c r="LF3">
-        <v>-504.6931053835215</v>
-      </c>
-      <c r="LG3">
-        <v>5</v>
-      </c>
-      <c r="LH3">
-        <v>12948.04439058366</v>
-      </c>
-      <c r="LI3">
-        <v>0</v>
-      </c>
-      <c r="LJ3">
-        <v>2093.551158320539</v>
-      </c>
-      <c r="LK3">
-        <v>1.833333333333333</v>
-      </c>
-      <c r="LL3">
-        <v>1.833333333333333</v>
-      </c>
-      <c r="LM3">
-        <v>2</v>
-      </c>
-      <c r="LN3">
-        <v>2.737819241513823</v>
-      </c>
-      <c r="LO3">
-        <v>0</v>
-      </c>
-      <c r="LP3">
-        <v>0</v>
-      </c>
-      <c r="LU3">
-        <v>1</v>
-      </c>
-      <c r="LV3">
-        <v>10</v>
-      </c>
-      <c r="LW3">
-        <v>7</v>
-      </c>
-      <c r="LX3">
-        <v>83</v>
-      </c>
-      <c r="LY3">
-        <v>23.1</v>
-      </c>
-      <c r="LZ3">
-        <v>22.51865892987413</v>
-      </c>
-      <c r="MA3">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="MB3">
-        <v>0</v>
-      </c>
-      <c r="MC3">
-        <v>0.8</v>
-      </c>
-      <c r="MD3">
-        <v>67</v>
-      </c>
-      <c r="ME3">
-        <v>0.2933333333333333</v>
-      </c>
-      <c r="MF3">
-        <v>0.7266666666666668</v>
-      </c>
-      <c r="MG3">
-        <v>0.6340074295822143</v>
-      </c>
-      <c r="MH3">
-        <v>0.09977753031397177</v>
-      </c>
-      <c r="MI3">
-        <v>0.0466666666666667</v>
-      </c>
-      <c r="MJ3">
-        <v>0.02099332237622237</v>
-      </c>
-      <c r="MK3">
-        <v>0.2</v>
-      </c>
-      <c r="ML3">
-        <v>67</v>
-      </c>
-      <c r="MM3">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="MN3">
-        <v>0</v>
-      </c>
-      <c r="MO3">
-        <v>0.2733333333333333</v>
-      </c>
-      <c r="MP3">
-        <v>0.7066666666666667</v>
-      </c>
-      <c r="MQ3">
-        <v>0.3659925704177856</v>
-      </c>
-      <c r="MR3">
-        <v>0.04666666666666665</v>
-      </c>
-      <c r="MS3">
-        <v>0.0997775303139718</v>
-      </c>
-      <c r="MT3">
-        <v>0.02099332237622237</v>
-      </c>
-      <c r="MU3">
-        <v>-0.472866243743454</v>
-      </c>
-      <c r="MV3">
-        <v>43</v>
-      </c>
-      <c r="MW3">
-        <v>2.716758779522179</v>
-      </c>
-      <c r="MX3">
-        <v>0</v>
-      </c>
-      <c r="MY3">
-        <v>-0.153566175884159</v>
-      </c>
-      <c r="MZ3">
-        <v>2.037286093423872</v>
-      </c>
-      <c r="NA3">
-        <v>0.1641044986403082</v>
-      </c>
-      <c r="NB3">
-        <v>0.1868917772004891</v>
-      </c>
-      <c r="NC3">
-        <v>0.4425137220010397</v>
-      </c>
-      <c r="ND3">
-        <v>0.09454452329209866</v>
-      </c>
-      <c r="NE3">
-        <v>-1337.383279999503</v>
-      </c>
-      <c r="NF3">
-        <v>3</v>
-      </c>
-      <c r="NG3">
-        <v>18499.16262754863</v>
-      </c>
-      <c r="NH3">
-        <v>0</v>
-      </c>
-      <c r="NI3">
-        <v>-255.3722558707486</v>
-      </c>
-      <c r="NJ3">
-        <v>14019.619345847</v>
-      </c>
-      <c r="NK3">
-        <v>1007.610991651432</v>
-      </c>
-      <c r="NL3">
-        <v>1</v>
-      </c>
-      <c r="NM3">
-        <v>2.2</v>
-      </c>
-      <c r="NN3">
-        <v>1.573015873015873</v>
-      </c>
-      <c r="NO3">
-        <v>1.071428571428571</v>
-      </c>
-      <c r="NP3">
-        <v>2.111111111111111</v>
-      </c>
-      <c r="NQ3">
-        <v>1.498824786324787</v>
-      </c>
-      <c r="NR3">
-        <v>1.072148970308405</v>
-      </c>
-      <c r="NS3">
-        <v>2.737819241513823</v>
-      </c>
-      <c r="NT3">
-        <v>1.769682038355162</v>
+      <c r="QS3">
+        <v>16955.58364152483</v>
+      </c>
+      <c r="QT3">
+        <v>0</v>
+      </c>
+      <c r="QU3">
+        <v>-124.8353237970266</v>
+      </c>
+      <c r="QV3">
+        <v>14100.72419980129</v>
+      </c>
+      <c r="QW3">
+        <v>1232.478016019306</v>
+      </c>
+      <c r="QX3">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="QY3">
+        <v>2.4</v>
+      </c>
+      <c r="QZ3">
+        <v>1.495854700854701</v>
+      </c>
+      <c r="RA3">
+        <v>1.214285714285714</v>
+      </c>
+      <c r="RB3">
+        <v>1.9</v>
+      </c>
+      <c r="RC3">
+        <v>1.518479853479854</v>
+      </c>
+      <c r="RD3">
+        <v>1.243426787116279</v>
+      </c>
+      <c r="RE3">
+        <v>3.420952380952381</v>
+      </c>
+      <c r="RF3">
+        <v>1.976608515242893</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C1:AI1"/>
-    <mergeCell ref="AJ1:BP1"/>
-    <mergeCell ref="BQ1:CW1"/>
-    <mergeCell ref="CX1:ED1"/>
-    <mergeCell ref="EE1:FK1"/>
-    <mergeCell ref="FL1:GR1"/>
-    <mergeCell ref="GS1:HY1"/>
-    <mergeCell ref="HZ1:JF1"/>
-    <mergeCell ref="JG1:KM1"/>
-    <mergeCell ref="KN1:LT1"/>
-    <mergeCell ref="LU1:OA1"/>
+    <mergeCell ref="C1:AR1"/>
+    <mergeCell ref="AS1:CH1"/>
+    <mergeCell ref="CI1:DX1"/>
+    <mergeCell ref="DY1:FN1"/>
+    <mergeCell ref="FO1:HD1"/>
+    <mergeCell ref="HE1:IT1"/>
+    <mergeCell ref="IU1:KJ1"/>
+    <mergeCell ref="KK1:LZ1"/>
+    <mergeCell ref="MA1:NP1"/>
+    <mergeCell ref="NQ1:PF1"/>
+    <mergeCell ref="PG1:RV1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>

--- a/out_test/tables/Fexp1/Fexp1_30.xlsx
+++ b/out_test/tables/Fexp1/Fexp1_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="128">
   <si>
     <t>RWS</t>
   </si>
@@ -329,6 +329,66 @@
   </si>
   <si>
     <t>nonMax_F_found</t>
+  </si>
+  <si>
+    <t>Min_I_start</t>
+  </si>
+  <si>
+    <t>Max_I_start</t>
+  </si>
+  <si>
+    <t>Avg_I_start</t>
+  </si>
+  <si>
+    <t>Sigma_I_start</t>
+  </si>
+  <si>
+    <t>Min_GR_start</t>
+  </si>
+  <si>
+    <t>Max_GR_start</t>
+  </si>
+  <si>
+    <t>Avg_GR_start</t>
+  </si>
+  <si>
+    <t>Sigma_GR_start</t>
+  </si>
+  <si>
+    <t>Min_Pr_min</t>
+  </si>
+  <si>
+    <t>Max_Pr_max</t>
+  </si>
+  <si>
+    <t>Avg_Pr_min</t>
+  </si>
+  <si>
+    <t>Avg_Pr_max</t>
+  </si>
+  <si>
+    <t>Avg_Pr_avg</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_min</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_max</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_avg</t>
+  </si>
+  <si>
+    <t>Min_Pr_start</t>
+  </si>
+  <si>
+    <t>Max_Pr_start</t>
+  </si>
+  <si>
+    <t>Avg_Pr_start</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_start</t>
   </si>
   <si>
     <t>Aggregated</t>
@@ -701,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:RV3"/>
+  <dimension ref="A1:SR3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -712,12 +772,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:490">
+    <row r="1" spans="1:512">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>44</v>
@@ -1160,7 +1220,7 @@
       <c r="PE1" s="1"/>
       <c r="PF1" s="1"/>
       <c r="PG1" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="PH1" s="1"/>
       <c r="PI1" s="1"/>
@@ -1229,8 +1289,30 @@
       <c r="RT1" s="1"/>
       <c r="RU1" s="1"/>
       <c r="RV1" s="1"/>
+      <c r="RW1" s="1"/>
+      <c r="RX1" s="1"/>
+      <c r="RY1" s="1"/>
+      <c r="RZ1" s="1"/>
+      <c r="SA1" s="1"/>
+      <c r="SB1" s="1"/>
+      <c r="SC1" s="1"/>
+      <c r="SD1" s="1"/>
+      <c r="SE1" s="1"/>
+      <c r="SF1" s="1"/>
+      <c r="SG1" s="1"/>
+      <c r="SH1" s="1"/>
+      <c r="SI1" s="1"/>
+      <c r="SJ1" s="1"/>
+      <c r="SK1" s="1"/>
+      <c r="SL1" s="1"/>
+      <c r="SM1" s="1"/>
+      <c r="SN1" s="1"/>
+      <c r="SO1" s="1"/>
+      <c r="SP1" s="1"/>
+      <c r="SQ1" s="1"/>
+      <c r="SR1" s="1"/>
     </row>
-    <row r="2" spans="1:490">
+    <row r="2" spans="1:512">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -2697,8 +2779,74 @@
       <c r="RV2" t="s">
         <v>43</v>
       </c>
+      <c r="RW2" t="s">
+        <v>105</v>
+      </c>
+      <c r="RX2" t="s">
+        <v>106</v>
+      </c>
+      <c r="RY2" t="s">
+        <v>107</v>
+      </c>
+      <c r="RZ2" t="s">
+        <v>108</v>
+      </c>
+      <c r="SA2" t="s">
+        <v>109</v>
+      </c>
+      <c r="SB2" t="s">
+        <v>110</v>
+      </c>
+      <c r="SC2" t="s">
+        <v>111</v>
+      </c>
+      <c r="SD2" t="s">
+        <v>112</v>
+      </c>
+      <c r="SE2" t="s">
+        <v>113</v>
+      </c>
+      <c r="SF2" t="s">
+        <v>39</v>
+      </c>
+      <c r="SG2" t="s">
+        <v>114</v>
+      </c>
+      <c r="SH2" t="s">
+        <v>41</v>
+      </c>
+      <c r="SI2" t="s">
+        <v>115</v>
+      </c>
+      <c r="SJ2" t="s">
+        <v>116</v>
+      </c>
+      <c r="SK2" t="s">
+        <v>117</v>
+      </c>
+      <c r="SL2" t="s">
+        <v>118</v>
+      </c>
+      <c r="SM2" t="s">
+        <v>119</v>
+      </c>
+      <c r="SN2" t="s">
+        <v>120</v>
+      </c>
+      <c r="SO2" t="s">
+        <v>121</v>
+      </c>
+      <c r="SP2" t="s">
+        <v>122</v>
+      </c>
+      <c r="SQ2" t="s">
+        <v>123</v>
+      </c>
+      <c r="SR2" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="3" spans="1:490">
+    <row r="3" spans="1:512">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2706,7 +2854,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>27722.51006805505</v>
@@ -2715,7 +2863,7 @@
         <v>27722.51006805504</v>
       </c>
       <c r="F3">
-        <v>0.2333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2724,67 +2872,67 @@
         <v>0.7</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.6380952380952379</v>
+        <v>0.6238095238095239</v>
       </c>
       <c r="K3">
         <v>0.3</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3619047619047618</v>
+        <v>0.3761904761904761</v>
       </c>
       <c r="P3">
-        <v>-0.04201405983650307</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R3">
-        <v>2.354431840872052</v>
+        <v>2.944284778000219</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.1784962312133287</v>
+        <v>0.1979658362297906</v>
       </c>
       <c r="U3">
-        <v>-198.6438720694568</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W3">
-        <v>15755.20605194686</v>
+        <v>19702.33860574303</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>663.6945499991367</v>
+        <v>763.5130208845346</v>
       </c>
       <c r="Z3">
-        <v>1.8</v>
+        <v>1.307692307692308</v>
       </c>
       <c r="AA3">
-        <v>1.461538461538461</v>
+        <v>1.307692307692308</v>
       </c>
       <c r="AB3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AC3">
-        <v>1.412488761378659</v>
+        <v>2.615670121531791</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -2793,19 +2941,19 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.4549408565196836</v>
+        <v>0.3340371005242398</v>
       </c>
       <c r="AK3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AL3">
-        <v>1.50414146821682</v>
+        <v>1.238833251869997</v>
       </c>
       <c r="AM3">
         <v>1.005238471359479</v>
       </c>
       <c r="AN3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AO3">
         <v>10.3613073773297</v>
@@ -2814,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.132785340793603</v>
+        <v>1.073906962744644</v>
       </c>
       <c r="AR3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AS3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AT3">
         <v>27722.51006805505</v>
@@ -2829,7 +2977,7 @@
         <v>27722.51006805504</v>
       </c>
       <c r="AV3">
-        <v>0.2333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="AW3">
         <v>0</v>
@@ -2838,67 +2986,67 @@
         <v>0.7</v>
       </c>
       <c r="AY3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AZ3">
-        <v>0.6</v>
+        <v>0.585185185185185</v>
       </c>
       <c r="BA3">
         <v>0.3</v>
       </c>
       <c r="BB3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BC3">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="BD3">
         <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.3999999999999999</v>
+        <v>0.4148148148148148</v>
       </c>
       <c r="BF3">
-        <v>-0.4444444444444448</v>
+        <v>-0.4008918628686369</v>
       </c>
       <c r="BG3">
         <v>6</v>
       </c>
       <c r="BH3">
-        <v>1.749435979441099</v>
+        <v>1.990210270047045</v>
       </c>
       <c r="BI3">
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.1570500961876836</v>
+        <v>0.1797260770543916</v>
       </c>
       <c r="BK3">
-        <v>-1386.117119070754</v>
+        <v>-1039.587839303065</v>
       </c>
       <c r="BL3">
         <v>6</v>
       </c>
       <c r="BM3">
-        <v>11589.35954012929</v>
+        <v>13184.39922986024</v>
       </c>
       <c r="BN3">
         <v>0</v>
       </c>
       <c r="BO3">
-        <v>1051.480702865258</v>
+        <v>1224.747638294683</v>
       </c>
       <c r="BP3">
-        <v>1.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="BQ3">
-        <v>1.9</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="BR3">
         <v>3</v>
       </c>
       <c r="BS3">
-        <v>1.549960455394935</v>
+        <v>1.788212012125805</v>
       </c>
       <c r="BT3">
         <v>0</v>
@@ -2907,34 +3055,34 @@
         <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.349392622235484</v>
+        <v>0.4931650134911401</v>
       </c>
       <c r="CA3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CB3">
-        <v>1.83535149030654</v>
+        <v>1.66005228039753</v>
       </c>
       <c r="CC3">
         <v>1.012658150312407</v>
       </c>
       <c r="CD3">
+        <v>9</v>
+      </c>
+      <c r="CE3">
+        <v>7.886058849471302</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>1.192639602822747</v>
+      </c>
+      <c r="CH3">
+        <v>9</v>
+      </c>
+      <c r="CI3">
         <v>12</v>
-      </c>
-      <c r="CE3">
-        <v>7.886058849471303</v>
-      </c>
-      <c r="CF3">
-        <v>0</v>
-      </c>
-      <c r="CG3">
-        <v>1.197982778471694</v>
-      </c>
-      <c r="CH3">
-        <v>12</v>
-      </c>
-      <c r="CI3">
-        <v>19</v>
       </c>
       <c r="CJ3">
         <v>27722.51006805505</v>
@@ -2943,76 +3091,76 @@
         <v>27722.51006805504</v>
       </c>
       <c r="CL3">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CM3">
         <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.7666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CO3">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="CP3">
-        <v>0.6074074074074072</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="CQ3">
-        <v>0.2333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CR3">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="CS3">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CT3">
         <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.3925925925925926</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="CV3">
-        <v>-0.2204767585022434</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="CX3">
-        <v>1.771311439986953</v>
+        <v>1.501437012964205</v>
       </c>
       <c r="CY3">
         <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.1355719372247108</v>
+        <v>0.1977711050566257</v>
       </c>
       <c r="DA3">
-        <v>-337.9500643646679</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="DC3">
-        <v>15513.25151395093</v>
+        <v>13149.67514388123</v>
       </c>
       <c r="DD3">
         <v>0</v>
       </c>
       <c r="DE3">
-        <v>352.9054293752872</v>
+        <v>792.3521908022608</v>
       </c>
       <c r="DF3">
-        <v>1.166666666666667</v>
+        <v>2</v>
       </c>
       <c r="DG3">
-        <v>1.416666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="DH3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="DI3">
-        <v>1.371168682348629</v>
+        <v>1.594931652740249</v>
       </c>
       <c r="DJ3">
         <v>0</v>
@@ -3021,19 +3169,19 @@
         <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.4319917642031437</v>
+        <v>0.6479399760250149</v>
       </c>
       <c r="DQ3">
         <v>6</v>
       </c>
       <c r="DR3">
-        <v>1.2972500987776</v>
+        <v>1.458570054844792</v>
       </c>
       <c r="DS3">
-        <v>1.003484293638775</v>
+        <v>1.002877215107427</v>
       </c>
       <c r="DT3">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="DU3">
         <v>4.733258578078916</v>
@@ -3042,13 +3190,13 @@
         <v>0</v>
       </c>
       <c r="DW3">
-        <v>1.072133537917647</v>
+        <v>1.073759889078017</v>
       </c>
       <c r="DX3">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="DY3">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="DZ3">
         <v>27722.51006805505</v>
@@ -3057,76 +3205,76 @@
         <v>27722.51006805504</v>
       </c>
       <c r="EB3">
-        <v>0.4666666666666667</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="EC3">
         <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.7666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="EE3">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="EF3">
-        <v>0.6519999999999999</v>
+        <v>0.6466666666666667</v>
       </c>
       <c r="EG3">
-        <v>0.2333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="EH3">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="EI3">
-        <v>0.5333333333333333</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="EJ3">
         <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.348</v>
+        <v>0.3533333333333333</v>
       </c>
       <c r="EL3">
-        <v>-0.1856953381770509</v>
+        <v>-0.1961161351381829</v>
       </c>
       <c r="EM3">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="EN3">
-        <v>1.409893560724722</v>
+        <v>1.773701804128769</v>
       </c>
       <c r="EO3">
         <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.1256963637083948</v>
+        <v>0.2023573214606487</v>
       </c>
       <c r="EQ3">
-        <v>-263.8145636600239</v>
+        <v>-175.8763757733468</v>
       </c>
       <c r="ER3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="ES3">
-        <v>11361.60195289271</v>
+        <v>14293.34415236284</v>
       </c>
       <c r="ET3">
         <v>0</v>
       </c>
       <c r="EU3">
-        <v>480.7258121713973</v>
+        <v>908.6403104814792</v>
       </c>
       <c r="EV3">
-        <v>1</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="EW3">
-        <v>1.461538461538461</v>
+        <v>1.5</v>
       </c>
       <c r="EX3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="EY3">
-        <v>1.243426787116279</v>
+        <v>1.648938067041515</v>
       </c>
       <c r="EZ3">
         <v>0</v>
@@ -3135,34 +3283,34 @@
         <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.5333914607686796</v>
+        <v>0.6243983972957273</v>
       </c>
       <c r="FG3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="FH3">
-        <v>1.765274207843843</v>
+        <v>1.487569808583828</v>
       </c>
       <c r="FI3">
         <v>1.003182180214986</v>
       </c>
       <c r="FJ3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="FK3">
-        <v>6.383611372607756</v>
+        <v>6.383611372607755</v>
       </c>
       <c r="FL3">
         <v>0</v>
       </c>
       <c r="FM3">
-        <v>1.082964185709864</v>
+        <v>1.078126544812775</v>
       </c>
       <c r="FN3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="FO3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="FP3">
         <v>27722.51006805505</v>
@@ -3171,76 +3319,76 @@
         <v>27722.51006805504</v>
       </c>
       <c r="FR3">
+        <v>0.3</v>
+      </c>
+      <c r="FS3">
+        <v>0</v>
+      </c>
+      <c r="FT3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="FU3">
+        <v>2</v>
+      </c>
+      <c r="FV3">
+        <v>0.6196078431372547</v>
+      </c>
+      <c r="FW3">
         <v>0.2666666666666667</v>
       </c>
-      <c r="FS3">
-        <v>0</v>
-      </c>
-      <c r="FT3">
+      <c r="FX3">
+        <v>2</v>
+      </c>
+      <c r="FY3">
         <v>0.7</v>
       </c>
-      <c r="FU3">
-        <v>7</v>
-      </c>
-      <c r="FV3">
-        <v>0.6285714285714284</v>
-      </c>
-      <c r="FW3">
-        <v>0.3</v>
-      </c>
-      <c r="FX3">
-        <v>7</v>
-      </c>
-      <c r="FY3">
-        <v>0.7333333333333333</v>
-      </c>
       <c r="FZ3">
         <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.3714285714285715</v>
+        <v>0.3803921568627451</v>
       </c>
       <c r="GB3">
-        <v>-0.02041205856987655</v>
+        <v>-0.1788854381999808</v>
       </c>
       <c r="GC3">
+        <v>12</v>
+      </c>
+      <c r="GD3">
+        <v>1.618189483100841</v>
+      </c>
+      <c r="GE3">
+        <v>0</v>
+      </c>
+      <c r="GF3">
+        <v>0.1740569975522754</v>
+      </c>
+      <c r="GG3">
+        <v>-72.46767785825432</v>
+      </c>
+      <c r="GH3">
+        <v>12</v>
+      </c>
+      <c r="GI3">
+        <v>12936.32041445332</v>
+      </c>
+      <c r="GJ3">
+        <v>0</v>
+      </c>
+      <c r="GK3">
+        <v>633.9054805651724</v>
+      </c>
+      <c r="GL3">
+        <v>3</v>
+      </c>
+      <c r="GM3">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="GN3">
         <v>5</v>
       </c>
-      <c r="GD3">
-        <v>1.978614012992505</v>
-      </c>
-      <c r="GE3">
-        <v>0</v>
-      </c>
-      <c r="GF3">
-        <v>0.2240589566406841</v>
-      </c>
-      <c r="GG3">
-        <v>-79.1252029493844</v>
-      </c>
-      <c r="GH3">
-        <v>5</v>
-      </c>
-      <c r="GI3">
-        <v>15817.66852145787</v>
-      </c>
-      <c r="GJ3">
-        <v>0</v>
-      </c>
-      <c r="GK3">
-        <v>563.9317901859561</v>
-      </c>
-      <c r="GL3">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="GM3">
-        <v>1.5</v>
-      </c>
-      <c r="GN3">
-        <v>11</v>
-      </c>
       <c r="GO3">
-        <v>1.640800468452642</v>
+        <v>1.281978626079284</v>
       </c>
       <c r="GP3">
         <v>0</v>
@@ -3249,19 +3397,19 @@
         <v>0</v>
       </c>
       <c r="GV3">
-        <v>0.1897180851410243</v>
+        <v>0.7586215838884527</v>
       </c>
       <c r="GW3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="GX3">
-        <v>1.398187315445147</v>
+        <v>1.635921092376948</v>
       </c>
       <c r="GY3">
-        <v>1.002620888490354</v>
+        <v>1.001308729228491</v>
       </c>
       <c r="GZ3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="HA3">
         <v>6.913695041311231</v>
@@ -3270,10 +3418,10 @@
         <v>0</v>
       </c>
       <c r="HC3">
-        <v>1.097401839512229</v>
+        <v>1.06049516007167</v>
       </c>
       <c r="HD3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="HE3">
         <v>9</v>
@@ -3291,19 +3439,19 @@
         <v>0</v>
       </c>
       <c r="HJ3">
-        <v>0.7333333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="HK3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.6375000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="HM3">
-        <v>0.2666666666666667</v>
+        <v>0.3</v>
       </c>
       <c r="HN3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="HO3">
         <v>0.8333333333333334</v>
@@ -3312,49 +3460,49 @@
         <v>0</v>
       </c>
       <c r="HQ3">
-        <v>0.3625</v>
+        <v>0.35</v>
       </c>
       <c r="HR3">
         <v>0</v>
       </c>
       <c r="HS3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="HT3">
-        <v>2.803450351682867</v>
+        <v>2.623687253013445</v>
       </c>
       <c r="HU3">
         <v>0</v>
       </c>
       <c r="HV3">
-        <v>0.1896599433157891</v>
+        <v>0.2102842468611035</v>
       </c>
       <c r="HW3">
         <v>0</v>
       </c>
       <c r="HX3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="HY3">
-        <v>16955.58364152483</v>
+        <v>15868.35616367083</v>
       </c>
       <c r="HZ3">
         <v>0</v>
       </c>
       <c r="IA3">
-        <v>1039.56041539984</v>
+        <v>1175.46385013159</v>
       </c>
       <c r="IB3">
-        <v>1.538461538461539</v>
+        <v>1.636363636363636</v>
       </c>
       <c r="IC3">
-        <v>1.538461538461539</v>
+        <v>1.636363636363636</v>
       </c>
       <c r="ID3">
         <v>2</v>
       </c>
       <c r="IE3">
-        <v>2.441067629256868</v>
+        <v>2.242216489342926</v>
       </c>
       <c r="IF3">
         <v>0</v>
@@ -3363,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="IL3">
-        <v>0.5226738071728368</v>
+        <v>0.5578923394391483</v>
       </c>
       <c r="IM3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="IN3">
-        <v>1.428551574855634</v>
+        <v>1.513336636533358</v>
       </c>
       <c r="IO3">
         <v>1.013701166449802</v>
@@ -3384,13 +3532,13 @@
         <v>0</v>
       </c>
       <c r="IS3">
-        <v>1.121861189839264</v>
+        <v>1.13638412696543</v>
       </c>
       <c r="IT3">
         <v>8</v>
       </c>
       <c r="IU3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="IV3">
         <v>27722.51006805505</v>
@@ -3399,97 +3547,97 @@
         <v>27722.51006805504</v>
       </c>
       <c r="IX3">
-        <v>0.3</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="IY3">
         <v>0</v>
       </c>
       <c r="IZ3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="JA3">
+        <v>9</v>
+      </c>
+      <c r="JB3">
+        <v>0.65</v>
+      </c>
+      <c r="JC3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="JD3">
+        <v>9</v>
+      </c>
+      <c r="JE3">
         <v>0.7333333333333333</v>
       </c>
-      <c r="JA3">
-        <v>5</v>
-      </c>
-      <c r="JB3">
-        <v>0.6473684210526315</v>
-      </c>
-      <c r="JC3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="JD3">
-        <v>5</v>
-      </c>
-      <c r="JE3">
-        <v>0.7</v>
-      </c>
       <c r="JF3">
         <v>0</v>
       </c>
       <c r="JG3">
-        <v>0.3526315789473684</v>
+        <v>0.35</v>
       </c>
       <c r="JH3">
-        <v>-0.5555555555555652</v>
+        <v>-0.167399151401001</v>
       </c>
       <c r="JI3">
+        <v>4</v>
+      </c>
+      <c r="JJ3">
+        <v>1.893140334361041</v>
+      </c>
+      <c r="JK3">
+        <v>0</v>
+      </c>
+      <c r="JL3">
+        <v>0.1170655491082642</v>
+      </c>
+      <c r="JM3">
+        <v>-790.9207089205447</v>
+      </c>
+      <c r="JN3">
+        <v>4</v>
+      </c>
+      <c r="JO3">
+        <v>15275.69670515101</v>
+      </c>
+      <c r="JP3">
+        <v>0</v>
+      </c>
+      <c r="JQ3">
+        <v>568.7603663596959</v>
+      </c>
+      <c r="JR3">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="JS3">
+        <v>1.25</v>
+      </c>
+      <c r="JT3">
+        <v>3</v>
+      </c>
+      <c r="JU3">
+        <v>1.624604585033894</v>
+      </c>
+      <c r="JV3">
+        <v>0</v>
+      </c>
+      <c r="JW3">
+        <v>0</v>
+      </c>
+      <c r="KB3">
+        <v>0.5087819148967656</v>
+      </c>
+      <c r="KC3">
+        <v>9</v>
+      </c>
+      <c r="KD3">
+        <v>1.402970625234999</v>
+      </c>
+      <c r="KE3">
+        <v>1.018091696027935</v>
+      </c>
+      <c r="KF3">
         <v>12</v>
-      </c>
-      <c r="JJ3">
-        <v>2.029878761675161</v>
-      </c>
-      <c r="JK3">
-        <v>0</v>
-      </c>
-      <c r="JL3">
-        <v>0.09184280316136179</v>
-      </c>
-      <c r="JM3">
-        <v>-312.3688347200223</v>
-      </c>
-      <c r="JN3">
-        <v>12</v>
-      </c>
-      <c r="JO3">
-        <v>16379.03527212249</v>
-      </c>
-      <c r="JP3">
-        <v>0</v>
-      </c>
-      <c r="JQ3">
-        <v>361.0161348454872</v>
-      </c>
-      <c r="JR3">
-        <v>1.25</v>
-      </c>
-      <c r="JS3">
-        <v>1.214285714285714</v>
-      </c>
-      <c r="JT3">
-        <v>4</v>
-      </c>
-      <c r="JU3">
-        <v>1.426632084477992</v>
-      </c>
-      <c r="JV3">
-        <v>0</v>
-      </c>
-      <c r="JW3">
-        <v>0</v>
-      </c>
-      <c r="KB3">
-        <v>0.458562846260995</v>
-      </c>
-      <c r="KC3">
-        <v>8</v>
-      </c>
-      <c r="KD3">
-        <v>1.328775327341012</v>
-      </c>
-      <c r="KE3">
-        <v>1.006806635069037</v>
-      </c>
-      <c r="KF3">
-        <v>9</v>
       </c>
       <c r="KG3">
         <v>6.182308205716017</v>
@@ -3498,13 +3646,13 @@
         <v>0</v>
       </c>
       <c r="KI3">
-        <v>1.042544477825997</v>
+        <v>1.107395566751162</v>
       </c>
       <c r="KJ3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="KK3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="KL3">
         <v>27722.51006805505</v>
@@ -3513,76 +3661,76 @@
         <v>27722.51006805504</v>
       </c>
       <c r="KN3">
-        <v>0.1666666666666667</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="KO3">
         <v>0</v>
       </c>
       <c r="KP3">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="KQ3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="KR3">
-        <v>0.55</v>
+        <v>0.6066666666666667</v>
       </c>
       <c r="KS3">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="KT3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="KU3">
-        <v>0.8333333333333334</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="KV3">
         <v>0</v>
       </c>
       <c r="KW3">
-        <v>0.45</v>
+        <v>0.3933333333333334</v>
       </c>
       <c r="KX3">
-        <v>0.2672612419124238</v>
+        <v>0.1336306209562119</v>
       </c>
       <c r="KY3">
         <v>4</v>
       </c>
       <c r="KZ3">
-        <v>2.607018141729865</v>
+        <v>2.213233124057352</v>
       </c>
       <c r="LA3">
         <v>0</v>
       </c>
       <c r="LB3">
-        <v>0.3697370233990571</v>
+        <v>0.337337475785078</v>
       </c>
       <c r="LC3">
-        <v>1050.294049053802</v>
+        <v>525.1470245269011</v>
       </c>
       <c r="LD3">
         <v>4</v>
       </c>
       <c r="LE3">
-        <v>14683.84275602619</v>
+        <v>12465.87687898577</v>
       </c>
       <c r="LF3">
         <v>0</v>
       </c>
       <c r="LG3">
-        <v>2694.629462208125</v>
+        <v>2599.296745174584</v>
       </c>
       <c r="LH3">
-        <v>1.666666666666667</v>
+        <v>1.9</v>
       </c>
       <c r="LI3">
-        <v>1.666666666666667</v>
+        <v>1.9</v>
       </c>
       <c r="LJ3">
         <v>2</v>
       </c>
       <c r="LK3">
-        <v>3.420952380952381</v>
+        <v>2.733469842317392</v>
       </c>
       <c r="LL3">
         <v>0</v>
@@ -3591,34 +3739,34 @@
         <v>0</v>
       </c>
       <c r="LR3">
-        <v>0.5975134556621949</v>
+        <v>0.6655112115366552</v>
       </c>
       <c r="LS3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="LT3">
-        <v>1.636126227478111</v>
+        <v>1.882551981361395</v>
       </c>
       <c r="LU3">
-        <v>1.039377832284561</v>
+        <v>1.019308747825531</v>
       </c>
       <c r="LV3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="LW3">
-        <v>12.2657861878078</v>
+        <v>12.26578618780779</v>
       </c>
       <c r="LX3">
         <v>0</v>
       </c>
       <c r="LY3">
-        <v>1.258720164747539</v>
+        <v>1.28272239396076</v>
       </c>
       <c r="LZ3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="MA3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="MB3">
         <v>27722.51006805505</v>
@@ -3627,76 +3775,76 @@
         <v>27722.51006805504</v>
       </c>
       <c r="MD3">
-        <v>0.3</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="ME3">
         <v>0</v>
       </c>
       <c r="MF3">
-        <v>0.6333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="MG3">
         <v>2</v>
       </c>
       <c r="MH3">
-        <v>0.58</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="MI3">
-        <v>0.3666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="MJ3">
         <v>2</v>
       </c>
       <c r="MK3">
-        <v>0.7</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="ML3">
         <v>0</v>
       </c>
       <c r="MM3">
-        <v>0.42</v>
+        <v>0.4500000000000001</v>
       </c>
       <c r="MN3">
-        <v>0.1856953381770508</v>
+        <v>0.2558934070887259</v>
       </c>
       <c r="MO3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="MP3">
-        <v>1.465084505518727</v>
+        <v>1.207116201877296</v>
       </c>
       <c r="MQ3">
         <v>0</v>
       </c>
       <c r="MR3">
-        <v>0.419632755877709</v>
+        <v>0.5116393050626352</v>
       </c>
       <c r="MS3">
-        <v>279.3723698102403</v>
+        <v>788.2384810251315</v>
       </c>
       <c r="MT3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="MU3">
-        <v>10155.1471228699</v>
+        <v>8367.054991222943</v>
       </c>
       <c r="MV3">
         <v>0</v>
       </c>
       <c r="MW3">
-        <v>2574.274720059565</v>
+        <v>3664.866432986195</v>
       </c>
       <c r="MX3">
-        <v>2.4</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="MY3">
-        <v>1.333333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="MZ3">
         <v>3</v>
       </c>
       <c r="NA3">
-        <v>2.088231694338016</v>
+        <v>2.447619047619048</v>
       </c>
       <c r="NB3">
         <v>0</v>
@@ -3705,34 +3853,34 @@
         <v>0</v>
       </c>
       <c r="NH3">
-        <v>0.5863104608143044</v>
+        <v>0.8385604131125109</v>
       </c>
       <c r="NI3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="NJ3">
-        <v>1.866692837160471</v>
+        <v>2.122208985498237</v>
       </c>
       <c r="NK3">
-        <v>1.010180044748604</v>
+        <v>1.029265260747007</v>
       </c>
       <c r="NL3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="NM3">
-        <v>5.903443988482954</v>
+        <v>5.903443988482955</v>
       </c>
       <c r="NN3">
         <v>0</v>
       </c>
       <c r="NO3">
-        <v>1.328484459569987</v>
+        <v>1.41925787549796</v>
       </c>
       <c r="NP3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="NQ3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="NR3">
         <v>27722.51006805505</v>
@@ -3747,19 +3895,19 @@
         <v>0</v>
       </c>
       <c r="NV3">
-        <v>0.7666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="NW3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="NX3">
-        <v>0.6466666666666666</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="NY3">
-        <v>0.2333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="NZ3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="OA3">
         <v>0.7</v>
@@ -3768,49 +3916,49 @@
         <v>0</v>
       </c>
       <c r="OC3">
-        <v>0.3533333333333334</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="OD3">
-        <v>0</v>
+        <v>0.1111111111111117</v>
       </c>
       <c r="OE3">
         <v>4</v>
       </c>
       <c r="OF3">
-        <v>2.36002939936924</v>
+        <v>2.089480439863378</v>
       </c>
       <c r="OG3">
         <v>0</v>
       </c>
       <c r="OH3">
-        <v>0.2997126410601353</v>
+        <v>0.2994402404476911</v>
       </c>
       <c r="OI3">
-        <v>0</v>
+        <v>504.6931053835178</v>
       </c>
       <c r="OJ3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="OK3">
-        <v>12796.54562509185</v>
+        <v>11329.5757199444</v>
       </c>
       <c r="OL3">
         <v>0</v>
       </c>
       <c r="OM3">
-        <v>2542.561143083011</v>
+        <v>2363.295936760417</v>
       </c>
       <c r="ON3">
-        <v>1.692307692307692</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="OO3">
-        <v>1.692307692307692</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="OP3">
         <v>2</v>
       </c>
       <c r="OQ3">
-        <v>3.171356208712531</v>
+        <v>2.386917793937499</v>
       </c>
       <c r="OR3">
         <v>0</v>
@@ -3819,19 +3967,19 @@
         <v>0</v>
       </c>
       <c r="OX3">
-        <v>0.6901232591851568</v>
+        <v>0.8506856794478567</v>
       </c>
       <c r="OY3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="OZ3">
-        <v>1.846972426420848</v>
+        <v>2.047039331350688</v>
       </c>
       <c r="PA3">
         <v>1.018542747424443</v>
       </c>
       <c r="PB3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="PC3">
         <v>12.5262186227228</v>
@@ -3840,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="PE3">
-        <v>1.229877645233837</v>
+        <v>1.259558342492295</v>
       </c>
       <c r="PF3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="PG3">
         <v>1</v>
@@ -3855,13 +4003,13 @@
         <v>5</v>
       </c>
       <c r="PJ3">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="PK3">
-        <v>13.4</v>
+        <v>10.1</v>
       </c>
       <c r="PL3">
-        <v>6.62117814289874</v>
+        <v>3.858756276314947</v>
       </c>
       <c r="PM3">
         <v>0.1666666666666667</v>
@@ -3873,31 +4021,31 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="PP3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="PQ3">
-        <v>0.2733333333333333</v>
+        <v>0.29</v>
       </c>
       <c r="PR3">
-        <v>0.7100000000000001</v>
+        <v>0.6933333333333332</v>
       </c>
       <c r="PS3">
-        <v>0.6187609161793372</v>
+        <v>0.6149107602637014</v>
       </c>
       <c r="PT3">
-        <v>0.08137703743822468</v>
+        <v>0.08439325934114775</v>
       </c>
       <c r="PU3">
-        <v>0.05385164807134506</v>
+        <v>0.04163331998932266</v>
       </c>
       <c r="PV3">
-        <v>0.03199143434196162</v>
+        <v>0.02971521818240699</v>
       </c>
       <c r="PW3">
         <v>0.2333333333333333</v>
       </c>
       <c r="PX3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="PY3">
         <v>0.8333333333333334</v>
@@ -3906,100 +4054,172 @@
         <v>0</v>
       </c>
       <c r="QA3">
-        <v>0.29</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="QB3">
-        <v>0.7266666666666667</v>
+        <v>0.71</v>
       </c>
       <c r="QC3">
-        <v>0.3812390838206627</v>
+        <v>0.3850892397362985</v>
       </c>
       <c r="QD3">
-        <v>0.05385164807134504</v>
+        <v>0.04163331998932265</v>
       </c>
       <c r="QE3">
-        <v>0.08137703743822471</v>
+        <v>0.08439325934114776</v>
       </c>
       <c r="QF3">
-        <v>0.03199143434196165</v>
+        <v>0.02971521818240697</v>
       </c>
       <c r="QG3">
-        <v>-0.5555555555555652</v>
+        <v>-0.4008918628686369</v>
       </c>
       <c r="QH3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="QI3">
-        <v>2.803450351682867</v>
+        <v>2.944284778000219</v>
       </c>
       <c r="QJ3">
         <v>0</v>
       </c>
       <c r="QK3">
-        <v>-0.1015641634996209</v>
+        <v>-0.04426574484517522</v>
       </c>
       <c r="QL3">
-        <v>2.052914799399319</v>
+        <v>1.985448070141359</v>
       </c>
       <c r="QM3">
-        <v>0.2191458751788855</v>
+        <v>0.2427644154618504</v>
       </c>
       <c r="QN3">
-        <v>0.2437634036316809</v>
+        <v>0.1831087098036524</v>
       </c>
       <c r="QO3">
-        <v>0.44632251936433</v>
+        <v>0.4917063961157726</v>
       </c>
       <c r="QP3">
-        <v>0.1037733160951575</v>
+        <v>0.1075470458927156</v>
       </c>
       <c r="QQ3">
-        <v>-1386.117119070754</v>
+        <v>-1039.587839303065</v>
       </c>
       <c r="QR3">
         <v>6</v>
       </c>
       <c r="QS3">
-        <v>16955.58364152483</v>
+        <v>19702.33860574303</v>
       </c>
       <c r="QT3">
         <v>0</v>
       </c>
       <c r="QU3">
-        <v>-124.8353237970266</v>
+        <v>-26.07739909196607</v>
       </c>
       <c r="QV3">
-        <v>14100.72419980129</v>
+        <v>13657.26380052756</v>
       </c>
       <c r="QW3">
-        <v>1232.478016019306</v>
+        <v>1469.484197244061</v>
       </c>
       <c r="QX3">
-        <v>0.7777777777777778</v>
+        <v>1.307692307692308</v>
       </c>
       <c r="QY3">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="QZ3">
-        <v>1.495854700854701</v>
+        <v>2.001072261072261</v>
       </c>
       <c r="RA3">
-        <v>1.214285714285714</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="RB3">
-        <v>1.9</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="RC3">
-        <v>1.518479853479854</v>
+        <v>1.539167499167499</v>
       </c>
       <c r="RD3">
-        <v>1.243426787116279</v>
+        <v>1.281978626079284</v>
       </c>
       <c r="RE3">
-        <v>3.420952380952381</v>
+        <v>2.733469842317392</v>
       </c>
       <c r="RF3">
-        <v>1.976608515242893</v>
+        <v>2.03645582377694</v>
+      </c>
+      <c r="RR3">
+        <v>17</v>
+      </c>
+      <c r="RT3">
+        <v>0</v>
+      </c>
+      <c r="RW3">
+        <v>0.3340371005242398</v>
+      </c>
+      <c r="RX3">
+        <v>0.8506856794478567</v>
+      </c>
+      <c r="RY3">
+        <v>0.6279593629657511</v>
+      </c>
+      <c r="RZ3">
+        <v>0.1537943243367617</v>
+      </c>
+      <c r="SA3">
+        <v>2</v>
+      </c>
+      <c r="SB3">
+        <v>13</v>
+      </c>
+      <c r="SC3">
+        <v>7.9</v>
+      </c>
+      <c r="SD3">
+        <v>2.981610303175115</v>
+      </c>
+      <c r="SE3">
+        <v>1.001308729228491</v>
+      </c>
+      <c r="SF3">
+        <v>17</v>
+      </c>
+      <c r="SG3">
+        <v>12.5262186227228</v>
+      </c>
+      <c r="SH3">
+        <v>0</v>
+      </c>
+      <c r="SI3">
+        <v>1.012417436469751</v>
+      </c>
+      <c r="SJ3">
+        <v>8.446895235537671</v>
+      </c>
+      <c r="SK3">
+        <v>1.168424646519746</v>
+      </c>
+      <c r="SL3">
+        <v>0.008683366945376041</v>
+      </c>
+      <c r="SM3">
+        <v>2.746212453050284</v>
+      </c>
+      <c r="SN3">
+        <v>0.1128369053170773</v>
+      </c>
+      <c r="SO3">
+        <v>1.238833251869997</v>
+      </c>
+      <c r="SP3">
+        <v>2.122208985498237</v>
+      </c>
+      <c r="SQ3">
+        <v>1.644905404805177</v>
+      </c>
+      <c r="SR3">
+        <v>0.273226859642874</v>
       </c>
     </row>
   </sheetData>
@@ -4014,7 +4234,7 @@
     <mergeCell ref="KK1:LZ1"/>
     <mergeCell ref="MA1:NP1"/>
     <mergeCell ref="NQ1:PF1"/>
-    <mergeCell ref="PG1:RV1"/>
+    <mergeCell ref="PG1:SR1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
